--- a/file.xlsx
+++ b/file.xlsx
@@ -15396,7 +15396,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J444"/>
+  <dimension ref="A1:J498"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15410,8 +15410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1"/>
+    <row r="2" ht="20.0" customHeight="true">
+      <c r="A2"/>
     </row>
     <row r="3" ht="24.0" customHeight="true">
       <c r="A3" t="s" s="2">
@@ -15419,6230 +15419,6446 @@
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" t="s" s="3">
+      <c r="A4"/>
+    </row>
+    <row r="5" ht="20.0" customHeight="true">
+      <c r="A5" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B5" t="s" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" t="s" s="4">
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B6" t="s" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="20.0" customHeight="true">
-      <c r="A6" t="s" s="5">
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B7" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="20.0" customHeight="true">
-      <c r="A7" t="s" s="6">
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" t="s" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="20.0" customHeight="true">
-      <c r="A8" t="s" s="7">
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B9" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C9" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D9" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E9" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="F8" t="s" s="12">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G8" t="s" s="13">
+      <c r="G9" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H8" t="s" s="14">
+      <c r="H9" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="I8" t="s" s="15">
+      <c r="I9" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="J8" t="s" s="16">
+      <c r="J9" t="s" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="20.0" customHeight="true">
-      <c r="A9" t="s" s="17">
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" t="s" s="17">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="18">
+      <c r="B10" t="s" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="20.0" customHeight="true">
-      <c r="A10" t="s" s="19">
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" t="s" s="19">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="20.0" customHeight="true">
-      <c r="A11" t="s" s="20">
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="B11" t="s" s="21">
+      <c r="B12" t="s" s="21">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="22">
+      <c r="C12" t="s" s="22">
         <v>24</v>
       </c>
-      <c r="D11" t="s" s="23">
+      <c r="D12" t="s" s="23">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="24">
+      <c r="E12" t="s" s="24">
         <v>26</v>
       </c>
-      <c r="F11" t="s" s="25">
+      <c r="F12" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="G11" t="s" s="26">
+      <c r="G12" t="s" s="26">
         <v>28</v>
       </c>
-      <c r="H11" t="s" s="27">
+      <c r="H12" t="s" s="27">
         <v>29</v>
       </c>
-      <c r="I11" t="s" s="28">
+      <c r="I12" t="s" s="28">
         <v>30</v>
       </c>
-      <c r="J11" t="s" s="29">
+      <c r="J12" t="s" s="29">
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="20.0" customHeight="true">
-      <c r="A12" t="s" s="30">
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" t="s" s="30">
         <v>32</v>
       </c>
-      <c r="B12" t="s" s="31">
+      <c r="B13" t="s" s="31">
         <v>33</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="C13" t="s" s="32">
         <v>34</v>
       </c>
-      <c r="D12" t="s" s="33">
+      <c r="D13" t="s" s="33">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="20.0" customHeight="true">
-      <c r="A13" t="s" s="34">
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14"/>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" t="s" s="34">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="34">
+      <c r="B15" t="s" s="34">
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="20.0" customHeight="true">
-      <c r="A14" t="s" s="35">
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" t="s" s="35">
         <v>4</v>
       </c>
-      <c r="B14" t="s" s="35">
+      <c r="B16" t="s" s="35">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="20.0" customHeight="true">
-      <c r="A15" t="s" s="36">
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" t="s" s="36">
         <v>6</v>
       </c>
-      <c r="B15" t="s" s="36">
+      <c r="B17" t="s" s="36">
         <v>39</v>
       </c>
     </row>
-    <row r="16" ht="20.0" customHeight="true">
-      <c r="A16" t="s" s="37">
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" t="s" s="37">
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="20.0" customHeight="true">
-      <c r="A17" t="s" s="38">
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" t="s" s="38">
         <v>40</v>
       </c>
-      <c r="B17" t="s" s="39">
+      <c r="B19" t="s" s="39">
         <v>41</v>
       </c>
-      <c r="C17" t="s" s="40">
+      <c r="C19" t="s" s="40">
         <v>42</v>
       </c>
-      <c r="D17" t="s" s="41">
+      <c r="D19" t="s" s="41">
         <v>43</v>
       </c>
-      <c r="E17" t="s" s="42">
+      <c r="E19" t="s" s="42">
         <v>44</v>
       </c>
-      <c r="F17" t="s" s="43">
+      <c r="F19" t="s" s="43">
         <v>45</v>
       </c>
-      <c r="G17" t="s" s="44">
+      <c r="G19" t="s" s="44">
         <v>46</v>
       </c>
-      <c r="H17" t="s" s="45">
+      <c r="H19" t="s" s="45">
         <v>47</v>
       </c>
-      <c r="I17" t="s" s="46">
+      <c r="I19" t="s" s="46">
         <v>48</v>
       </c>
-      <c r="J17" t="s" s="47">
+      <c r="J19" t="s" s="47">
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="20.0" customHeight="true">
-      <c r="A18" t="s" s="48">
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" t="s" s="48">
         <v>50</v>
       </c>
-      <c r="B18" t="s" s="49">
+      <c r="B20" t="s" s="49">
         <v>51</v>
       </c>
-      <c r="C18" t="s" s="50">
+      <c r="C20" t="s" s="50">
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="20.0" customHeight="true">
-      <c r="A19" t="s" s="51">
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" t="s" s="51">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="20.0" customHeight="true">
-      <c r="A20" t="s" s="52">
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" t="s" s="52">
         <v>53</v>
       </c>
-      <c r="B20" t="s" s="53">
+      <c r="B22" t="s" s="53">
         <v>54</v>
       </c>
-      <c r="C20" t="s" s="54">
+      <c r="C22" t="s" s="54">
         <v>55</v>
       </c>
-      <c r="D20" t="s" s="55">
+      <c r="D22" t="s" s="55">
         <v>56</v>
       </c>
-      <c r="E20" t="s" s="56">
+      <c r="E22" t="s" s="56">
         <v>57</v>
       </c>
-      <c r="F20" t="s" s="57">
+      <c r="F22" t="s" s="57">
         <v>58</v>
       </c>
-      <c r="G20" t="s" s="58">
+      <c r="G22" t="s" s="58">
         <v>59</v>
       </c>
-      <c r="H20" t="s" s="59">
+      <c r="H22" t="s" s="59">
         <v>60</v>
       </c>
-      <c r="I20" t="s" s="60">
+      <c r="I22" t="s" s="60">
         <v>61</v>
       </c>
-      <c r="J20" t="s" s="61">
+      <c r="J22" t="s" s="61">
         <v>62</v>
       </c>
     </row>
-    <row r="21" ht="20.0" customHeight="true">
-      <c r="A21" t="s" s="62">
+    <row r="23" ht="20.0" customHeight="true">
+      <c r="A23" t="s" s="62">
         <v>63</v>
       </c>
-      <c r="B21" t="s" s="63">
+      <c r="B23" t="s" s="63">
         <v>64</v>
       </c>
-      <c r="C21" t="s" s="64">
+      <c r="C23" t="s" s="64">
         <v>65</v>
       </c>
-      <c r="D21" t="s" s="65">
+      <c r="D23" t="s" s="65">
         <v>66</v>
       </c>
     </row>
-    <row r="22" ht="20.0" customHeight="true">
-      <c r="A22" t="s" s="66">
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24"/>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" t="s" s="66">
         <v>67</v>
       </c>
-      <c r="B22" t="s" s="66">
+      <c r="B25" t="s" s="66">
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="20.0" customHeight="true">
-      <c r="A23" t="s" s="67">
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" t="s" s="67">
         <v>4</v>
       </c>
-      <c r="B23" t="s" s="67">
+      <c r="B26" t="s" s="67">
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="20.0" customHeight="true">
-      <c r="A24" t="s" s="68">
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" t="s" s="68">
         <v>6</v>
       </c>
-      <c r="B24" t="s" s="68">
+      <c r="B27" t="s" s="68">
         <v>70</v>
       </c>
     </row>
-    <row r="25" ht="20.0" customHeight="true">
-      <c r="A25" t="s" s="69">
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" t="s" s="69">
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="20.0" customHeight="true">
-      <c r="A26" t="s" s="70">
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" t="s" s="70">
         <v>71</v>
       </c>
-      <c r="B26" t="s" s="71">
+      <c r="B29" t="s" s="71">
         <v>72</v>
       </c>
-      <c r="C26" t="s" s="72">
+      <c r="C29" t="s" s="72">
         <v>73</v>
       </c>
-      <c r="D26" t="s" s="73">
+      <c r="D29" t="s" s="73">
         <v>74</v>
       </c>
-      <c r="E26" t="s" s="74">
+      <c r="E29" t="s" s="74">
         <v>75</v>
       </c>
-      <c r="F26" t="s" s="75">
+      <c r="F29" t="s" s="75">
         <v>76</v>
       </c>
-      <c r="G26" t="s" s="76">
+      <c r="G29" t="s" s="76">
         <v>77</v>
       </c>
-      <c r="H26" t="s" s="77">
+      <c r="H29" t="s" s="77">
         <v>78</v>
       </c>
-      <c r="I26" t="s" s="78">
+      <c r="I29" t="s" s="78">
         <v>79</v>
       </c>
-      <c r="J26" t="s" s="79">
+      <c r="J29" t="s" s="79">
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="20.0" customHeight="true">
-      <c r="A27" t="s" s="80">
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" t="s" s="80">
         <v>81</v>
       </c>
-      <c r="B27" t="s" s="81">
+      <c r="B30" t="s" s="81">
         <v>82</v>
       </c>
     </row>
-    <row r="28" ht="20.0" customHeight="true">
-      <c r="A28" t="s" s="82">
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" t="s" s="82">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="20.0" customHeight="true">
-      <c r="A29" t="s" s="83">
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" t="s" s="83">
         <v>83</v>
       </c>
-      <c r="B29" t="s" s="84">
+      <c r="B32" t="s" s="84">
         <v>84</v>
       </c>
-      <c r="C29" t="s" s="85">
+      <c r="C32" t="s" s="85">
         <v>85</v>
       </c>
-      <c r="D29" t="s" s="86">
+      <c r="D32" t="s" s="86">
         <v>86</v>
       </c>
-      <c r="E29" t="s" s="87">
+      <c r="E32" t="s" s="87">
         <v>87</v>
       </c>
-      <c r="F29" t="s" s="88">
+      <c r="F32" t="s" s="88">
         <v>88</v>
       </c>
-      <c r="G29" t="s" s="89">
+      <c r="G32" t="s" s="89">
         <v>89</v>
       </c>
-      <c r="H29" t="s" s="90">
+      <c r="H32" t="s" s="90">
         <v>90</v>
       </c>
-      <c r="I29" t="s" s="91">
+      <c r="I32" t="s" s="91">
         <v>91</v>
       </c>
-      <c r="J29" t="s" s="92">
+      <c r="J32" t="s" s="92">
         <v>92</v>
       </c>
     </row>
-    <row r="30" ht="20.0" customHeight="true">
-      <c r="A30" t="s" s="93">
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" t="s" s="93">
         <v>93</v>
       </c>
-      <c r="B30" t="s" s="94">
+      <c r="B33" t="s" s="94">
         <v>94</v>
       </c>
-      <c r="C30" t="s" s="95">
+      <c r="C33" t="s" s="95">
         <v>95</v>
       </c>
     </row>
-    <row r="31" ht="20.0" customHeight="true">
-      <c r="A31" t="s" s="96">
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34"/>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" t="s" s="96">
         <v>96</v>
       </c>
-      <c r="B31" t="s" s="96">
+      <c r="B35" t="s" s="96">
         <v>97</v>
       </c>
     </row>
-    <row r="32" ht="20.0" customHeight="true">
-      <c r="A32" t="s" s="97">
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" t="s" s="97">
         <v>4</v>
       </c>
-      <c r="B32" t="s" s="97">
+      <c r="B36" t="s" s="97">
         <v>98</v>
       </c>
     </row>
-    <row r="33" ht="20.0" customHeight="true">
-      <c r="A33" t="s" s="98">
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" t="s" s="98">
         <v>6</v>
       </c>
-      <c r="B33" t="s" s="98">
+      <c r="B37" t="s" s="98">
         <v>99</v>
       </c>
     </row>
-    <row r="34" ht="20.0" customHeight="true">
-      <c r="A34" t="s" s="99">
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" t="s" s="99">
         <v>8</v>
       </c>
     </row>
-    <row r="35" ht="20.0" customHeight="true">
-      <c r="A35" t="s" s="100">
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" t="s" s="100">
         <v>100</v>
       </c>
-      <c r="B35" t="s" s="101">
+      <c r="B39" t="s" s="101">
         <v>101</v>
       </c>
-      <c r="C35" t="s" s="102">
+      <c r="C39" t="s" s="102">
         <v>102</v>
       </c>
-      <c r="D35" t="s" s="103">
+      <c r="D39" t="s" s="103">
         <v>103</v>
       </c>
-      <c r="E35" t="s" s="104">
+      <c r="E39" t="s" s="104">
         <v>104</v>
       </c>
-      <c r="F35" t="s" s="105">
+      <c r="F39" t="s" s="105">
         <v>105</v>
       </c>
-      <c r="G35" t="s" s="106">
+      <c r="G39" t="s" s="106">
         <v>106</v>
       </c>
-      <c r="H35" t="s" s="107">
+      <c r="H39" t="s" s="107">
         <v>107</v>
       </c>
-      <c r="I35" t="s" s="108">
+      <c r="I39" t="s" s="108">
         <v>108</v>
       </c>
-      <c r="J35" t="s" s="109">
+      <c r="J39" t="s" s="109">
         <v>109</v>
       </c>
     </row>
-    <row r="36" ht="20.0" customHeight="true">
-      <c r="A36" t="s" s="110">
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" t="s" s="110">
         <v>110</v>
       </c>
-      <c r="B36" t="s" s="111">
+      <c r="B40" t="s" s="111">
         <v>111</v>
       </c>
-      <c r="C36" t="s" s="112">
+      <c r="C40" t="s" s="112">
         <v>112</v>
       </c>
     </row>
-    <row r="37" ht="20.0" customHeight="true">
-      <c r="A37" t="s" s="113">
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" t="s" s="113">
         <v>21</v>
       </c>
     </row>
-    <row r="38" ht="20.0" customHeight="true">
-      <c r="A38" t="s" s="114">
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" t="s" s="114">
         <v>113</v>
       </c>
-      <c r="B38" t="s" s="115">
+      <c r="B42" t="s" s="115">
         <v>114</v>
       </c>
-      <c r="C38" t="s" s="116">
+      <c r="C42" t="s" s="116">
         <v>115</v>
       </c>
-      <c r="D38" t="s" s="117">
+      <c r="D42" t="s" s="117">
         <v>116</v>
       </c>
-      <c r="E38" t="s" s="118">
+      <c r="E42" t="s" s="118">
         <v>117</v>
       </c>
-      <c r="F38" t="s" s="119">
+      <c r="F42" t="s" s="119">
         <v>118</v>
       </c>
-      <c r="G38" t="s" s="120">
+      <c r="G42" t="s" s="120">
         <v>119</v>
       </c>
-      <c r="H38" t="s" s="121">
+      <c r="H42" t="s" s="121">
         <v>120</v>
       </c>
-      <c r="I38" t="s" s="122">
+      <c r="I42" t="s" s="122">
         <v>121</v>
       </c>
-      <c r="J38" t="s" s="123">
+      <c r="J42" t="s" s="123">
         <v>122</v>
       </c>
     </row>
-    <row r="39" ht="20.0" customHeight="true">
-      <c r="A39" t="s" s="124">
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" t="s" s="124">
         <v>123</v>
       </c>
-      <c r="B39" t="s" s="125">
+      <c r="B43" t="s" s="125">
         <v>124</v>
       </c>
-      <c r="C39" t="s" s="126">
+      <c r="C43" t="s" s="126">
         <v>125</v>
       </c>
-      <c r="D39" t="s" s="127">
+      <c r="D43" t="s" s="127">
         <v>126</v>
       </c>
     </row>
-    <row r="40" ht="20.0" customHeight="true">
-      <c r="A40" t="s" s="128">
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44"/>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" t="s" s="128">
         <v>127</v>
       </c>
-      <c r="B40" t="s" s="128">
+      <c r="B45" t="s" s="128">
         <v>128</v>
       </c>
     </row>
-    <row r="41" ht="20.0" customHeight="true">
-      <c r="A41" t="s" s="129">
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" t="s" s="129">
         <v>4</v>
       </c>
-      <c r="B41" t="s" s="129">
+      <c r="B46" t="s" s="129">
         <v>129</v>
       </c>
     </row>
-    <row r="42" ht="20.0" customHeight="true">
-      <c r="A42" t="s" s="130">
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" t="s" s="130">
         <v>6</v>
       </c>
-      <c r="B42" t="s" s="130">
+      <c r="B47" t="s" s="130">
         <v>130</v>
       </c>
     </row>
-    <row r="43" ht="20.0" customHeight="true">
-      <c r="A43" t="s" s="131">
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" t="s" s="131">
         <v>8</v>
       </c>
     </row>
-    <row r="44" ht="20.0" customHeight="true">
-      <c r="A44" t="s" s="132">
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" t="s" s="132">
         <v>131</v>
       </c>
-      <c r="B44" t="s" s="133">
+      <c r="B49" t="s" s="133">
         <v>132</v>
       </c>
-      <c r="C44" t="s" s="134">
+      <c r="C49" t="s" s="134">
         <v>133</v>
       </c>
-      <c r="D44" t="s" s="135">
+      <c r="D49" t="s" s="135">
         <v>134</v>
       </c>
-      <c r="E44" t="s" s="136">
+      <c r="E49" t="s" s="136">
         <v>135</v>
       </c>
-      <c r="F44" t="s" s="137">
+      <c r="F49" t="s" s="137">
         <v>136</v>
       </c>
-      <c r="G44" t="s" s="138">
+      <c r="G49" t="s" s="138">
         <v>137</v>
       </c>
-      <c r="H44" t="s" s="139">
+      <c r="H49" t="s" s="139">
         <v>138</v>
       </c>
-      <c r="I44" t="s" s="140">
+      <c r="I49" t="s" s="140">
         <v>139</v>
       </c>
-      <c r="J44" t="s" s="141">
+      <c r="J49" t="s" s="141">
         <v>140</v>
       </c>
     </row>
-    <row r="45" ht="20.0" customHeight="true">
-      <c r="A45" t="s" s="142">
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" t="s" s="142">
         <v>141</v>
       </c>
-      <c r="B45" t="s" s="143">
+      <c r="B50" t="s" s="143">
         <v>142</v>
       </c>
-      <c r="C45" t="s" s="144">
+      <c r="C50" t="s" s="144">
         <v>143</v>
       </c>
     </row>
-    <row r="46" ht="20.0" customHeight="true">
-      <c r="A46" t="s" s="145">
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" t="s" s="145">
         <v>21</v>
       </c>
     </row>
-    <row r="47" ht="20.0" customHeight="true">
-      <c r="A47" t="s" s="146">
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" t="s" s="146">
         <v>144</v>
       </c>
-      <c r="B47" t="s" s="147">
+      <c r="B52" t="s" s="147">
         <v>145</v>
       </c>
-      <c r="C47" t="s" s="148">
+      <c r="C52" t="s" s="148">
         <v>146</v>
       </c>
-      <c r="D47" t="s" s="149">
+      <c r="D52" t="s" s="149">
         <v>147</v>
       </c>
-      <c r="E47" t="s" s="150">
+      <c r="E52" t="s" s="150">
         <v>148</v>
       </c>
-      <c r="F47" t="s" s="151">
+      <c r="F52" t="s" s="151">
         <v>149</v>
       </c>
-      <c r="G47" t="s" s="152">
+      <c r="G52" t="s" s="152">
         <v>150</v>
       </c>
-      <c r="H47" t="s" s="153">
+      <c r="H52" t="s" s="153">
         <v>151</v>
       </c>
-      <c r="I47" t="s" s="154">
+      <c r="I52" t="s" s="154">
         <v>152</v>
       </c>
-      <c r="J47" t="s" s="155">
+      <c r="J52" t="s" s="155">
         <v>153</v>
       </c>
     </row>
-    <row r="48" ht="20.0" customHeight="true">
-      <c r="A48" t="s" s="156">
+    <row r="53" ht="20.0" customHeight="true">
+      <c r="A53" t="s" s="156">
         <v>154</v>
       </c>
-      <c r="B48" t="s" s="157">
+      <c r="B53" t="s" s="157">
         <v>155</v>
       </c>
-      <c r="C48" t="s" s="158">
+      <c r="C53" t="s" s="158">
         <v>156</v>
       </c>
-      <c r="D48" t="s" s="159">
+      <c r="D53" t="s" s="159">
         <v>157</v>
       </c>
     </row>
-    <row r="49" ht="20.0" customHeight="true">
-      <c r="A49" t="s" s="160">
+    <row r="54" ht="20.0" customHeight="true">
+      <c r="A54"/>
+    </row>
+    <row r="55" ht="20.0" customHeight="true">
+      <c r="A55" t="s" s="160">
         <v>158</v>
       </c>
-      <c r="B49" t="s" s="160">
+      <c r="B55" t="s" s="160">
         <v>159</v>
       </c>
     </row>
-    <row r="50" ht="20.0" customHeight="true">
-      <c r="A50" t="s" s="161">
+    <row r="56" ht="20.0" customHeight="true">
+      <c r="A56" t="s" s="161">
         <v>4</v>
       </c>
-      <c r="B50" t="s" s="161">
+      <c r="B56" t="s" s="161">
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="20.0" customHeight="true">
-      <c r="A51" t="s" s="162">
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" t="s" s="162">
         <v>6</v>
       </c>
-      <c r="B51" t="s" s="162">
+      <c r="B57" t="s" s="162">
         <v>161</v>
       </c>
     </row>
-    <row r="52" ht="20.0" customHeight="true">
-      <c r="A52" t="s" s="163">
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" t="s" s="163">
         <v>8</v>
       </c>
     </row>
-    <row r="53" ht="20.0" customHeight="true">
-      <c r="A53" t="s" s="164">
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" t="s" s="164">
         <v>162</v>
       </c>
-      <c r="B53" t="s" s="165">
+      <c r="B59" t="s" s="165">
         <v>163</v>
       </c>
-      <c r="C53" t="s" s="166">
+      <c r="C59" t="s" s="166">
         <v>164</v>
       </c>
-      <c r="D53" t="s" s="167">
+      <c r="D59" t="s" s="167">
         <v>165</v>
       </c>
-      <c r="E53" t="s" s="168">
+      <c r="E59" t="s" s="168">
         <v>166</v>
       </c>
-      <c r="F53" t="s" s="169">
+      <c r="F59" t="s" s="169">
         <v>167</v>
       </c>
-      <c r="G53" t="s" s="170">
+      <c r="G59" t="s" s="170">
         <v>168</v>
       </c>
-      <c r="H53" t="s" s="171">
+      <c r="H59" t="s" s="171">
         <v>169</v>
       </c>
-      <c r="I53" t="s" s="172">
+      <c r="I59" t="s" s="172">
         <v>170</v>
       </c>
-      <c r="J53" t="s" s="173">
+      <c r="J59" t="s" s="173">
         <v>171</v>
       </c>
     </row>
-    <row r="54" ht="20.0" customHeight="true">
-      <c r="A54" t="s" s="174">
+    <row r="60" ht="20.0" customHeight="true">
+      <c r="A60" t="s" s="174">
         <v>172</v>
       </c>
-      <c r="B54" t="s" s="175">
+      <c r="B60" t="s" s="175">
         <v>173</v>
       </c>
-      <c r="C54" t="s" s="176">
+      <c r="C60" t="s" s="176">
         <v>174</v>
       </c>
-      <c r="D54" t="s" s="177">
+      <c r="D60" t="s" s="177">
         <v>175</v>
       </c>
     </row>
-    <row r="55" ht="20.0" customHeight="true">
-      <c r="A55" t="s" s="178">
+    <row r="61" ht="20.0" customHeight="true">
+      <c r="A61" t="s" s="178">
         <v>21</v>
       </c>
     </row>
-    <row r="56" ht="20.0" customHeight="true">
-      <c r="A56" t="s" s="179">
+    <row r="62" ht="20.0" customHeight="true">
+      <c r="A62" t="s" s="179">
         <v>176</v>
       </c>
-      <c r="B56" t="s" s="180">
+      <c r="B62" t="s" s="180">
         <v>177</v>
       </c>
-      <c r="C56" t="s" s="181">
+      <c r="C62" t="s" s="181">
         <v>178</v>
       </c>
-      <c r="D56" t="s" s="182">
+      <c r="D62" t="s" s="182">
         <v>179</v>
       </c>
-      <c r="E56" t="s" s="183">
+      <c r="E62" t="s" s="183">
         <v>180</v>
       </c>
-      <c r="F56" t="s" s="184">
+      <c r="F62" t="s" s="184">
         <v>181</v>
       </c>
-      <c r="G56" t="s" s="185">
+      <c r="G62" t="s" s="185">
         <v>182</v>
       </c>
-      <c r="H56" t="s" s="186">
+      <c r="H62" t="s" s="186">
         <v>183</v>
       </c>
-      <c r="I56" t="s" s="187">
+      <c r="I62" t="s" s="187">
         <v>184</v>
       </c>
-      <c r="J56" t="s" s="188">
+      <c r="J62" t="s" s="188">
         <v>185</v>
       </c>
     </row>
-    <row r="57" ht="20.0" customHeight="true">
-      <c r="A57" t="s" s="189">
+    <row r="63" ht="20.0" customHeight="true">
+      <c r="A63" t="s" s="189">
         <v>186</v>
       </c>
-      <c r="B57" t="s" s="190">
+      <c r="B63" t="s" s="190">
         <v>187</v>
       </c>
     </row>
-    <row r="58" ht="20.0" customHeight="true">
-      <c r="A58" t="s" s="191">
+    <row r="64" ht="20.0" customHeight="true">
+      <c r="A64"/>
+    </row>
+    <row r="65" ht="20.0" customHeight="true">
+      <c r="A65" t="s" s="191">
         <v>188</v>
       </c>
-      <c r="B58" t="s" s="191">
+      <c r="B65" t="s" s="191">
         <v>189</v>
       </c>
     </row>
-    <row r="59" ht="20.0" customHeight="true">
-      <c r="A59" t="s" s="192">
+    <row r="66" ht="20.0" customHeight="true">
+      <c r="A66" t="s" s="192">
         <v>4</v>
       </c>
-      <c r="B59" t="s" s="192">
+      <c r="B66" t="s" s="192">
         <v>190</v>
       </c>
     </row>
-    <row r="60" ht="20.0" customHeight="true">
-      <c r="A60" t="s" s="193">
+    <row r="67" ht="20.0" customHeight="true">
+      <c r="A67" t="s" s="193">
         <v>6</v>
       </c>
-      <c r="B60" t="s" s="193">
+      <c r="B67" t="s" s="193">
         <v>191</v>
       </c>
     </row>
-    <row r="61" ht="20.0" customHeight="true">
-      <c r="A61" t="s" s="194">
+    <row r="68" ht="20.0" customHeight="true">
+      <c r="A68" t="s" s="194">
         <v>8</v>
       </c>
     </row>
-    <row r="62" ht="20.0" customHeight="true">
-      <c r="A62" t="s" s="195">
+    <row r="69" ht="20.0" customHeight="true">
+      <c r="A69" t="s" s="195">
         <v>192</v>
       </c>
-      <c r="B62" t="s" s="196">
+      <c r="B69" t="s" s="196">
         <v>193</v>
       </c>
-      <c r="C62" t="s" s="197">
+      <c r="C69" t="s" s="197">
         <v>194</v>
       </c>
-      <c r="D62" t="s" s="198">
+      <c r="D69" t="s" s="198">
         <v>195</v>
       </c>
-      <c r="E62" t="s" s="199">
+      <c r="E69" t="s" s="199">
         <v>196</v>
       </c>
-      <c r="F62" t="s" s="200">
+      <c r="F69" t="s" s="200">
         <v>197</v>
       </c>
-      <c r="G62" t="s" s="201">
+      <c r="G69" t="s" s="201">
         <v>198</v>
       </c>
-      <c r="H62" t="s" s="202">
+      <c r="H69" t="s" s="202">
         <v>199</v>
       </c>
-      <c r="I62" t="s" s="203">
+      <c r="I69" t="s" s="203">
         <v>200</v>
       </c>
-      <c r="J62" t="s" s="204">
+      <c r="J69" t="s" s="204">
         <v>201</v>
       </c>
     </row>
-    <row r="63" ht="20.0" customHeight="true">
-      <c r="A63" t="s" s="205">
+    <row r="70" ht="20.0" customHeight="true">
+      <c r="A70" t="s" s="205">
         <v>202</v>
       </c>
-      <c r="B63" t="s" s="206">
+      <c r="B70" t="s" s="206">
         <v>203</v>
       </c>
     </row>
-    <row r="64" ht="20.0" customHeight="true">
-      <c r="A64" t="s" s="207">
+    <row r="71" ht="20.0" customHeight="true">
+      <c r="A71" t="s" s="207">
         <v>21</v>
       </c>
     </row>
-    <row r="65" ht="20.0" customHeight="true">
-      <c r="A65" t="s" s="208">
+    <row r="72" ht="20.0" customHeight="true">
+      <c r="A72" t="s" s="208">
         <v>204</v>
       </c>
-      <c r="B65" t="s" s="209">
+      <c r="B72" t="s" s="209">
         <v>205</v>
       </c>
-      <c r="C65" t="s" s="210">
+      <c r="C72" t="s" s="210">
         <v>206</v>
       </c>
-      <c r="D65" t="s" s="211">
+      <c r="D72" t="s" s="211">
         <v>207</v>
       </c>
-      <c r="E65" t="s" s="212">
+      <c r="E72" t="s" s="212">
         <v>208</v>
       </c>
-      <c r="F65" t="s" s="213">
+      <c r="F72" t="s" s="213">
         <v>209</v>
       </c>
-      <c r="G65" t="s" s="214">
+      <c r="G72" t="s" s="214">
         <v>210</v>
       </c>
-      <c r="H65" t="s" s="215">
+      <c r="H72" t="s" s="215">
         <v>211</v>
       </c>
-      <c r="I65" t="s" s="216">
+      <c r="I72" t="s" s="216">
         <v>212</v>
       </c>
-      <c r="J65" t="s" s="217">
+      <c r="J72" t="s" s="217">
         <v>213</v>
       </c>
     </row>
-    <row r="66" ht="20.0" customHeight="true">
-      <c r="A66" t="s" s="218">
+    <row r="73" ht="20.0" customHeight="true">
+      <c r="A73" t="s" s="218">
         <v>214</v>
       </c>
-      <c r="B66" t="s" s="219">
+      <c r="B73" t="s" s="219">
         <v>215</v>
       </c>
-      <c r="C66" t="s" s="220">
+      <c r="C73" t="s" s="220">
         <v>216</v>
       </c>
-      <c r="D66" t="s" s="221">
+      <c r="D73" t="s" s="221">
         <v>217</v>
       </c>
     </row>
-    <row r="67" ht="20.0" customHeight="true">
-      <c r="A67" t="s" s="222">
+    <row r="74" ht="20.0" customHeight="true">
+      <c r="A74"/>
+    </row>
+    <row r="75" ht="20.0" customHeight="true">
+      <c r="A75" t="s" s="222">
         <v>218</v>
       </c>
-      <c r="B67" t="s" s="222">
+      <c r="B75" t="s" s="222">
         <v>219</v>
       </c>
     </row>
-    <row r="68" ht="20.0" customHeight="true">
-      <c r="A68" t="s" s="223">
+    <row r="76" ht="20.0" customHeight="true">
+      <c r="A76" t="s" s="223">
         <v>4</v>
       </c>
-      <c r="B68" t="s" s="223">
+      <c r="B76" t="s" s="223">
         <v>220</v>
       </c>
     </row>
-    <row r="69" ht="20.0" customHeight="true">
-      <c r="A69" t="s" s="224">
+    <row r="77" ht="20.0" customHeight="true">
+      <c r="A77" t="s" s="224">
         <v>6</v>
       </c>
-      <c r="B69" t="s" s="224">
+      <c r="B77" t="s" s="224">
         <v>221</v>
       </c>
     </row>
-    <row r="70" ht="20.0" customHeight="true">
-      <c r="A70" t="s" s="225">
+    <row r="78" ht="20.0" customHeight="true">
+      <c r="A78" t="s" s="225">
         <v>8</v>
       </c>
     </row>
-    <row r="71" ht="20.0" customHeight="true">
-      <c r="A71" t="s" s="226">
+    <row r="79" ht="20.0" customHeight="true">
+      <c r="A79" t="s" s="226">
         <v>222</v>
       </c>
-      <c r="B71" t="s" s="227">
+      <c r="B79" t="s" s="227">
         <v>223</v>
       </c>
-      <c r="C71" t="s" s="228">
+      <c r="C79" t="s" s="228">
         <v>224</v>
       </c>
-      <c r="D71" t="s" s="229">
+      <c r="D79" t="s" s="229">
         <v>225</v>
       </c>
-      <c r="E71" t="s" s="230">
+      <c r="E79" t="s" s="230">
         <v>226</v>
       </c>
-      <c r="F71" t="s" s="231">
+      <c r="F79" t="s" s="231">
         <v>227</v>
       </c>
-      <c r="G71" t="s" s="232">
+      <c r="G79" t="s" s="232">
         <v>228</v>
       </c>
-      <c r="H71" t="s" s="233">
+      <c r="H79" t="s" s="233">
         <v>229</v>
       </c>
-      <c r="I71" t="s" s="234">
+      <c r="I79" t="s" s="234">
         <v>230</v>
       </c>
-      <c r="J71" t="s" s="235">
+      <c r="J79" t="s" s="235">
         <v>231</v>
       </c>
     </row>
-    <row r="72" ht="20.0" customHeight="true">
-      <c r="A72" t="s" s="236">
+    <row r="80" ht="20.0" customHeight="true">
+      <c r="A80" t="s" s="236">
         <v>232</v>
       </c>
-      <c r="B72" t="s" s="237">
+      <c r="B80" t="s" s="237">
         <v>233</v>
       </c>
-      <c r="C72" t="s" s="238">
+      <c r="C80" t="s" s="238">
         <v>234</v>
       </c>
     </row>
-    <row r="73" ht="20.0" customHeight="true">
-      <c r="A73" t="s" s="239">
+    <row r="81" ht="20.0" customHeight="true">
+      <c r="A81" t="s" s="239">
         <v>21</v>
       </c>
     </row>
-    <row r="74" ht="20.0" customHeight="true">
-      <c r="A74" t="s" s="240">
+    <row r="82" ht="20.0" customHeight="true">
+      <c r="A82" t="s" s="240">
         <v>235</v>
       </c>
-      <c r="B74" t="s" s="241">
+      <c r="B82" t="s" s="241">
         <v>236</v>
       </c>
-      <c r="C74" t="s" s="242">
+      <c r="C82" t="s" s="242">
         <v>237</v>
       </c>
-      <c r="D74" t="s" s="243">
+      <c r="D82" t="s" s="243">
         <v>238</v>
       </c>
-      <c r="E74" t="s" s="244">
+      <c r="E82" t="s" s="244">
         <v>239</v>
       </c>
-      <c r="F74" t="s" s="245">
+      <c r="F82" t="s" s="245">
         <v>240</v>
       </c>
-      <c r="G74" t="s" s="246">
+      <c r="G82" t="s" s="246">
         <v>241</v>
       </c>
-      <c r="H74" t="s" s="247">
+      <c r="H82" t="s" s="247">
         <v>242</v>
       </c>
-      <c r="I74" t="s" s="248">
+      <c r="I82" t="s" s="248">
         <v>243</v>
       </c>
-      <c r="J74" t="s" s="249">
+      <c r="J82" t="s" s="249">
         <v>244</v>
       </c>
     </row>
-    <row r="75" ht="20.0" customHeight="true">
-      <c r="A75" t="s" s="250">
+    <row r="83" ht="20.0" customHeight="true">
+      <c r="A83" t="s" s="250">
         <v>245</v>
       </c>
-      <c r="B75" t="s" s="251">
+      <c r="B83" t="s" s="251">
         <v>246</v>
       </c>
-      <c r="C75" t="s" s="252">
+      <c r="C83" t="s" s="252">
         <v>247</v>
       </c>
-      <c r="D75" t="s" s="253">
+      <c r="D83" t="s" s="253">
         <v>248</v>
       </c>
     </row>
-    <row r="76" ht="20.0" customHeight="true">
-      <c r="A76" t="s" s="254">
+    <row r="84" ht="20.0" customHeight="true">
+      <c r="A84"/>
+    </row>
+    <row r="85" ht="20.0" customHeight="true">
+      <c r="A85" t="s" s="254">
         <v>249</v>
       </c>
-      <c r="B76" t="s" s="254">
+      <c r="B85" t="s" s="254">
         <v>250</v>
       </c>
     </row>
-    <row r="77" ht="20.0" customHeight="true">
-      <c r="A77" t="s" s="255">
+    <row r="86" ht="20.0" customHeight="true">
+      <c r="A86" t="s" s="255">
         <v>4</v>
       </c>
-      <c r="B77" t="s" s="255">
+      <c r="B86" t="s" s="255">
         <v>251</v>
       </c>
     </row>
-    <row r="78" ht="20.0" customHeight="true">
-      <c r="A78" t="s" s="256">
+    <row r="87" ht="20.0" customHeight="true">
+      <c r="A87" t="s" s="256">
         <v>6</v>
       </c>
-      <c r="B78" t="s" s="256">
+      <c r="B87" t="s" s="256">
         <v>252</v>
       </c>
     </row>
-    <row r="79" ht="20.0" customHeight="true">
-      <c r="A79" t="s" s="257">
+    <row r="88" ht="20.0" customHeight="true">
+      <c r="A88" t="s" s="257">
         <v>8</v>
       </c>
     </row>
-    <row r="80" ht="20.0" customHeight="true">
-      <c r="A80" t="s" s="258">
+    <row r="89" ht="20.0" customHeight="true">
+      <c r="A89" t="s" s="258">
         <v>253</v>
       </c>
-      <c r="B80" t="s" s="259">
+      <c r="B89" t="s" s="259">
         <v>254</v>
       </c>
-      <c r="C80" t="s" s="260">
+      <c r="C89" t="s" s="260">
         <v>255</v>
       </c>
-      <c r="D80" t="s" s="261">
+      <c r="D89" t="s" s="261">
         <v>256</v>
       </c>
-      <c r="E80" t="s" s="262">
+      <c r="E89" t="s" s="262">
         <v>257</v>
       </c>
-      <c r="F80" t="s" s="263">
+      <c r="F89" t="s" s="263">
         <v>258</v>
       </c>
-      <c r="G80" t="s" s="264">
+      <c r="G89" t="s" s="264">
         <v>259</v>
       </c>
-      <c r="H80" t="s" s="265">
+      <c r="H89" t="s" s="265">
         <v>260</v>
       </c>
-      <c r="I80" t="s" s="266">
+      <c r="I89" t="s" s="266">
         <v>261</v>
       </c>
-      <c r="J80" t="s" s="267">
+      <c r="J89" t="s" s="267">
         <v>262</v>
       </c>
     </row>
-    <row r="81" ht="20.0" customHeight="true">
-      <c r="A81" t="s" s="268">
+    <row r="90" ht="20.0" customHeight="true">
+      <c r="A90" t="s" s="268">
         <v>263</v>
       </c>
-      <c r="B81" t="s" s="269">
+      <c r="B90" t="s" s="269">
         <v>264</v>
       </c>
     </row>
-    <row r="82" ht="20.0" customHeight="true">
-      <c r="A82" t="s" s="270">
+    <row r="91" ht="20.0" customHeight="true">
+      <c r="A91" t="s" s="270">
         <v>21</v>
       </c>
     </row>
-    <row r="83" ht="20.0" customHeight="true">
-      <c r="A83" t="s" s="271">
+    <row r="92" ht="20.0" customHeight="true">
+      <c r="A92" t="s" s="271">
         <v>265</v>
       </c>
-      <c r="B83" t="s" s="272">
+      <c r="B92" t="s" s="272">
         <v>266</v>
       </c>
-      <c r="C83" t="s" s="273">
+      <c r="C92" t="s" s="273">
         <v>267</v>
       </c>
-      <c r="D83" t="s" s="274">
+      <c r="D92" t="s" s="274">
         <v>268</v>
       </c>
-      <c r="E83" t="s" s="275">
+      <c r="E92" t="s" s="275">
         <v>269</v>
       </c>
-      <c r="F83" t="s" s="276">
+      <c r="F92" t="s" s="276">
         <v>270</v>
       </c>
-      <c r="G83" t="s" s="277">
+      <c r="G92" t="s" s="277">
         <v>271</v>
       </c>
-      <c r="H83" t="s" s="278">
+      <c r="H92" t="s" s="278">
         <v>272</v>
       </c>
-      <c r="I83" t="s" s="279">
+      <c r="I92" t="s" s="279">
         <v>273</v>
       </c>
-      <c r="J83" t="s" s="280">
+      <c r="J92" t="s" s="280">
         <v>274</v>
       </c>
     </row>
-    <row r="84" ht="20.0" customHeight="true">
-      <c r="A84" t="s" s="281">
+    <row r="93" ht="20.0" customHeight="true">
+      <c r="A93" t="s" s="281">
         <v>275</v>
       </c>
-      <c r="B84" t="s" s="282">
+      <c r="B93" t="s" s="282">
         <v>276</v>
       </c>
-      <c r="C84" t="s" s="283">
+      <c r="C93" t="s" s="283">
         <v>277</v>
       </c>
     </row>
-    <row r="85" ht="20.0" customHeight="true">
-      <c r="A85" t="s" s="284">
+    <row r="94" ht="20.0" customHeight="true">
+      <c r="A94"/>
+    </row>
+    <row r="95" ht="20.0" customHeight="true">
+      <c r="A95" t="s" s="284">
         <v>278</v>
       </c>
-      <c r="B85" t="s" s="284">
+      <c r="B95" t="s" s="284">
         <v>279</v>
       </c>
     </row>
-    <row r="86" ht="20.0" customHeight="true">
-      <c r="A86" t="s" s="285">
+    <row r="96" ht="20.0" customHeight="true">
+      <c r="A96" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="B86" t="s" s="285">
+      <c r="B96" t="s" s="285">
         <v>280</v>
       </c>
     </row>
-    <row r="87" ht="20.0" customHeight="true">
-      <c r="A87" t="s" s="286">
+    <row r="97" ht="20.0" customHeight="true">
+      <c r="A97" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="B87" t="s" s="286">
+      <c r="B97" t="s" s="286">
         <v>281</v>
       </c>
     </row>
-    <row r="88" ht="20.0" customHeight="true">
-      <c r="A88" t="s" s="287">
+    <row r="98" ht="20.0" customHeight="true">
+      <c r="A98" t="s" s="287">
         <v>8</v>
       </c>
     </row>
-    <row r="89" ht="20.0" customHeight="true">
-      <c r="A89" t="s" s="288">
+    <row r="99" ht="20.0" customHeight="true">
+      <c r="A99" t="s" s="288">
         <v>282</v>
       </c>
-      <c r="B89" t="s" s="289">
+      <c r="B99" t="s" s="289">
         <v>283</v>
       </c>
-      <c r="C89" t="s" s="290">
+      <c r="C99" t="s" s="290">
         <v>284</v>
       </c>
-      <c r="D89" t="s" s="291">
+      <c r="D99" t="s" s="291">
         <v>285</v>
       </c>
-      <c r="E89" t="s" s="292">
+      <c r="E99" t="s" s="292">
         <v>286</v>
       </c>
-      <c r="F89" t="s" s="293">
+      <c r="F99" t="s" s="293">
         <v>287</v>
       </c>
-      <c r="G89" t="s" s="294">
+      <c r="G99" t="s" s="294">
         <v>288</v>
       </c>
-      <c r="H89" t="s" s="295">
+      <c r="H99" t="s" s="295">
         <v>289</v>
       </c>
-      <c r="I89" t="s" s="296">
+      <c r="I99" t="s" s="296">
         <v>290</v>
       </c>
-      <c r="J89" t="s" s="297">
+      <c r="J99" t="s" s="297">
         <v>291</v>
       </c>
     </row>
-    <row r="90" ht="20.0" customHeight="true">
-      <c r="A90" t="s" s="298">
+    <row r="100" ht="20.0" customHeight="true">
+      <c r="A100" t="s" s="298">
         <v>292</v>
       </c>
-      <c r="B90" t="s" s="299">
+      <c r="B100" t="s" s="299">
         <v>293</v>
       </c>
-      <c r="C90" t="s" s="300">
+      <c r="C100" t="s" s="300">
         <v>294</v>
       </c>
-      <c r="D90" t="s" s="301">
+      <c r="D100" t="s" s="301">
         <v>295</v>
       </c>
     </row>
-    <row r="91" ht="20.0" customHeight="true">
-      <c r="A91" t="s" s="302">
+    <row r="101" ht="20.0" customHeight="true">
+      <c r="A101" t="s" s="302">
         <v>21</v>
       </c>
     </row>
-    <row r="92" ht="20.0" customHeight="true">
-      <c r="A92" t="s" s="303">
+    <row r="102" ht="20.0" customHeight="true">
+      <c r="A102" t="s" s="303">
         <v>296</v>
       </c>
-      <c r="B92" t="s" s="304">
+      <c r="B102" t="s" s="304">
         <v>297</v>
       </c>
-      <c r="C92" t="s" s="305">
+      <c r="C102" t="s" s="305">
         <v>298</v>
       </c>
-      <c r="D92" t="s" s="306">
+      <c r="D102" t="s" s="306">
         <v>299</v>
       </c>
-      <c r="E92" t="s" s="307">
+      <c r="E102" t="s" s="307">
         <v>300</v>
       </c>
-      <c r="F92" t="s" s="308">
+      <c r="F102" t="s" s="308">
         <v>301</v>
       </c>
-      <c r="G92" t="s" s="309">
+      <c r="G102" t="s" s="309">
         <v>302</v>
       </c>
-      <c r="H92" t="s" s="310">
+      <c r="H102" t="s" s="310">
         <v>303</v>
       </c>
-      <c r="I92" t="s" s="311">
+      <c r="I102" t="s" s="311">
         <v>304</v>
       </c>
-      <c r="J92" t="s" s="312">
+      <c r="J102" t="s" s="312">
         <v>305</v>
       </c>
     </row>
-    <row r="93" ht="20.0" customHeight="true">
-      <c r="A93" t="s" s="313">
+    <row r="103" ht="20.0" customHeight="true">
+      <c r="A103" t="s" s="313">
         <v>306</v>
       </c>
-      <c r="B93" t="s" s="314">
+      <c r="B103" t="s" s="314">
         <v>307</v>
       </c>
-      <c r="C93" t="s" s="315">
+      <c r="C103" t="s" s="315">
         <v>308</v>
       </c>
     </row>
-    <row r="94" ht="20.0" customHeight="true">
-      <c r="A94" t="s" s="316">
+    <row r="104" ht="20.0" customHeight="true">
+      <c r="A104"/>
+    </row>
+    <row r="105" ht="20.0" customHeight="true">
+      <c r="A105" t="s" s="316">
         <v>309</v>
       </c>
-      <c r="B94" t="s" s="316">
+      <c r="B105" t="s" s="316">
         <v>310</v>
       </c>
     </row>
-    <row r="95" ht="20.0" customHeight="true">
-      <c r="A95" t="s" s="317">
+    <row r="106" ht="20.0" customHeight="true">
+      <c r="A106" t="s" s="317">
         <v>4</v>
       </c>
-      <c r="B95" t="s" s="317">
+      <c r="B106" t="s" s="317">
         <v>311</v>
       </c>
     </row>
-    <row r="96" ht="20.0" customHeight="true">
-      <c r="A96" t="s" s="318">
+    <row r="107" ht="20.0" customHeight="true">
+      <c r="A107" t="s" s="318">
         <v>6</v>
       </c>
-      <c r="B96" t="s" s="318">
+      <c r="B107" t="s" s="318">
         <v>312</v>
       </c>
     </row>
-    <row r="97" ht="20.0" customHeight="true">
-      <c r="A97" t="s" s="319">
+    <row r="108" ht="20.0" customHeight="true">
+      <c r="A108" t="s" s="319">
         <v>8</v>
       </c>
     </row>
-    <row r="98" ht="20.0" customHeight="true">
-      <c r="A98" t="s" s="320">
+    <row r="109" ht="20.0" customHeight="true">
+      <c r="A109" t="s" s="320">
         <v>313</v>
       </c>
-      <c r="B98" t="s" s="321">
+      <c r="B109" t="s" s="321">
         <v>314</v>
       </c>
-      <c r="C98" t="s" s="322">
+      <c r="C109" t="s" s="322">
         <v>315</v>
       </c>
-      <c r="D98" t="s" s="323">
+      <c r="D109" t="s" s="323">
         <v>316</v>
       </c>
-      <c r="E98" t="s" s="324">
+      <c r="E109" t="s" s="324">
         <v>317</v>
       </c>
-      <c r="F98" t="s" s="325">
+      <c r="F109" t="s" s="325">
         <v>318</v>
       </c>
-      <c r="G98" t="s" s="326">
+      <c r="G109" t="s" s="326">
         <v>319</v>
       </c>
-      <c r="H98" t="s" s="327">
+      <c r="H109" t="s" s="327">
         <v>320</v>
       </c>
-      <c r="I98" t="s" s="328">
+      <c r="I109" t="s" s="328">
         <v>321</v>
       </c>
-      <c r="J98" t="s" s="329">
+      <c r="J109" t="s" s="329">
         <v>322</v>
       </c>
     </row>
-    <row r="99" ht="20.0" customHeight="true">
-      <c r="A99" t="s" s="330">
+    <row r="110" ht="20.0" customHeight="true">
+      <c r="A110" t="s" s="330">
         <v>323</v>
       </c>
-      <c r="B99" t="s" s="331">
+      <c r="B110" t="s" s="331">
         <v>324</v>
       </c>
-      <c r="C99" t="s" s="332">
+      <c r="C110" t="s" s="332">
         <v>325</v>
       </c>
     </row>
-    <row r="100" ht="20.0" customHeight="true">
-      <c r="A100" t="s" s="333">
+    <row r="111" ht="20.0" customHeight="true">
+      <c r="A111" t="s" s="333">
         <v>21</v>
       </c>
     </row>
-    <row r="101" ht="20.0" customHeight="true">
-      <c r="A101" t="s" s="334">
+    <row r="112" ht="20.0" customHeight="true">
+      <c r="A112" t="s" s="334">
         <v>326</v>
       </c>
-      <c r="B101" t="s" s="335">
+      <c r="B112" t="s" s="335">
         <v>327</v>
       </c>
-      <c r="C101" t="s" s="336">
+      <c r="C112" t="s" s="336">
         <v>328</v>
       </c>
-      <c r="D101" t="s" s="337">
+      <c r="D112" t="s" s="337">
         <v>329</v>
       </c>
-      <c r="E101" t="s" s="338">
+      <c r="E112" t="s" s="338">
         <v>330</v>
       </c>
-      <c r="F101" t="s" s="339">
+      <c r="F112" t="s" s="339">
         <v>331</v>
       </c>
-      <c r="G101" t="s" s="340">
+      <c r="G112" t="s" s="340">
         <v>332</v>
       </c>
-      <c r="H101" t="s" s="341">
+      <c r="H112" t="s" s="341">
         <v>333</v>
       </c>
-      <c r="I101" t="s" s="342">
+      <c r="I112" t="s" s="342">
         <v>334</v>
       </c>
-      <c r="J101" t="s" s="343">
+      <c r="J112" t="s" s="343">
         <v>335</v>
       </c>
     </row>
-    <row r="102" ht="20.0" customHeight="true">
-      <c r="A102" t="s" s="344">
+    <row r="113" ht="20.0" customHeight="true">
+      <c r="A113" t="s" s="344">
         <v>336</v>
       </c>
-      <c r="B102" t="s" s="345">
+      <c r="B113" t="s" s="345">
         <v>337</v>
       </c>
-      <c r="C102" t="s" s="346">
+      <c r="C113" t="s" s="346">
         <v>338</v>
       </c>
-      <c r="D102" t="s" s="347">
+      <c r="D113" t="s" s="347">
         <v>339</v>
       </c>
     </row>
-    <row r="103" ht="20.0" customHeight="true">
-      <c r="A103" t="s" s="348">
+    <row r="114" ht="20.0" customHeight="true">
+      <c r="A114"/>
+    </row>
+    <row r="115" ht="20.0" customHeight="true">
+      <c r="A115" t="s" s="348">
         <v>340</v>
       </c>
-      <c r="B103" t="s" s="348">
+      <c r="B115" t="s" s="348">
         <v>341</v>
       </c>
     </row>
-    <row r="104" ht="20.0" customHeight="true">
-      <c r="A104" t="s" s="349">
+    <row r="116" ht="20.0" customHeight="true">
+      <c r="A116" t="s" s="349">
         <v>4</v>
       </c>
-      <c r="B104" t="s" s="349">
+      <c r="B116" t="s" s="349">
         <v>342</v>
       </c>
     </row>
-    <row r="105" ht="20.0" customHeight="true">
-      <c r="A105" t="s" s="350">
+    <row r="117" ht="20.0" customHeight="true">
+      <c r="A117" t="s" s="350">
         <v>6</v>
       </c>
-      <c r="B105" t="s" s="350">
+      <c r="B117" t="s" s="350">
         <v>343</v>
       </c>
     </row>
-    <row r="106" ht="20.0" customHeight="true">
-      <c r="A106" t="s" s="351">
+    <row r="118" ht="20.0" customHeight="true">
+      <c r="A118" t="s" s="351">
         <v>8</v>
       </c>
     </row>
-    <row r="107" ht="20.0" customHeight="true">
-      <c r="A107" t="s" s="352">
+    <row r="119" ht="20.0" customHeight="true">
+      <c r="A119" t="s" s="352">
         <v>344</v>
       </c>
-      <c r="B107" t="s" s="353">
+      <c r="B119" t="s" s="353">
         <v>345</v>
       </c>
-      <c r="C107" t="s" s="354">
+      <c r="C119" t="s" s="354">
         <v>346</v>
       </c>
-      <c r="D107" t="s" s="355">
+      <c r="D119" t="s" s="355">
         <v>347</v>
       </c>
-      <c r="E107" t="s" s="356">
+      <c r="E119" t="s" s="356">
         <v>348</v>
       </c>
-      <c r="F107" t="s" s="357">
+      <c r="F119" t="s" s="357">
         <v>349</v>
       </c>
-      <c r="G107" t="s" s="358">
+      <c r="G119" t="s" s="358">
         <v>350</v>
       </c>
-      <c r="H107" t="s" s="359">
+      <c r="H119" t="s" s="359">
         <v>351</v>
       </c>
-      <c r="I107" t="s" s="360">
+      <c r="I119" t="s" s="360">
         <v>352</v>
       </c>
-      <c r="J107" t="s" s="361">
+      <c r="J119" t="s" s="361">
         <v>353</v>
       </c>
     </row>
-    <row r="108" ht="20.0" customHeight="true">
-      <c r="A108" t="s" s="362">
+    <row r="120" ht="20.0" customHeight="true">
+      <c r="A120" t="s" s="362">
         <v>354</v>
       </c>
-      <c r="B108" t="s" s="363">
+      <c r="B120" t="s" s="363">
         <v>355</v>
       </c>
-      <c r="C108" t="s" s="364">
+      <c r="C120" t="s" s="364">
         <v>356</v>
       </c>
     </row>
-    <row r="109" ht="20.0" customHeight="true">
-      <c r="A109" t="s" s="365">
+    <row r="121" ht="20.0" customHeight="true">
+      <c r="A121" t="s" s="365">
         <v>21</v>
       </c>
     </row>
-    <row r="110" ht="20.0" customHeight="true">
-      <c r="A110" t="s" s="366">
+    <row r="122" ht="20.0" customHeight="true">
+      <c r="A122" t="s" s="366">
         <v>357</v>
       </c>
-      <c r="B110" t="s" s="367">
+      <c r="B122" t="s" s="367">
         <v>358</v>
       </c>
-      <c r="C110" t="s" s="368">
+      <c r="C122" t="s" s="368">
         <v>359</v>
       </c>
-      <c r="D110" t="s" s="369">
+      <c r="D122" t="s" s="369">
         <v>360</v>
       </c>
-      <c r="E110" t="s" s="370">
+      <c r="E122" t="s" s="370">
         <v>361</v>
       </c>
-      <c r="F110" t="s" s="371">
+      <c r="F122" t="s" s="371">
         <v>362</v>
       </c>
-      <c r="G110" t="s" s="372">
+      <c r="G122" t="s" s="372">
         <v>363</v>
       </c>
-      <c r="H110" t="s" s="373">
+      <c r="H122" t="s" s="373">
         <v>364</v>
       </c>
-      <c r="I110" t="s" s="374">
+      <c r="I122" t="s" s="374">
         <v>365</v>
       </c>
-      <c r="J110" t="s" s="375">
+      <c r="J122" t="s" s="375">
         <v>366</v>
       </c>
     </row>
-    <row r="111" ht="20.0" customHeight="true">
-      <c r="A111" t="s" s="376">
+    <row r="123" ht="20.0" customHeight="true">
+      <c r="A123" t="s" s="376">
         <v>367</v>
       </c>
-      <c r="B111" t="s" s="377">
+      <c r="B123" t="s" s="377">
         <v>368</v>
       </c>
-      <c r="C111" t="s" s="378">
+      <c r="C123" t="s" s="378">
         <v>369</v>
       </c>
-      <c r="D111" t="s" s="379">
+      <c r="D123" t="s" s="379">
         <v>370</v>
       </c>
     </row>
-    <row r="112" ht="20.0" customHeight="true">
-      <c r="A112" t="s" s="380">
+    <row r="124" ht="20.0" customHeight="true">
+      <c r="A124"/>
+    </row>
+    <row r="125" ht="20.0" customHeight="true">
+      <c r="A125" t="s" s="380">
         <v>371</v>
       </c>
-      <c r="B112" t="s" s="380">
+      <c r="B125" t="s" s="380">
         <v>372</v>
       </c>
     </row>
-    <row r="113" ht="20.0" customHeight="true">
-      <c r="A113" t="s" s="381">
+    <row r="126" ht="20.0" customHeight="true">
+      <c r="A126" t="s" s="381">
         <v>4</v>
       </c>
-      <c r="B113" t="s" s="381">
+      <c r="B126" t="s" s="381">
         <v>373</v>
       </c>
     </row>
-    <row r="114" ht="20.0" customHeight="true">
-      <c r="A114" t="s" s="382">
+    <row r="127" ht="20.0" customHeight="true">
+      <c r="A127" t="s" s="382">
         <v>6</v>
       </c>
-      <c r="B114" t="s" s="382">
+      <c r="B127" t="s" s="382">
         <v>374</v>
       </c>
     </row>
-    <row r="115" ht="20.0" customHeight="true">
-      <c r="A115" t="s" s="383">
+    <row r="128" ht="20.0" customHeight="true">
+      <c r="A128" t="s" s="383">
         <v>8</v>
       </c>
     </row>
-    <row r="116" ht="20.0" customHeight="true">
-      <c r="A116" t="s" s="384">
+    <row r="129" ht="20.0" customHeight="true">
+      <c r="A129" t="s" s="384">
         <v>375</v>
       </c>
-      <c r="B116" t="s" s="385">
+      <c r="B129" t="s" s="385">
         <v>376</v>
       </c>
-      <c r="C116" t="s" s="386">
+      <c r="C129" t="s" s="386">
         <v>377</v>
       </c>
-      <c r="D116" t="s" s="387">
+      <c r="D129" t="s" s="387">
         <v>378</v>
       </c>
-      <c r="E116" t="s" s="388">
+      <c r="E129" t="s" s="388">
         <v>379</v>
       </c>
-      <c r="F116" t="s" s="389">
+      <c r="F129" t="s" s="389">
         <v>380</v>
       </c>
-      <c r="G116" t="s" s="390">
+      <c r="G129" t="s" s="390">
         <v>381</v>
       </c>
-      <c r="H116" t="s" s="391">
+      <c r="H129" t="s" s="391">
         <v>382</v>
       </c>
-      <c r="I116" t="s" s="392">
+      <c r="I129" t="s" s="392">
         <v>383</v>
       </c>
-      <c r="J116" t="s" s="393">
+      <c r="J129" t="s" s="393">
         <v>384</v>
       </c>
     </row>
-    <row r="117" ht="20.0" customHeight="true">
-      <c r="A117" t="s" s="394">
+    <row r="130" ht="20.0" customHeight="true">
+      <c r="A130" t="s" s="394">
         <v>385</v>
       </c>
-      <c r="B117" t="s" s="395">
+      <c r="B130" t="s" s="395">
         <v>386</v>
       </c>
-      <c r="C117" t="s" s="396">
+      <c r="C130" t="s" s="396">
         <v>387</v>
       </c>
     </row>
-    <row r="118" ht="20.0" customHeight="true">
-      <c r="A118" t="s" s="397">
+    <row r="131" ht="20.0" customHeight="true">
+      <c r="A131" t="s" s="397">
         <v>21</v>
       </c>
     </row>
-    <row r="119" ht="20.0" customHeight="true">
-      <c r="A119" t="s" s="398">
+    <row r="132" ht="20.0" customHeight="true">
+      <c r="A132" t="s" s="398">
         <v>388</v>
       </c>
-      <c r="B119" t="s" s="399">
+      <c r="B132" t="s" s="399">
         <v>389</v>
       </c>
-      <c r="C119" t="s" s="400">
+      <c r="C132" t="s" s="400">
         <v>390</v>
       </c>
-      <c r="D119" t="s" s="401">
+      <c r="D132" t="s" s="401">
         <v>391</v>
       </c>
-      <c r="E119" t="s" s="402">
+      <c r="E132" t="s" s="402">
         <v>392</v>
       </c>
-      <c r="F119" t="s" s="403">
+      <c r="F132" t="s" s="403">
         <v>393</v>
       </c>
-      <c r="G119" t="s" s="404">
+      <c r="G132" t="s" s="404">
         <v>394</v>
       </c>
-      <c r="H119" t="s" s="405">
+      <c r="H132" t="s" s="405">
         <v>395</v>
       </c>
-      <c r="I119" t="s" s="406">
+      <c r="I132" t="s" s="406">
         <v>396</v>
       </c>
-      <c r="J119" t="s" s="407">
+      <c r="J132" t="s" s="407">
         <v>397</v>
       </c>
     </row>
-    <row r="120" ht="20.0" customHeight="true">
-      <c r="A120" t="s" s="408">
+    <row r="133" ht="20.0" customHeight="true">
+      <c r="A133" t="s" s="408">
         <v>398</v>
       </c>
-      <c r="B120" t="s" s="409">
+      <c r="B133" t="s" s="409">
         <v>399</v>
       </c>
-      <c r="C120" t="s" s="410">
+      <c r="C133" t="s" s="410">
         <v>400</v>
       </c>
-      <c r="D120" t="s" s="411">
+      <c r="D133" t="s" s="411">
         <v>401</v>
       </c>
     </row>
-    <row r="121" ht="20.0" customHeight="true">
-      <c r="A121" t="s" s="412">
+    <row r="134" ht="20.0" customHeight="true">
+      <c r="A134"/>
+    </row>
+    <row r="135" ht="20.0" customHeight="true">
+      <c r="A135" t="s" s="412">
         <v>402</v>
       </c>
-      <c r="B121" t="s" s="412">
+      <c r="B135" t="s" s="412">
         <v>403</v>
       </c>
     </row>
-    <row r="122" ht="20.0" customHeight="true">
-      <c r="A122" t="s" s="413">
+    <row r="136" ht="20.0" customHeight="true">
+      <c r="A136" t="s" s="413">
         <v>4</v>
       </c>
-      <c r="B122" t="s" s="413">
+      <c r="B136" t="s" s="413">
         <v>404</v>
       </c>
     </row>
-    <row r="123" ht="20.0" customHeight="true">
-      <c r="A123" t="s" s="414">
+    <row r="137" ht="20.0" customHeight="true">
+      <c r="A137" t="s" s="414">
         <v>6</v>
       </c>
-      <c r="B123" t="s" s="414">
+      <c r="B137" t="s" s="414">
         <v>405</v>
       </c>
     </row>
-    <row r="124" ht="20.0" customHeight="true">
-      <c r="A124" t="s" s="415">
+    <row r="138" ht="20.0" customHeight="true">
+      <c r="A138" t="s" s="415">
         <v>8</v>
       </c>
     </row>
-    <row r="125" ht="20.0" customHeight="true">
-      <c r="A125" t="s" s="416">
+    <row r="139" ht="20.0" customHeight="true">
+      <c r="A139" t="s" s="416">
         <v>406</v>
       </c>
-      <c r="B125" t="s" s="417">
+      <c r="B139" t="s" s="417">
         <v>407</v>
       </c>
-      <c r="C125" t="s" s="418">
+      <c r="C139" t="s" s="418">
         <v>408</v>
       </c>
-      <c r="D125" t="s" s="419">
+      <c r="D139" t="s" s="419">
         <v>409</v>
       </c>
-      <c r="E125" t="s" s="420">
+      <c r="E139" t="s" s="420">
         <v>410</v>
       </c>
-      <c r="F125" t="s" s="421">
+      <c r="F139" t="s" s="421">
         <v>411</v>
       </c>
-      <c r="G125" t="s" s="422">
+      <c r="G139" t="s" s="422">
         <v>412</v>
       </c>
-      <c r="H125" t="s" s="423">
+      <c r="H139" t="s" s="423">
         <v>413</v>
       </c>
-      <c r="I125" t="s" s="424">
+      <c r="I139" t="s" s="424">
         <v>414</v>
       </c>
-      <c r="J125" t="s" s="425">
+      <c r="J139" t="s" s="425">
         <v>415</v>
       </c>
     </row>
-    <row r="126" ht="20.0" customHeight="true">
-      <c r="A126" t="s" s="426">
+    <row r="140" ht="20.0" customHeight="true">
+      <c r="A140" t="s" s="426">
         <v>416</v>
       </c>
-      <c r="B126" t="s" s="427">
+      <c r="B140" t="s" s="427">
         <v>417</v>
       </c>
-      <c r="C126" t="s" s="428">
+      <c r="C140" t="s" s="428">
         <v>418</v>
       </c>
     </row>
-    <row r="127" ht="20.0" customHeight="true">
-      <c r="A127" t="s" s="429">
+    <row r="141" ht="20.0" customHeight="true">
+      <c r="A141" t="s" s="429">
         <v>21</v>
       </c>
     </row>
-    <row r="128" ht="20.0" customHeight="true">
-      <c r="A128" t="s" s="430">
+    <row r="142" ht="20.0" customHeight="true">
+      <c r="A142" t="s" s="430">
         <v>419</v>
       </c>
-      <c r="B128" t="s" s="431">
+      <c r="B142" t="s" s="431">
         <v>420</v>
       </c>
-      <c r="C128" t="s" s="432">
+      <c r="C142" t="s" s="432">
         <v>421</v>
       </c>
-      <c r="D128" t="s" s="433">
+      <c r="D142" t="s" s="433">
         <v>422</v>
       </c>
-      <c r="E128" t="s" s="434">
+      <c r="E142" t="s" s="434">
         <v>423</v>
       </c>
-      <c r="F128" t="s" s="435">
+      <c r="F142" t="s" s="435">
         <v>424</v>
       </c>
-      <c r="G128" t="s" s="436">
+      <c r="G142" t="s" s="436">
         <v>425</v>
       </c>
-      <c r="H128" t="s" s="437">
+      <c r="H142" t="s" s="437">
         <v>426</v>
       </c>
-      <c r="I128" t="s" s="438">
+      <c r="I142" t="s" s="438">
         <v>427</v>
       </c>
-      <c r="J128" t="s" s="439">
+      <c r="J142" t="s" s="439">
         <v>428</v>
       </c>
     </row>
-    <row r="129" ht="20.0" customHeight="true">
-      <c r="A129" t="s" s="440">
+    <row r="143" ht="20.0" customHeight="true">
+      <c r="A143" t="s" s="440">
         <v>429</v>
       </c>
-      <c r="B129" t="s" s="441">
+      <c r="B143" t="s" s="441">
         <v>430</v>
       </c>
-      <c r="C129" t="s" s="442">
+      <c r="C143" t="s" s="442">
         <v>431</v>
       </c>
     </row>
-    <row r="130" ht="20.0" customHeight="true">
-      <c r="A130" t="s" s="443">
+    <row r="144" ht="20.0" customHeight="true">
+      <c r="A144"/>
+    </row>
+    <row r="145" ht="20.0" customHeight="true">
+      <c r="A145" t="s" s="443">
         <v>432</v>
       </c>
-      <c r="B130" t="s" s="443">
+      <c r="B145" t="s" s="443">
         <v>433</v>
       </c>
     </row>
-    <row r="131" ht="20.0" customHeight="true">
-      <c r="A131" t="s" s="444">
+    <row r="146" ht="20.0" customHeight="true">
+      <c r="A146" t="s" s="444">
         <v>4</v>
       </c>
-      <c r="B131" t="s" s="444">
+      <c r="B146" t="s" s="444">
         <v>434</v>
       </c>
     </row>
-    <row r="132" ht="20.0" customHeight="true">
-      <c r="A132" t="s" s="445">
+    <row r="147" ht="20.0" customHeight="true">
+      <c r="A147" t="s" s="445">
         <v>6</v>
       </c>
-      <c r="B132" t="s" s="445">
+      <c r="B147" t="s" s="445">
         <v>435</v>
       </c>
     </row>
-    <row r="133" ht="20.0" customHeight="true">
-      <c r="A133" t="s" s="446">
+    <row r="148" ht="20.0" customHeight="true">
+      <c r="A148" t="s" s="446">
         <v>8</v>
       </c>
     </row>
-    <row r="134" ht="20.0" customHeight="true">
-      <c r="A134" t="s" s="447">
+    <row r="149" ht="20.0" customHeight="true">
+      <c r="A149" t="s" s="447">
         <v>436</v>
       </c>
-      <c r="B134" t="s" s="448">
+      <c r="B149" t="s" s="448">
         <v>437</v>
       </c>
-      <c r="C134" t="s" s="449">
+      <c r="C149" t="s" s="449">
         <v>438</v>
       </c>
-      <c r="D134" t="s" s="450">
+      <c r="D149" t="s" s="450">
         <v>439</v>
       </c>
-      <c r="E134" t="s" s="451">
+      <c r="E149" t="s" s="451">
         <v>440</v>
       </c>
-      <c r="F134" t="s" s="452">
+      <c r="F149" t="s" s="452">
         <v>441</v>
       </c>
-      <c r="G134" t="s" s="453">
+      <c r="G149" t="s" s="453">
         <v>442</v>
       </c>
-      <c r="H134" t="s" s="454">
+      <c r="H149" t="s" s="454">
         <v>443</v>
       </c>
-      <c r="I134" t="s" s="455">
+      <c r="I149" t="s" s="455">
         <v>444</v>
       </c>
-      <c r="J134" t="s" s="456">
+      <c r="J149" t="s" s="456">
         <v>445</v>
       </c>
     </row>
-    <row r="135" ht="20.0" customHeight="true">
-      <c r="A135" t="s" s="457">
+    <row r="150" ht="20.0" customHeight="true">
+      <c r="A150" t="s" s="457">
         <v>446</v>
       </c>
-      <c r="B135" t="s" s="458">
+      <c r="B150" t="s" s="458">
         <v>447</v>
       </c>
     </row>
-    <row r="136" ht="20.0" customHeight="true">
-      <c r="A136" t="s" s="459">
+    <row r="151" ht="20.0" customHeight="true">
+      <c r="A151" t="s" s="459">
         <v>21</v>
       </c>
     </row>
-    <row r="137" ht="20.0" customHeight="true">
-      <c r="A137" t="s" s="460">
+    <row r="152" ht="20.0" customHeight="true">
+      <c r="A152" t="s" s="460">
         <v>448</v>
       </c>
-      <c r="B137" t="s" s="461">
+      <c r="B152" t="s" s="461">
         <v>449</v>
       </c>
-      <c r="C137" t="s" s="462">
+      <c r="C152" t="s" s="462">
         <v>450</v>
       </c>
-      <c r="D137" t="s" s="463">
+      <c r="D152" t="s" s="463">
         <v>451</v>
       </c>
-      <c r="E137" t="s" s="464">
+      <c r="E152" t="s" s="464">
         <v>452</v>
       </c>
-      <c r="F137" t="s" s="465">
+      <c r="F152" t="s" s="465">
         <v>453</v>
       </c>
-      <c r="G137" t="s" s="466">
+      <c r="G152" t="s" s="466">
         <v>454</v>
       </c>
-      <c r="H137" t="s" s="467">
+      <c r="H152" t="s" s="467">
         <v>455</v>
       </c>
-      <c r="I137" t="s" s="468">
+      <c r="I152" t="s" s="468">
         <v>456</v>
       </c>
-      <c r="J137" t="s" s="469">
+      <c r="J152" t="s" s="469">
         <v>457</v>
       </c>
     </row>
-    <row r="138" ht="20.0" customHeight="true">
-      <c r="A138" t="s" s="470">
+    <row r="153" ht="20.0" customHeight="true">
+      <c r="A153" t="s" s="470">
         <v>458</v>
       </c>
-      <c r="B138" t="s" s="471">
+      <c r="B153" t="s" s="471">
         <v>459</v>
       </c>
-      <c r="C138" t="s" s="472">
+      <c r="C153" t="s" s="472">
         <v>460</v>
       </c>
-      <c r="D138" t="s" s="473">
+      <c r="D153" t="s" s="473">
         <v>461</v>
       </c>
     </row>
-    <row r="139" ht="20.0" customHeight="true">
-      <c r="A139" t="s" s="474">
+    <row r="154" ht="20.0" customHeight="true">
+      <c r="A154"/>
+    </row>
+    <row r="155" ht="20.0" customHeight="true">
+      <c r="A155" t="s" s="474">
         <v>462</v>
       </c>
-      <c r="B139" t="s" s="474">
+      <c r="B155" t="s" s="474">
         <v>463</v>
       </c>
     </row>
-    <row r="140" ht="20.0" customHeight="true">
-      <c r="A140" t="s" s="475">
+    <row r="156" ht="20.0" customHeight="true">
+      <c r="A156" t="s" s="475">
         <v>4</v>
       </c>
-      <c r="B140" t="s" s="475">
+      <c r="B156" t="s" s="475">
         <v>464</v>
       </c>
     </row>
-    <row r="141" ht="20.0" customHeight="true">
-      <c r="A141" t="s" s="476">
+    <row r="157" ht="20.0" customHeight="true">
+      <c r="A157" t="s" s="476">
         <v>6</v>
       </c>
-      <c r="B141" t="s" s="476">
+      <c r="B157" t="s" s="476">
         <v>464</v>
       </c>
     </row>
-    <row r="142" ht="20.0" customHeight="true">
-      <c r="A142" t="s" s="477">
+    <row r="158" ht="20.0" customHeight="true">
+      <c r="A158" t="s" s="477">
         <v>8</v>
       </c>
     </row>
-    <row r="143" ht="20.0" customHeight="true">
-      <c r="A143" t="s" s="478">
+    <row r="159" ht="20.0" customHeight="true">
+      <c r="A159" t="s" s="478">
         <v>465</v>
       </c>
-      <c r="B143" t="s" s="479">
+      <c r="B159" t="s" s="479">
         <v>466</v>
       </c>
-      <c r="C143" t="s" s="480">
+      <c r="C159" t="s" s="480">
         <v>467</v>
       </c>
-      <c r="D143" t="s" s="481">
+      <c r="D159" t="s" s="481">
         <v>468</v>
       </c>
-      <c r="E143" t="s" s="482">
+      <c r="E159" t="s" s="482">
         <v>469</v>
       </c>
-      <c r="F143" t="s" s="483">
+      <c r="F159" t="s" s="483">
         <v>470</v>
       </c>
-      <c r="G143" t="s" s="484">
+      <c r="G159" t="s" s="484">
         <v>471</v>
       </c>
-      <c r="H143" t="s" s="485">
+      <c r="H159" t="s" s="485">
         <v>472</v>
       </c>
-      <c r="I143" t="s" s="486">
+      <c r="I159" t="s" s="486">
         <v>473</v>
       </c>
-      <c r="J143" t="s" s="487">
+      <c r="J159" t="s" s="487">
         <v>474</v>
       </c>
     </row>
-    <row r="144" ht="20.0" customHeight="true">
-      <c r="A144" t="s" s="488">
+    <row r="160" ht="20.0" customHeight="true">
+      <c r="A160" t="s" s="488">
         <v>475</v>
       </c>
-      <c r="B144" t="s" s="489">
+      <c r="B160" t="s" s="489">
         <v>476</v>
       </c>
     </row>
-    <row r="145" ht="20.0" customHeight="true">
-      <c r="A145" t="s" s="490">
+    <row r="161" ht="20.0" customHeight="true">
+      <c r="A161" t="s" s="490">
         <v>21</v>
       </c>
     </row>
-    <row r="146" ht="20.0" customHeight="true">
-      <c r="A146" t="s" s="491">
+    <row r="162" ht="20.0" customHeight="true">
+      <c r="A162" t="s" s="491">
         <v>477</v>
       </c>
-      <c r="B146" t="s" s="492">
+      <c r="B162" t="s" s="492">
         <v>478</v>
       </c>
-      <c r="C146" t="s" s="493">
+      <c r="C162" t="s" s="493">
         <v>479</v>
       </c>
-      <c r="D146" t="s" s="494">
+      <c r="D162" t="s" s="494">
         <v>480</v>
       </c>
-      <c r="E146" t="s" s="495">
+      <c r="E162" t="s" s="495">
         <v>481</v>
       </c>
-      <c r="F146" t="s" s="496">
+      <c r="F162" t="s" s="496">
         <v>482</v>
       </c>
-      <c r="G146" t="s" s="497">
+      <c r="G162" t="s" s="497">
         <v>483</v>
       </c>
-      <c r="H146" t="s" s="498">
+      <c r="H162" t="s" s="498">
         <v>484</v>
       </c>
-      <c r="I146" t="s" s="499">
+      <c r="I162" t="s" s="499">
         <v>485</v>
       </c>
-      <c r="J146" t="s" s="500">
+      <c r="J162" t="s" s="500">
         <v>486</v>
       </c>
     </row>
-    <row r="147" ht="20.0" customHeight="true">
-      <c r="A147" t="s" s="501">
+    <row r="163" ht="20.0" customHeight="true">
+      <c r="A163" t="s" s="501">
         <v>487</v>
       </c>
-      <c r="B147" t="s" s="502">
+      <c r="B163" t="s" s="502">
         <v>488</v>
       </c>
-      <c r="C147" t="s" s="503">
+      <c r="C163" t="s" s="503">
         <v>489</v>
       </c>
     </row>
-    <row r="148" ht="20.0" customHeight="true">
-      <c r="A148" t="s" s="504">
+    <row r="164" ht="20.0" customHeight="true">
+      <c r="A164"/>
+    </row>
+    <row r="165" ht="20.0" customHeight="true">
+      <c r="A165" t="s" s="504">
         <v>490</v>
       </c>
-      <c r="B148" t="s" s="504">
+      <c r="B165" t="s" s="504">
         <v>491</v>
       </c>
     </row>
-    <row r="149" ht="20.0" customHeight="true">
-      <c r="A149" t="s" s="505">
+    <row r="166" ht="20.0" customHeight="true">
+      <c r="A166" t="s" s="505">
         <v>4</v>
       </c>
-      <c r="B149" t="s" s="505">
+      <c r="B166" t="s" s="505">
         <v>492</v>
       </c>
     </row>
-    <row r="150" ht="20.0" customHeight="true">
-      <c r="A150" t="s" s="506">
+    <row r="167" ht="20.0" customHeight="true">
+      <c r="A167" t="s" s="506">
         <v>6</v>
       </c>
-      <c r="B150" t="s" s="506">
+      <c r="B167" t="s" s="506">
         <v>493</v>
       </c>
     </row>
-    <row r="151" ht="20.0" customHeight="true">
-      <c r="A151" t="s" s="507">
+    <row r="168" ht="20.0" customHeight="true">
+      <c r="A168" t="s" s="507">
         <v>8</v>
       </c>
     </row>
-    <row r="152" ht="20.0" customHeight="true">
-      <c r="A152" t="s" s="508">
+    <row r="169" ht="20.0" customHeight="true">
+      <c r="A169" t="s" s="508">
         <v>494</v>
       </c>
-      <c r="B152" t="s" s="509">
+      <c r="B169" t="s" s="509">
         <v>495</v>
       </c>
-      <c r="C152" t="s" s="510">
+      <c r="C169" t="s" s="510">
         <v>496</v>
       </c>
-      <c r="D152" t="s" s="511">
+      <c r="D169" t="s" s="511">
         <v>497</v>
       </c>
-      <c r="E152" t="s" s="512">
+      <c r="E169" t="s" s="512">
         <v>498</v>
       </c>
-      <c r="F152" t="s" s="513">
+      <c r="F169" t="s" s="513">
         <v>499</v>
       </c>
-      <c r="G152" t="s" s="514">
+      <c r="G169" t="s" s="514">
         <v>500</v>
       </c>
-      <c r="H152" t="s" s="515">
+      <c r="H169" t="s" s="515">
         <v>501</v>
       </c>
-      <c r="I152" t="s" s="516">
+      <c r="I169" t="s" s="516">
         <v>502</v>
       </c>
-      <c r="J152" t="s" s="517">
+      <c r="J169" t="s" s="517">
         <v>503</v>
       </c>
     </row>
-    <row r="153" ht="20.0" customHeight="true">
-      <c r="A153" t="s" s="518">
+    <row r="170" ht="20.0" customHeight="true">
+      <c r="A170" t="s" s="518">
         <v>504</v>
       </c>
-      <c r="B153" t="s" s="519">
+      <c r="B170" t="s" s="519">
         <v>505</v>
       </c>
-      <c r="C153" t="s" s="520">
+      <c r="C170" t="s" s="520">
         <v>506</v>
       </c>
     </row>
-    <row r="154" ht="20.0" customHeight="true">
-      <c r="A154" t="s" s="521">
+    <row r="171" ht="20.0" customHeight="true">
+      <c r="A171" t="s" s="521">
         <v>21</v>
       </c>
     </row>
-    <row r="155" ht="20.0" customHeight="true">
-      <c r="A155" t="s" s="522">
+    <row r="172" ht="20.0" customHeight="true">
+      <c r="A172" t="s" s="522">
         <v>507</v>
       </c>
-      <c r="B155" t="s" s="523">
+      <c r="B172" t="s" s="523">
         <v>508</v>
       </c>
-      <c r="C155" t="s" s="524">
+      <c r="C172" t="s" s="524">
         <v>509</v>
       </c>
-      <c r="D155" t="s" s="525">
+      <c r="D172" t="s" s="525">
         <v>510</v>
       </c>
-      <c r="E155" t="s" s="526">
+      <c r="E172" t="s" s="526">
         <v>511</v>
       </c>
-      <c r="F155" t="s" s="527">
+      <c r="F172" t="s" s="527">
         <v>512</v>
       </c>
-      <c r="G155" t="s" s="528">
+      <c r="G172" t="s" s="528">
         <v>513</v>
       </c>
-      <c r="H155" t="s" s="529">
+      <c r="H172" t="s" s="529">
         <v>514</v>
       </c>
-      <c r="I155" t="s" s="530">
+      <c r="I172" t="s" s="530">
         <v>515</v>
       </c>
-      <c r="J155" t="s" s="531">
+      <c r="J172" t="s" s="531">
         <v>516</v>
       </c>
     </row>
-    <row r="156" ht="20.0" customHeight="true">
-      <c r="A156" t="s" s="532">
+    <row r="173" ht="20.0" customHeight="true">
+      <c r="A173" t="s" s="532">
         <v>517</v>
       </c>
-      <c r="B156" t="s" s="533">
+      <c r="B173" t="s" s="533">
         <v>518</v>
       </c>
-      <c r="C156" t="s" s="534">
+      <c r="C173" t="s" s="534">
         <v>519</v>
       </c>
-      <c r="D156" t="s" s="535">
+      <c r="D173" t="s" s="535">
         <v>520</v>
       </c>
     </row>
-    <row r="157" ht="20.0" customHeight="true">
-      <c r="A157" t="s" s="536">
+    <row r="174" ht="20.0" customHeight="true">
+      <c r="A174"/>
+    </row>
+    <row r="175" ht="20.0" customHeight="true">
+      <c r="A175" t="s" s="536">
         <v>521</v>
       </c>
-      <c r="B157" t="s" s="536">
+      <c r="B175" t="s" s="536">
         <v>522</v>
       </c>
     </row>
-    <row r="158" ht="20.0" customHeight="true">
-      <c r="A158" t="s" s="537">
+    <row r="176" ht="20.0" customHeight="true">
+      <c r="A176" t="s" s="537">
         <v>4</v>
       </c>
-      <c r="B158" t="s" s="537">
+      <c r="B176" t="s" s="537">
         <v>523</v>
       </c>
     </row>
-    <row r="159" ht="20.0" customHeight="true">
-      <c r="A159" t="s" s="538">
+    <row r="177" ht="20.0" customHeight="true">
+      <c r="A177" t="s" s="538">
         <v>6</v>
       </c>
-      <c r="B159" t="s" s="538">
+      <c r="B177" t="s" s="538">
         <v>524</v>
       </c>
     </row>
-    <row r="160" ht="20.0" customHeight="true">
-      <c r="A160" t="s" s="539">
+    <row r="178" ht="20.0" customHeight="true">
+      <c r="A178" t="s" s="539">
         <v>8</v>
       </c>
     </row>
-    <row r="161" ht="20.0" customHeight="true">
-      <c r="A161" t="s" s="540">
+    <row r="179" ht="20.0" customHeight="true">
+      <c r="A179" t="s" s="540">
         <v>525</v>
       </c>
-      <c r="B161" t="s" s="541">
+      <c r="B179" t="s" s="541">
         <v>526</v>
       </c>
-      <c r="C161" t="s" s="542">
+      <c r="C179" t="s" s="542">
         <v>527</v>
       </c>
-      <c r="D161" t="s" s="543">
+      <c r="D179" t="s" s="543">
         <v>528</v>
       </c>
-      <c r="E161" t="s" s="544">
+      <c r="E179" t="s" s="544">
         <v>529</v>
       </c>
-      <c r="F161" t="s" s="545">
+      <c r="F179" t="s" s="545">
         <v>530</v>
       </c>
-      <c r="G161" t="s" s="546">
+      <c r="G179" t="s" s="546">
         <v>531</v>
       </c>
-      <c r="H161" t="s" s="547">
+      <c r="H179" t="s" s="547">
         <v>532</v>
       </c>
-      <c r="I161" t="s" s="548">
+      <c r="I179" t="s" s="548">
         <v>533</v>
       </c>
-      <c r="J161" t="s" s="549">
+      <c r="J179" t="s" s="549">
         <v>534</v>
       </c>
     </row>
-    <row r="162" ht="20.0" customHeight="true">
-      <c r="A162" t="s" s="550">
+    <row r="180" ht="20.0" customHeight="true">
+      <c r="A180" t="s" s="550">
         <v>535</v>
       </c>
-      <c r="B162" t="s" s="551">
+      <c r="B180" t="s" s="551">
         <v>536</v>
       </c>
-      <c r="C162" t="s" s="552">
+      <c r="C180" t="s" s="552">
         <v>537</v>
       </c>
     </row>
-    <row r="163" ht="20.0" customHeight="true">
-      <c r="A163" t="s" s="553">
+    <row r="181" ht="20.0" customHeight="true">
+      <c r="A181" t="s" s="553">
         <v>21</v>
       </c>
     </row>
-    <row r="164" ht="20.0" customHeight="true">
-      <c r="A164" t="s" s="554">
+    <row r="182" ht="20.0" customHeight="true">
+      <c r="A182" t="s" s="554">
         <v>538</v>
       </c>
-      <c r="B164" t="s" s="555">
+      <c r="B182" t="s" s="555">
         <v>539</v>
       </c>
-      <c r="C164" t="s" s="556">
+      <c r="C182" t="s" s="556">
         <v>540</v>
       </c>
-      <c r="D164" t="s" s="557">
+      <c r="D182" t="s" s="557">
         <v>541</v>
       </c>
-      <c r="E164" t="s" s="558">
+      <c r="E182" t="s" s="558">
         <v>542</v>
       </c>
-      <c r="F164" t="s" s="559">
+      <c r="F182" t="s" s="559">
         <v>543</v>
       </c>
-      <c r="G164" t="s" s="560">
+      <c r="G182" t="s" s="560">
         <v>544</v>
       </c>
-      <c r="H164" t="s" s="561">
+      <c r="H182" t="s" s="561">
         <v>545</v>
       </c>
-      <c r="I164" t="s" s="562">
+      <c r="I182" t="s" s="562">
         <v>546</v>
       </c>
-      <c r="J164" t="s" s="563">
+      <c r="J182" t="s" s="563">
         <v>547</v>
       </c>
     </row>
-    <row r="165" ht="20.0" customHeight="true">
-      <c r="A165" t="s" s="564">
+    <row r="183" ht="20.0" customHeight="true">
+      <c r="A183" t="s" s="564">
         <v>548</v>
       </c>
-      <c r="B165" t="s" s="565">
+      <c r="B183" t="s" s="565">
         <v>549</v>
       </c>
-      <c r="C165" t="s" s="566">
+      <c r="C183" t="s" s="566">
         <v>550</v>
       </c>
-      <c r="D165" t="s" s="567">
+      <c r="D183" t="s" s="567">
         <v>551</v>
       </c>
     </row>
-    <row r="166" ht="20.0" customHeight="true">
-      <c r="A166" t="s" s="568">
+    <row r="184" ht="20.0" customHeight="true">
+      <c r="A184"/>
+    </row>
+    <row r="185" ht="20.0" customHeight="true">
+      <c r="A185" t="s" s="568">
         <v>552</v>
       </c>
-      <c r="B166" t="s" s="568">
+      <c r="B185" t="s" s="568">
         <v>553</v>
       </c>
     </row>
-    <row r="167" ht="20.0" customHeight="true">
-      <c r="A167" t="s" s="569">
+    <row r="186" ht="20.0" customHeight="true">
+      <c r="A186" t="s" s="569">
         <v>4</v>
       </c>
-      <c r="B167" t="s" s="569">
+      <c r="B186" t="s" s="569">
         <v>554</v>
       </c>
     </row>
-    <row r="168" ht="20.0" customHeight="true">
-      <c r="A168" t="s" s="570">
+    <row r="187" ht="20.0" customHeight="true">
+      <c r="A187" t="s" s="570">
         <v>6</v>
       </c>
-      <c r="B168" t="s" s="570">
+      <c r="B187" t="s" s="570">
         <v>555</v>
       </c>
     </row>
-    <row r="169" ht="20.0" customHeight="true">
-      <c r="A169" t="s" s="571">
+    <row r="188" ht="20.0" customHeight="true">
+      <c r="A188" t="s" s="571">
         <v>8</v>
       </c>
     </row>
-    <row r="170" ht="20.0" customHeight="true">
-      <c r="A170" t="s" s="572">
+    <row r="189" ht="20.0" customHeight="true">
+      <c r="A189" t="s" s="572">
         <v>556</v>
       </c>
-      <c r="B170" t="s" s="573">
+      <c r="B189" t="s" s="573">
         <v>557</v>
       </c>
-      <c r="C170" t="s" s="574">
+      <c r="C189" t="s" s="574">
         <v>558</v>
       </c>
-      <c r="D170" t="s" s="575">
+      <c r="D189" t="s" s="575">
         <v>559</v>
       </c>
-      <c r="E170" t="s" s="576">
+      <c r="E189" t="s" s="576">
         <v>560</v>
       </c>
-      <c r="F170" t="s" s="577">
+      <c r="F189" t="s" s="577">
         <v>561</v>
       </c>
-      <c r="G170" t="s" s="578">
+      <c r="G189" t="s" s="578">
         <v>562</v>
       </c>
-      <c r="H170" t="s" s="579">
+      <c r="H189" t="s" s="579">
         <v>563</v>
       </c>
-      <c r="I170" t="s" s="580">
+      <c r="I189" t="s" s="580">
         <v>564</v>
       </c>
-      <c r="J170" t="s" s="581">
+      <c r="J189" t="s" s="581">
         <v>565</v>
       </c>
     </row>
-    <row r="171" ht="20.0" customHeight="true">
-      <c r="A171" t="s" s="582">
+    <row r="190" ht="20.0" customHeight="true">
+      <c r="A190" t="s" s="582">
         <v>566</v>
       </c>
-      <c r="B171" t="s" s="583">
+      <c r="B190" t="s" s="583">
         <v>567</v>
       </c>
-      <c r="C171" t="s" s="584">
+      <c r="C190" t="s" s="584">
         <v>568</v>
       </c>
     </row>
-    <row r="172" ht="20.0" customHeight="true">
-      <c r="A172" t="s" s="585">
+    <row r="191" ht="20.0" customHeight="true">
+      <c r="A191" t="s" s="585">
         <v>21</v>
       </c>
     </row>
-    <row r="173" ht="20.0" customHeight="true">
-      <c r="A173" t="s" s="586">
+    <row r="192" ht="20.0" customHeight="true">
+      <c r="A192" t="s" s="586">
         <v>569</v>
       </c>
-      <c r="B173" t="s" s="587">
+      <c r="B192" t="s" s="587">
         <v>570</v>
       </c>
-      <c r="C173" t="s" s="588">
+      <c r="C192" t="s" s="588">
         <v>571</v>
       </c>
-      <c r="D173" t="s" s="589">
+      <c r="D192" t="s" s="589">
         <v>572</v>
       </c>
-      <c r="E173" t="s" s="590">
+      <c r="E192" t="s" s="590">
         <v>573</v>
       </c>
-      <c r="F173" t="s" s="591">
+      <c r="F192" t="s" s="591">
         <v>574</v>
       </c>
-      <c r="G173" t="s" s="592">
+      <c r="G192" t="s" s="592">
         <v>575</v>
       </c>
-      <c r="H173" t="s" s="593">
+      <c r="H192" t="s" s="593">
         <v>576</v>
       </c>
-      <c r="I173" t="s" s="594">
+      <c r="I192" t="s" s="594">
         <v>577</v>
       </c>
-      <c r="J173" t="s" s="595">
+      <c r="J192" t="s" s="595">
         <v>578</v>
       </c>
     </row>
-    <row r="174" ht="20.0" customHeight="true">
-      <c r="A174" t="s" s="596">
+    <row r="193" ht="20.0" customHeight="true">
+      <c r="A193" t="s" s="596">
         <v>579</v>
       </c>
-      <c r="B174" t="s" s="597">
+      <c r="B193" t="s" s="597">
         <v>580</v>
       </c>
-      <c r="C174" t="s" s="598">
+      <c r="C193" t="s" s="598">
         <v>581</v>
       </c>
-      <c r="D174" t="s" s="599">
+      <c r="D193" t="s" s="599">
         <v>582</v>
       </c>
     </row>
-    <row r="175" ht="20.0" customHeight="true">
-      <c r="A175" t="s" s="600">
+    <row r="194" ht="20.0" customHeight="true">
+      <c r="A194"/>
+    </row>
+    <row r="195" ht="20.0" customHeight="true">
+      <c r="A195" t="s" s="600">
         <v>583</v>
       </c>
-      <c r="B175" t="s" s="600">
+      <c r="B195" t="s" s="600">
         <v>584</v>
       </c>
     </row>
-    <row r="176" ht="20.0" customHeight="true">
-      <c r="A176" t="s" s="601">
+    <row r="196" ht="20.0" customHeight="true">
+      <c r="A196" t="s" s="601">
         <v>4</v>
       </c>
-      <c r="B176" t="s" s="601">
+      <c r="B196" t="s" s="601">
         <v>585</v>
       </c>
     </row>
-    <row r="177" ht="20.0" customHeight="true">
-      <c r="A177" t="s" s="602">
+    <row r="197" ht="20.0" customHeight="true">
+      <c r="A197" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="B177" t="s" s="602">
+      <c r="B197" t="s" s="602">
         <v>586</v>
       </c>
     </row>
-    <row r="178" ht="20.0" customHeight="true">
-      <c r="A178" t="s" s="603">
+    <row r="198" ht="20.0" customHeight="true">
+      <c r="A198" t="s" s="603">
         <v>8</v>
       </c>
     </row>
-    <row r="179" ht="20.0" customHeight="true">
-      <c r="A179" t="s" s="604">
+    <row r="199" ht="20.0" customHeight="true">
+      <c r="A199" t="s" s="604">
         <v>587</v>
       </c>
-      <c r="B179" t="s" s="605">
+      <c r="B199" t="s" s="605">
         <v>588</v>
       </c>
-      <c r="C179" t="s" s="606">
+      <c r="C199" t="s" s="606">
         <v>589</v>
       </c>
-      <c r="D179" t="s" s="607">
+      <c r="D199" t="s" s="607">
         <v>590</v>
       </c>
-      <c r="E179" t="s" s="608">
+      <c r="E199" t="s" s="608">
         <v>591</v>
       </c>
-      <c r="F179" t="s" s="609">
+      <c r="F199" t="s" s="609">
         <v>592</v>
       </c>
-      <c r="G179" t="s" s="610">
+      <c r="G199" t="s" s="610">
         <v>593</v>
       </c>
-      <c r="H179" t="s" s="611">
+      <c r="H199" t="s" s="611">
         <v>594</v>
       </c>
-      <c r="I179" t="s" s="612">
+      <c r="I199" t="s" s="612">
         <v>595</v>
       </c>
-      <c r="J179" t="s" s="613">
+      <c r="J199" t="s" s="613">
         <v>596</v>
       </c>
     </row>
-    <row r="180" ht="20.0" customHeight="true">
-      <c r="A180" t="s" s="614">
+    <row r="200" ht="20.0" customHeight="true">
+      <c r="A200" t="s" s="614">
         <v>597</v>
       </c>
-      <c r="B180" t="s" s="615">
+      <c r="B200" t="s" s="615">
         <v>598</v>
       </c>
-      <c r="C180" t="s" s="616">
+      <c r="C200" t="s" s="616">
         <v>599</v>
       </c>
     </row>
-    <row r="181" ht="20.0" customHeight="true">
-      <c r="A181" t="s" s="617">
+    <row r="201" ht="20.0" customHeight="true">
+      <c r="A201" t="s" s="617">
         <v>21</v>
       </c>
     </row>
-    <row r="182" ht="20.0" customHeight="true">
-      <c r="A182" t="s" s="618">
+    <row r="202" ht="20.0" customHeight="true">
+      <c r="A202" t="s" s="618">
         <v>600</v>
       </c>
-      <c r="B182" t="s" s="619">
+      <c r="B202" t="s" s="619">
         <v>601</v>
       </c>
-      <c r="C182" t="s" s="620">
+      <c r="C202" t="s" s="620">
         <v>602</v>
       </c>
-      <c r="D182" t="s" s="621">
+      <c r="D202" t="s" s="621">
         <v>603</v>
       </c>
-      <c r="E182" t="s" s="622">
+      <c r="E202" t="s" s="622">
         <v>604</v>
       </c>
-      <c r="F182" t="s" s="623">
+      <c r="F202" t="s" s="623">
         <v>605</v>
       </c>
-      <c r="G182" t="s" s="624">
+      <c r="G202" t="s" s="624">
         <v>606</v>
       </c>
-      <c r="H182" t="s" s="625">
+      <c r="H202" t="s" s="625">
         <v>607</v>
       </c>
-      <c r="I182" t="s" s="626">
+      <c r="I202" t="s" s="626">
         <v>608</v>
       </c>
-      <c r="J182" t="s" s="627">
+      <c r="J202" t="s" s="627">
         <v>609</v>
       </c>
     </row>
-    <row r="183" ht="20.0" customHeight="true">
-      <c r="A183" t="s" s="628">
+    <row r="203" ht="20.0" customHeight="true">
+      <c r="A203" t="s" s="628">
         <v>610</v>
       </c>
-      <c r="B183" t="s" s="629">
+      <c r="B203" t="s" s="629">
         <v>611</v>
       </c>
-      <c r="C183" t="s" s="630">
+      <c r="C203" t="s" s="630">
         <v>612</v>
       </c>
     </row>
-    <row r="184" ht="20.0" customHeight="true">
-      <c r="A184" t="s" s="631">
+    <row r="204" ht="20.0" customHeight="true">
+      <c r="A204"/>
+    </row>
+    <row r="205" ht="20.0" customHeight="true">
+      <c r="A205" t="s" s="631">
         <v>613</v>
       </c>
-      <c r="B184" t="s" s="631">
+      <c r="B205" t="s" s="631">
         <v>614</v>
       </c>
     </row>
-    <row r="185" ht="20.0" customHeight="true">
-      <c r="A185" t="s" s="632">
+    <row r="206" ht="20.0" customHeight="true">
+      <c r="A206" t="s" s="632">
         <v>4</v>
       </c>
-      <c r="B185" t="s" s="632">
+      <c r="B206" t="s" s="632">
         <v>615</v>
       </c>
     </row>
-    <row r="186" ht="20.0" customHeight="true">
-      <c r="A186" t="s" s="633">
+    <row r="207" ht="20.0" customHeight="true">
+      <c r="A207" t="s" s="633">
         <v>6</v>
       </c>
-      <c r="B186" t="s" s="633">
+      <c r="B207" t="s" s="633">
         <v>615</v>
       </c>
     </row>
-    <row r="187" ht="20.0" customHeight="true">
-      <c r="A187" t="s" s="634">
+    <row r="208" ht="20.0" customHeight="true">
+      <c r="A208" t="s" s="634">
         <v>8</v>
       </c>
     </row>
-    <row r="188" ht="20.0" customHeight="true">
-      <c r="A188" t="s" s="635">
+    <row r="209" ht="20.0" customHeight="true">
+      <c r="A209" t="s" s="635">
         <v>616</v>
       </c>
-      <c r="B188" t="s" s="636">
+      <c r="B209" t="s" s="636">
         <v>617</v>
       </c>
-      <c r="C188" t="s" s="637">
+      <c r="C209" t="s" s="637">
         <v>618</v>
       </c>
-      <c r="D188" t="s" s="638">
+      <c r="D209" t="s" s="638">
         <v>619</v>
       </c>
-      <c r="E188" t="s" s="639">
+      <c r="E209" t="s" s="639">
         <v>620</v>
       </c>
-      <c r="F188" t="s" s="640">
+      <c r="F209" t="s" s="640">
         <v>621</v>
       </c>
-      <c r="G188" t="s" s="641">
+      <c r="G209" t="s" s="641">
         <v>622</v>
       </c>
-      <c r="H188" t="s" s="642">
+      <c r="H209" t="s" s="642">
         <v>623</v>
       </c>
-      <c r="I188" t="s" s="643">
+      <c r="I209" t="s" s="643">
         <v>624</v>
       </c>
-      <c r="J188" t="s" s="644">
+      <c r="J209" t="s" s="644">
         <v>625</v>
       </c>
     </row>
-    <row r="189" ht="20.0" customHeight="true">
-      <c r="A189" t="s" s="645">
+    <row r="210" ht="20.0" customHeight="true">
+      <c r="A210" t="s" s="645">
         <v>626</v>
       </c>
-      <c r="B189" t="s" s="646">
+      <c r="B210" t="s" s="646">
         <v>627</v>
       </c>
     </row>
-    <row r="190" ht="20.0" customHeight="true">
-      <c r="A190" t="s" s="647">
+    <row r="211" ht="20.0" customHeight="true">
+      <c r="A211" t="s" s="647">
         <v>21</v>
       </c>
     </row>
-    <row r="191" ht="20.0" customHeight="true">
-      <c r="A191" t="s" s="648">
+    <row r="212" ht="20.0" customHeight="true">
+      <c r="A212" t="s" s="648">
         <v>628</v>
       </c>
-      <c r="B191" t="s" s="649">
+      <c r="B212" t="s" s="649">
         <v>629</v>
       </c>
-      <c r="C191" t="s" s="650">
+      <c r="C212" t="s" s="650">
         <v>630</v>
       </c>
-      <c r="D191" t="s" s="651">
+      <c r="D212" t="s" s="651">
         <v>631</v>
       </c>
-      <c r="E191" t="s" s="652">
+      <c r="E212" t="s" s="652">
         <v>632</v>
       </c>
-      <c r="F191" t="s" s="653">
+      <c r="F212" t="s" s="653">
         <v>633</v>
       </c>
-      <c r="G191" t="s" s="654">
+      <c r="G212" t="s" s="654">
         <v>634</v>
       </c>
-      <c r="H191" t="s" s="655">
+      <c r="H212" t="s" s="655">
         <v>635</v>
       </c>
-      <c r="I191" t="s" s="656">
+      <c r="I212" t="s" s="656">
         <v>636</v>
       </c>
-      <c r="J191" t="s" s="657">
+      <c r="J212" t="s" s="657">
         <v>637</v>
       </c>
     </row>
-    <row r="192" ht="20.0" customHeight="true">
-      <c r="A192" t="s" s="658">
+    <row r="213" ht="20.0" customHeight="true">
+      <c r="A213" t="s" s="658">
         <v>638</v>
       </c>
-      <c r="B192" t="s" s="659">
+      <c r="B213" t="s" s="659">
         <v>639</v>
       </c>
-      <c r="C192" t="s" s="660">
+      <c r="C213" t="s" s="660">
         <v>640</v>
       </c>
     </row>
-    <row r="193" ht="20.0" customHeight="true">
-      <c r="A193" t="s" s="661">
+    <row r="214" ht="20.0" customHeight="true">
+      <c r="A214"/>
+    </row>
+    <row r="215" ht="20.0" customHeight="true">
+      <c r="A215" t="s" s="661">
         <v>641</v>
       </c>
-      <c r="B193" t="s" s="661">
+      <c r="B215" t="s" s="661">
         <v>642</v>
       </c>
     </row>
-    <row r="194" ht="20.0" customHeight="true">
-      <c r="A194" t="s" s="662">
+    <row r="216" ht="20.0" customHeight="true">
+      <c r="A216" t="s" s="662">
         <v>4</v>
       </c>
-      <c r="B194" t="s" s="662">
+      <c r="B216" t="s" s="662">
         <v>643</v>
       </c>
     </row>
-    <row r="195" ht="20.0" customHeight="true">
-      <c r="A195" t="s" s="663">
+    <row r="217" ht="20.0" customHeight="true">
+      <c r="A217" t="s" s="663">
         <v>6</v>
       </c>
-      <c r="B195" t="s" s="663">
+      <c r="B217" t="s" s="663">
         <v>643</v>
       </c>
     </row>
-    <row r="196" ht="20.0" customHeight="true">
-      <c r="A196" t="s" s="664">
+    <row r="218" ht="20.0" customHeight="true">
+      <c r="A218" t="s" s="664">
         <v>8</v>
       </c>
     </row>
-    <row r="197" ht="20.0" customHeight="true">
-      <c r="A197" t="s" s="665">
+    <row r="219" ht="20.0" customHeight="true">
+      <c r="A219" t="s" s="665">
         <v>644</v>
       </c>
-      <c r="B197" t="s" s="666">
+      <c r="B219" t="s" s="666">
         <v>645</v>
       </c>
-      <c r="C197" t="s" s="667">
+      <c r="C219" t="s" s="667">
         <v>646</v>
       </c>
-      <c r="D197" t="s" s="668">
+      <c r="D219" t="s" s="668">
         <v>647</v>
       </c>
-      <c r="E197" t="s" s="669">
+      <c r="E219" t="s" s="669">
         <v>648</v>
       </c>
-      <c r="F197" t="s" s="670">
+      <c r="F219" t="s" s="670">
         <v>649</v>
       </c>
-      <c r="G197" t="s" s="671">
+      <c r="G219" t="s" s="671">
         <v>650</v>
       </c>
-      <c r="H197" t="s" s="672">
+      <c r="H219" t="s" s="672">
         <v>651</v>
       </c>
-      <c r="I197" t="s" s="673">
+      <c r="I219" t="s" s="673">
         <v>240</v>
       </c>
-      <c r="J197" t="s" s="674">
+      <c r="J219" t="s" s="674">
         <v>652</v>
       </c>
     </row>
-    <row r="198" ht="20.0" customHeight="true">
-      <c r="A198" t="s" s="675">
+    <row r="220" ht="20.0" customHeight="true">
+      <c r="A220" t="s" s="675">
         <v>653</v>
       </c>
-      <c r="B198" t="s" s="676">
+      <c r="B220" t="s" s="676">
         <v>654</v>
       </c>
-      <c r="C198" t="s" s="677">
+      <c r="C220" t="s" s="677">
         <v>655</v>
       </c>
-      <c r="D198" t="s" s="678">
+      <c r="D220" t="s" s="678">
         <v>656</v>
       </c>
     </row>
-    <row r="199" ht="20.0" customHeight="true">
-      <c r="A199" t="s" s="679">
+    <row r="221" ht="20.0" customHeight="true">
+      <c r="A221" t="s" s="679">
         <v>21</v>
       </c>
     </row>
-    <row r="200" ht="20.0" customHeight="true">
-      <c r="A200" t="s" s="680">
+    <row r="222" ht="20.0" customHeight="true">
+      <c r="A222" t="s" s="680">
         <v>657</v>
       </c>
-      <c r="B200" t="s" s="681">
+      <c r="B222" t="s" s="681">
         <v>658</v>
       </c>
-      <c r="C200" t="s" s="682">
+      <c r="C222" t="s" s="682">
         <v>659</v>
       </c>
-      <c r="D200" t="s" s="683">
+      <c r="D222" t="s" s="683">
         <v>660</v>
       </c>
-      <c r="E200" t="s" s="684">
+      <c r="E222" t="s" s="684">
         <v>661</v>
       </c>
-      <c r="F200" t="s" s="685">
+      <c r="F222" t="s" s="685">
         <v>662</v>
       </c>
-      <c r="G200" t="s" s="686">
+      <c r="G222" t="s" s="686">
         <v>663</v>
       </c>
-      <c r="H200" t="s" s="687">
+      <c r="H222" t="s" s="687">
         <v>664</v>
       </c>
-      <c r="I200" t="s" s="688">
+      <c r="I222" t="s" s="688">
         <v>665</v>
       </c>
-      <c r="J200" t="s" s="689">
+      <c r="J222" t="s" s="689">
         <v>666</v>
       </c>
     </row>
-    <row r="201" ht="20.0" customHeight="true">
-      <c r="A201" t="s" s="690">
+    <row r="223" ht="20.0" customHeight="true">
+      <c r="A223" t="s" s="690">
         <v>667</v>
       </c>
-      <c r="B201" t="s" s="691">
+      <c r="B223" t="s" s="691">
         <v>668</v>
       </c>
-      <c r="C201" t="s" s="692">
+      <c r="C223" t="s" s="692">
         <v>669</v>
       </c>
     </row>
-    <row r="202" ht="20.0" customHeight="true">
-      <c r="A202" t="s" s="693">
+    <row r="224" ht="20.0" customHeight="true">
+      <c r="A224"/>
+    </row>
+    <row r="225" ht="20.0" customHeight="true">
+      <c r="A225" t="s" s="693">
         <v>670</v>
       </c>
-      <c r="B202" t="s" s="693">
+      <c r="B225" t="s" s="693">
         <v>671</v>
       </c>
     </row>
-    <row r="203" ht="20.0" customHeight="true">
-      <c r="A203" t="s" s="694">
+    <row r="226" ht="20.0" customHeight="true">
+      <c r="A226" t="s" s="694">
         <v>4</v>
       </c>
-      <c r="B203" t="s" s="694">
+      <c r="B226" t="s" s="694">
         <v>672</v>
       </c>
     </row>
-    <row r="204" ht="20.0" customHeight="true">
-      <c r="A204" t="s" s="695">
+    <row r="227" ht="20.0" customHeight="true">
+      <c r="A227" t="s" s="695">
         <v>6</v>
       </c>
-      <c r="B204" t="s" s="695">
+      <c r="B227" t="s" s="695">
         <v>673</v>
       </c>
     </row>
-    <row r="205" ht="20.0" customHeight="true">
-      <c r="A205" t="s" s="696">
+    <row r="228" ht="20.0" customHeight="true">
+      <c r="A228" t="s" s="696">
         <v>8</v>
       </c>
     </row>
-    <row r="206" ht="20.0" customHeight="true">
-      <c r="A206" t="s" s="697">
+    <row r="229" ht="20.0" customHeight="true">
+      <c r="A229" t="s" s="697">
         <v>674</v>
       </c>
-      <c r="B206" t="s" s="698">
+      <c r="B229" t="s" s="698">
         <v>675</v>
       </c>
-      <c r="C206" t="s" s="699">
+      <c r="C229" t="s" s="699">
         <v>676</v>
       </c>
-      <c r="D206" t="s" s="700">
+      <c r="D229" t="s" s="700">
         <v>677</v>
       </c>
-      <c r="E206" t="s" s="701">
+      <c r="E229" t="s" s="701">
         <v>678</v>
       </c>
-      <c r="F206" t="s" s="702">
+      <c r="F229" t="s" s="702">
         <v>679</v>
       </c>
-      <c r="G206" t="s" s="703">
+      <c r="G229" t="s" s="703">
         <v>680</v>
       </c>
-      <c r="H206" t="s" s="704">
+      <c r="H229" t="s" s="704">
         <v>681</v>
       </c>
-      <c r="I206" t="s" s="705">
+      <c r="I229" t="s" s="705">
         <v>682</v>
       </c>
-      <c r="J206" t="s" s="706">
+      <c r="J229" t="s" s="706">
         <v>683</v>
       </c>
     </row>
-    <row r="207" ht="20.0" customHeight="true">
-      <c r="A207" t="s" s="707">
+    <row r="230" ht="20.0" customHeight="true">
+      <c r="A230" t="s" s="707">
         <v>684</v>
       </c>
-      <c r="B207" t="s" s="708">
+      <c r="B230" t="s" s="708">
         <v>685</v>
       </c>
-      <c r="C207" t="s" s="709">
+      <c r="C230" t="s" s="709">
         <v>686</v>
       </c>
     </row>
-    <row r="208" ht="20.0" customHeight="true">
-      <c r="A208" t="s" s="710">
+    <row r="231" ht="20.0" customHeight="true">
+      <c r="A231" t="s" s="710">
         <v>21</v>
       </c>
     </row>
-    <row r="209" ht="20.0" customHeight="true">
-      <c r="A209" t="s" s="711">
+    <row r="232" ht="20.0" customHeight="true">
+      <c r="A232" t="s" s="711">
         <v>687</v>
       </c>
-      <c r="B209" t="s" s="712">
+      <c r="B232" t="s" s="712">
         <v>688</v>
       </c>
-      <c r="C209" t="s" s="713">
+      <c r="C232" t="s" s="713">
         <v>689</v>
       </c>
-      <c r="D209" t="s" s="714">
+      <c r="D232" t="s" s="714">
         <v>690</v>
       </c>
-      <c r="E209" t="s" s="715">
+      <c r="E232" t="s" s="715">
         <v>691</v>
       </c>
-      <c r="F209" t="s" s="716">
+      <c r="F232" t="s" s="716">
         <v>692</v>
       </c>
-      <c r="G209" t="s" s="717">
+      <c r="G232" t="s" s="717">
         <v>693</v>
       </c>
-      <c r="H209" t="s" s="718">
+      <c r="H232" t="s" s="718">
         <v>694</v>
       </c>
-      <c r="I209" t="s" s="719">
+      <c r="I232" t="s" s="719">
         <v>695</v>
       </c>
-      <c r="J209" t="s" s="720">
+      <c r="J232" t="s" s="720">
         <v>696</v>
       </c>
     </row>
-    <row r="210" ht="20.0" customHeight="true">
-      <c r="A210" t="s" s="721">
+    <row r="233" ht="20.0" customHeight="true">
+      <c r="A233" t="s" s="721">
         <v>697</v>
       </c>
-      <c r="B210" t="s" s="722">
+      <c r="B233" t="s" s="722">
         <v>698</v>
       </c>
-      <c r="C210" t="s" s="723">
+      <c r="C233" t="s" s="723">
         <v>699</v>
       </c>
-      <c r="D210" t="s" s="724">
+      <c r="D233" t="s" s="724">
         <v>700</v>
       </c>
     </row>
-    <row r="211" ht="24.0" customHeight="true">
-      <c r="A211" t="s" s="725">
+    <row r="234" ht="20.0" customHeight="true">
+      <c r="A234"/>
+    </row>
+    <row r="235" ht="24.0" customHeight="true">
+      <c r="A235" t="s" s="725">
         <v>701</v>
       </c>
     </row>
-    <row r="212" ht="20.0" customHeight="true">
-      <c r="A212" t="s" s="726">
+    <row r="236" ht="20.0" customHeight="true">
+      <c r="A236"/>
+    </row>
+    <row r="237" ht="20.0" customHeight="true">
+      <c r="A237" t="s" s="726">
         <v>702</v>
       </c>
-      <c r="B212" t="s" s="726">
+      <c r="B237" t="s" s="726">
         <v>97</v>
       </c>
     </row>
-    <row r="213" ht="20.0" customHeight="true">
-      <c r="A213" t="s" s="727">
+    <row r="238" ht="20.0" customHeight="true">
+      <c r="A238" t="s" s="727">
         <v>4</v>
       </c>
-      <c r="B213" t="s" s="727">
+      <c r="B238" t="s" s="727">
         <v>98</v>
       </c>
     </row>
-    <row r="214" ht="20.0" customHeight="true">
-      <c r="A214" t="s" s="728">
+    <row r="239" ht="20.0" customHeight="true">
+      <c r="A239" t="s" s="728">
         <v>6</v>
       </c>
-      <c r="B214" t="s" s="728">
+      <c r="B239" t="s" s="728">
         <v>99</v>
       </c>
     </row>
-    <row r="215" ht="20.0" customHeight="true">
-      <c r="A215" t="s" s="729">
+    <row r="240" ht="20.0" customHeight="true">
+      <c r="A240" t="s" s="729">
         <v>8</v>
       </c>
     </row>
-    <row r="216" ht="20.0" customHeight="true">
-      <c r="A216" t="s" s="730">
+    <row r="241" ht="20.0" customHeight="true">
+      <c r="A241" t="s" s="730">
         <v>703</v>
       </c>
-      <c r="B216" t="s" s="731">
+      <c r="B241" t="s" s="731">
         <v>704</v>
       </c>
-      <c r="C216" t="s" s="732">
+      <c r="C241" t="s" s="732">
         <v>705</v>
       </c>
-      <c r="D216" t="s" s="733">
+      <c r="D241" t="s" s="733">
         <v>706</v>
       </c>
-      <c r="E216" t="s" s="734">
+      <c r="E241" t="s" s="734">
         <v>707</v>
       </c>
-      <c r="F216" t="s" s="735">
+      <c r="F241" t="s" s="735">
         <v>708</v>
       </c>
-      <c r="G216" t="s" s="736">
+      <c r="G241" t="s" s="736">
         <v>709</v>
       </c>
-      <c r="H216" t="s" s="737">
+      <c r="H241" t="s" s="737">
         <v>710</v>
       </c>
-      <c r="I216" t="s" s="738">
+      <c r="I241" t="s" s="738">
         <v>711</v>
       </c>
-      <c r="J216" t="s" s="739">
+      <c r="J241" t="s" s="739">
         <v>712</v>
       </c>
     </row>
-    <row r="217" ht="20.0" customHeight="true">
-      <c r="A217" t="s" s="740">
+    <row r="242" ht="20.0" customHeight="true">
+      <c r="A242" t="s" s="740">
         <v>713</v>
       </c>
-      <c r="B217" t="s" s="741">
+      <c r="B242" t="s" s="741">
         <v>714</v>
       </c>
-      <c r="C217" t="s" s="742">
+      <c r="C242" t="s" s="742">
         <v>715</v>
       </c>
     </row>
-    <row r="218" ht="20.0" customHeight="true">
-      <c r="A218" t="s" s="743">
+    <row r="243" ht="20.0" customHeight="true">
+      <c r="A243" t="s" s="743">
         <v>21</v>
       </c>
     </row>
-    <row r="219" ht="20.0" customHeight="true">
-      <c r="A219" t="s" s="744">
+    <row r="244" ht="20.0" customHeight="true">
+      <c r="A244" t="s" s="744">
         <v>716</v>
       </c>
-      <c r="B219" t="s" s="745">
+      <c r="B244" t="s" s="745">
         <v>717</v>
       </c>
-      <c r="C219" t="s" s="746">
+      <c r="C244" t="s" s="746">
         <v>718</v>
       </c>
-      <c r="D219" t="s" s="747">
+      <c r="D244" t="s" s="747">
         <v>719</v>
       </c>
-      <c r="E219" t="s" s="748">
+      <c r="E244" t="s" s="748">
         <v>720</v>
       </c>
-      <c r="F219" t="s" s="749">
+      <c r="F244" t="s" s="749">
         <v>721</v>
       </c>
-      <c r="G219" t="s" s="750">
+      <c r="G244" t="s" s="750">
         <v>722</v>
       </c>
-      <c r="H219" t="s" s="751">
+      <c r="H244" t="s" s="751">
         <v>723</v>
       </c>
-      <c r="I219" t="s" s="752">
+      <c r="I244" t="s" s="752">
         <v>724</v>
       </c>
-      <c r="J219" t="s" s="753">
+      <c r="J244" t="s" s="753">
         <v>725</v>
       </c>
     </row>
-    <row r="220" ht="20.0" customHeight="true">
-      <c r="A220" t="s" s="754">
+    <row r="245" ht="20.0" customHeight="true">
+      <c r="A245" t="s" s="754">
         <v>726</v>
       </c>
-      <c r="B220" t="s" s="755">
+      <c r="B245" t="s" s="755">
         <v>727</v>
       </c>
-      <c r="C220" t="s" s="756">
+      <c r="C245" t="s" s="756">
         <v>728</v>
       </c>
-      <c r="D220" t="s" s="757">
+      <c r="D245" t="s" s="757">
         <v>729</v>
       </c>
     </row>
-    <row r="221" ht="20.0" customHeight="true">
-      <c r="A221" t="s" s="758">
+    <row r="246" ht="20.0" customHeight="true">
+      <c r="A246"/>
+    </row>
+    <row r="247" ht="20.0" customHeight="true">
+      <c r="A247" t="s" s="758">
         <v>730</v>
       </c>
-      <c r="B221" t="s" s="758">
+      <c r="B247" t="s" s="758">
         <v>731</v>
       </c>
     </row>
-    <row r="222" ht="20.0" customHeight="true">
-      <c r="A222" t="s" s="759">
+    <row r="248" ht="20.0" customHeight="true">
+      <c r="A248" t="s" s="759">
         <v>4</v>
       </c>
-      <c r="B222" t="s" s="759">
+      <c r="B248" t="s" s="759">
         <v>732</v>
       </c>
     </row>
-    <row r="223" ht="20.0" customHeight="true">
-      <c r="A223" t="s" s="760">
+    <row r="249" ht="20.0" customHeight="true">
+      <c r="A249" t="s" s="760">
         <v>6</v>
       </c>
-      <c r="B223" t="s" s="760">
+      <c r="B249" t="s" s="760">
         <v>733</v>
       </c>
     </row>
-    <row r="224" ht="20.0" customHeight="true">
-      <c r="A224" t="s" s="761">
+    <row r="250" ht="20.0" customHeight="true">
+      <c r="A250" t="s" s="761">
         <v>8</v>
       </c>
     </row>
-    <row r="225" ht="20.0" customHeight="true">
-      <c r="A225" t="s" s="762">
+    <row r="251" ht="20.0" customHeight="true">
+      <c r="A251" t="s" s="762">
         <v>734</v>
       </c>
-      <c r="B225" t="s" s="763">
+      <c r="B251" t="s" s="763">
         <v>735</v>
       </c>
-      <c r="C225" t="s" s="764">
+      <c r="C251" t="s" s="764">
         <v>736</v>
       </c>
-      <c r="D225" t="s" s="765">
+      <c r="D251" t="s" s="765">
         <v>737</v>
       </c>
-      <c r="E225" t="s" s="766">
+      <c r="E251" t="s" s="766">
         <v>738</v>
       </c>
-      <c r="F225" t="s" s="767">
+      <c r="F251" t="s" s="767">
         <v>739</v>
       </c>
-      <c r="G225" t="s" s="768">
+      <c r="G251" t="s" s="768">
         <v>740</v>
       </c>
-      <c r="H225" t="s" s="769">
+      <c r="H251" t="s" s="769">
         <v>741</v>
       </c>
-      <c r="I225" t="s" s="770">
+      <c r="I251" t="s" s="770">
         <v>742</v>
       </c>
-      <c r="J225" t="s" s="771">
+      <c r="J251" t="s" s="771">
         <v>743</v>
       </c>
     </row>
-    <row r="226" ht="20.0" customHeight="true">
-      <c r="A226" t="s" s="772">
+    <row r="252" ht="20.0" customHeight="true">
+      <c r="A252" t="s" s="772">
         <v>744</v>
       </c>
-      <c r="B226" t="s" s="773">
+      <c r="B252" t="s" s="773">
         <v>745</v>
       </c>
-      <c r="C226" t="s" s="774">
+      <c r="C252" t="s" s="774">
         <v>746</v>
       </c>
     </row>
-    <row r="227" ht="20.0" customHeight="true">
-      <c r="A227" t="s" s="775">
+    <row r="253" ht="20.0" customHeight="true">
+      <c r="A253" t="s" s="775">
         <v>21</v>
       </c>
     </row>
-    <row r="228" ht="20.0" customHeight="true">
-      <c r="A228" t="s" s="776">
+    <row r="254" ht="20.0" customHeight="true">
+      <c r="A254" t="s" s="776">
         <v>747</v>
       </c>
-      <c r="B228" t="s" s="777">
+      <c r="B254" t="s" s="777">
         <v>748</v>
       </c>
-      <c r="C228" t="s" s="778">
+      <c r="C254" t="s" s="778">
         <v>749</v>
       </c>
-      <c r="D228" t="s" s="779">
+      <c r="D254" t="s" s="779">
         <v>750</v>
       </c>
-      <c r="E228" t="s" s="780">
+      <c r="E254" t="s" s="780">
         <v>751</v>
       </c>
-      <c r="F228" t="s" s="781">
+      <c r="F254" t="s" s="781">
         <v>752</v>
       </c>
-      <c r="G228" t="s" s="782">
+      <c r="G254" t="s" s="782">
         <v>753</v>
       </c>
-      <c r="H228" t="s" s="783">
+      <c r="H254" t="s" s="783">
         <v>754</v>
       </c>
-      <c r="I228" t="s" s="784">
+      <c r="I254" t="s" s="784">
         <v>755</v>
       </c>
-      <c r="J228" t="s" s="785">
+      <c r="J254" t="s" s="785">
         <v>756</v>
       </c>
     </row>
-    <row r="229" ht="20.0" customHeight="true">
-      <c r="A229" t="s" s="786">
+    <row r="255" ht="20.0" customHeight="true">
+      <c r="A255" t="s" s="786">
         <v>757</v>
       </c>
-      <c r="B229" t="s" s="787">
+      <c r="B255" t="s" s="787">
         <v>758</v>
       </c>
-      <c r="C229" t="s" s="788">
+      <c r="C255" t="s" s="788">
         <v>759</v>
       </c>
-      <c r="D229" t="s" s="789">
+      <c r="D255" t="s" s="789">
         <v>760</v>
       </c>
     </row>
-    <row r="230" ht="20.0" customHeight="true">
-      <c r="A230" t="s" s="790">
+    <row r="256" ht="20.0" customHeight="true">
+      <c r="A256"/>
+    </row>
+    <row r="257" ht="20.0" customHeight="true">
+      <c r="A257" t="s" s="790">
         <v>761</v>
       </c>
-      <c r="B230" t="s" s="790">
+      <c r="B257" t="s" s="790">
         <v>762</v>
       </c>
     </row>
-    <row r="231" ht="20.0" customHeight="true">
-      <c r="A231" t="s" s="791">
+    <row r="258" ht="20.0" customHeight="true">
+      <c r="A258" t="s" s="791">
         <v>4</v>
       </c>
-      <c r="B231" t="s" s="791">
+      <c r="B258" t="s" s="791">
         <v>763</v>
       </c>
     </row>
-    <row r="232" ht="20.0" customHeight="true">
-      <c r="A232" t="s" s="792">
+    <row r="259" ht="20.0" customHeight="true">
+      <c r="A259" t="s" s="792">
         <v>6</v>
       </c>
-      <c r="B232" t="s" s="792">
+      <c r="B259" t="s" s="792">
         <v>764</v>
       </c>
     </row>
-    <row r="233" ht="20.0" customHeight="true">
-      <c r="A233" t="s" s="793">
+    <row r="260" ht="20.0" customHeight="true">
+      <c r="A260" t="s" s="793">
         <v>8</v>
       </c>
     </row>
-    <row r="234" ht="20.0" customHeight="true">
-      <c r="A234" t="s" s="794">
+    <row r="261" ht="20.0" customHeight="true">
+      <c r="A261" t="s" s="794">
         <v>765</v>
       </c>
-      <c r="B234" t="s" s="795">
+      <c r="B261" t="s" s="795">
         <v>766</v>
       </c>
-      <c r="C234" t="s" s="796">
+      <c r="C261" t="s" s="796">
         <v>767</v>
       </c>
-      <c r="D234" t="s" s="797">
+      <c r="D261" t="s" s="797">
         <v>768</v>
       </c>
-      <c r="E234" t="s" s="798">
+      <c r="E261" t="s" s="798">
         <v>769</v>
       </c>
-      <c r="F234" t="s" s="799">
+      <c r="F261" t="s" s="799">
         <v>770</v>
       </c>
-      <c r="G234" t="s" s="800">
+      <c r="G261" t="s" s="800">
         <v>771</v>
       </c>
-      <c r="H234" t="s" s="801">
+      <c r="H261" t="s" s="801">
         <v>772</v>
       </c>
-      <c r="I234" t="s" s="802">
+      <c r="I261" t="s" s="802">
         <v>773</v>
       </c>
-      <c r="J234" t="s" s="803">
+      <c r="J261" t="s" s="803">
         <v>774</v>
       </c>
     </row>
-    <row r="235" ht="20.0" customHeight="true">
-      <c r="A235" t="s" s="804">
+    <row r="262" ht="20.0" customHeight="true">
+      <c r="A262" t="s" s="804">
         <v>775</v>
       </c>
-      <c r="B235" t="s" s="805">
+      <c r="B262" t="s" s="805">
         <v>776</v>
       </c>
-      <c r="C235" t="s" s="806">
+      <c r="C262" t="s" s="806">
         <v>777</v>
       </c>
     </row>
-    <row r="236" ht="20.0" customHeight="true">
-      <c r="A236" t="s" s="807">
+    <row r="263" ht="20.0" customHeight="true">
+      <c r="A263" t="s" s="807">
         <v>21</v>
       </c>
     </row>
-    <row r="237" ht="20.0" customHeight="true">
-      <c r="A237" t="s" s="808">
+    <row r="264" ht="20.0" customHeight="true">
+      <c r="A264" t="s" s="808">
         <v>778</v>
       </c>
-      <c r="B237" t="s" s="809">
+      <c r="B264" t="s" s="809">
         <v>779</v>
       </c>
-      <c r="C237" t="s" s="810">
+      <c r="C264" t="s" s="810">
         <v>780</v>
       </c>
-      <c r="D237" t="s" s="811">
+      <c r="D264" t="s" s="811">
         <v>781</v>
       </c>
-      <c r="E237" t="s" s="812">
+      <c r="E264" t="s" s="812">
         <v>782</v>
       </c>
-      <c r="F237" t="s" s="813">
+      <c r="F264" t="s" s="813">
         <v>783</v>
       </c>
-      <c r="G237" t="s" s="814">
+      <c r="G264" t="s" s="814">
         <v>784</v>
       </c>
-      <c r="H237" t="s" s="815">
+      <c r="H264" t="s" s="815">
         <v>785</v>
       </c>
-      <c r="I237" t="s" s="816">
+      <c r="I264" t="s" s="816">
         <v>786</v>
       </c>
-      <c r="J237" t="s" s="817">
+      <c r="J264" t="s" s="817">
         <v>787</v>
       </c>
     </row>
-    <row r="238" ht="20.0" customHeight="true">
-      <c r="A238" t="s" s="818">
+    <row r="265" ht="20.0" customHeight="true">
+      <c r="A265" t="s" s="818">
         <v>788</v>
       </c>
-      <c r="B238" t="s" s="819">
+      <c r="B265" t="s" s="819">
         <v>789</v>
       </c>
-      <c r="C238" t="s" s="820">
+      <c r="C265" t="s" s="820">
         <v>790</v>
       </c>
-      <c r="D238" t="s" s="821">
+      <c r="D265" t="s" s="821">
         <v>791</v>
       </c>
     </row>
-    <row r="239" ht="20.0" customHeight="true">
-      <c r="A239" t="s" s="822">
+    <row r="266" ht="20.0" customHeight="true">
+      <c r="A266"/>
+    </row>
+    <row r="267" ht="20.0" customHeight="true">
+      <c r="A267" t="s" s="822">
         <v>792</v>
       </c>
-      <c r="B239" t="s" s="822">
+      <c r="B267" t="s" s="822">
         <v>793</v>
       </c>
     </row>
-    <row r="240" ht="20.0" customHeight="true">
-      <c r="A240" t="s" s="823">
+    <row r="268" ht="20.0" customHeight="true">
+      <c r="A268" t="s" s="823">
         <v>4</v>
       </c>
-      <c r="B240" t="s" s="823">
+      <c r="B268" t="s" s="823">
         <v>794</v>
       </c>
     </row>
-    <row r="241" ht="20.0" customHeight="true">
-      <c r="A241" t="s" s="824">
+    <row r="269" ht="20.0" customHeight="true">
+      <c r="A269" t="s" s="824">
         <v>6</v>
       </c>
-      <c r="B241" t="s" s="824">
+      <c r="B269" t="s" s="824">
         <v>794</v>
       </c>
     </row>
-    <row r="242" ht="20.0" customHeight="true">
-      <c r="A242" t="s" s="825">
+    <row r="270" ht="20.0" customHeight="true">
+      <c r="A270" t="s" s="825">
         <v>8</v>
       </c>
     </row>
-    <row r="243" ht="20.0" customHeight="true">
-      <c r="A243" t="s" s="826">
+    <row r="271" ht="20.0" customHeight="true">
+      <c r="A271" t="s" s="826">
         <v>795</v>
       </c>
-      <c r="B243" t="s" s="827">
+      <c r="B271" t="s" s="827">
         <v>796</v>
       </c>
-      <c r="C243" t="s" s="828">
+      <c r="C271" t="s" s="828">
         <v>797</v>
       </c>
-      <c r="D243" t="s" s="829">
+      <c r="D271" t="s" s="829">
         <v>798</v>
       </c>
-      <c r="E243" t="s" s="830">
+      <c r="E271" t="s" s="830">
         <v>799</v>
       </c>
-      <c r="F243" t="s" s="831">
+      <c r="F271" t="s" s="831">
         <v>800</v>
       </c>
-      <c r="G243" t="s" s="832">
+      <c r="G271" t="s" s="832">
         <v>801</v>
       </c>
-      <c r="H243" t="s" s="833">
+      <c r="H271" t="s" s="833">
         <v>802</v>
       </c>
-      <c r="I243" t="s" s="834">
+      <c r="I271" t="s" s="834">
         <v>803</v>
       </c>
-      <c r="J243" t="s" s="835">
+      <c r="J271" t="s" s="835">
         <v>804</v>
       </c>
     </row>
-    <row r="244" ht="20.0" customHeight="true">
-      <c r="A244" t="s" s="836">
+    <row r="272" ht="20.0" customHeight="true">
+      <c r="A272" t="s" s="836">
         <v>805</v>
       </c>
-      <c r="B244" t="s" s="837">
+      <c r="B272" t="s" s="837">
         <v>806</v>
       </c>
-      <c r="C244" t="s" s="838">
+      <c r="C272" t="s" s="838">
         <v>807</v>
       </c>
     </row>
-    <row r="245" ht="20.0" customHeight="true">
-      <c r="A245" t="s" s="839">
+    <row r="273" ht="20.0" customHeight="true">
+      <c r="A273" t="s" s="839">
         <v>21</v>
       </c>
     </row>
-    <row r="246" ht="20.0" customHeight="true">
-      <c r="A246" t="s" s="840">
+    <row r="274" ht="20.0" customHeight="true">
+      <c r="A274" t="s" s="840">
         <v>808</v>
       </c>
-      <c r="B246" t="s" s="841">
+      <c r="B274" t="s" s="841">
         <v>809</v>
       </c>
-      <c r="C246" t="s" s="842">
+      <c r="C274" t="s" s="842">
         <v>810</v>
       </c>
-      <c r="D246" t="s" s="843">
+      <c r="D274" t="s" s="843">
         <v>811</v>
       </c>
-      <c r="E246" t="s" s="844">
+      <c r="E274" t="s" s="844">
         <v>812</v>
       </c>
-      <c r="F246" t="s" s="845">
+      <c r="F274" t="s" s="845">
         <v>813</v>
       </c>
-      <c r="G246" t="s" s="846">
+      <c r="G274" t="s" s="846">
         <v>814</v>
       </c>
-      <c r="H246" t="s" s="847">
+      <c r="H274" t="s" s="847">
         <v>815</v>
       </c>
-      <c r="I246" t="s" s="848">
+      <c r="I274" t="s" s="848">
         <v>510</v>
       </c>
-      <c r="J246" t="s" s="849">
+      <c r="J274" t="s" s="849">
         <v>816</v>
       </c>
     </row>
-    <row r="247" ht="20.0" customHeight="true">
-      <c r="A247" t="s" s="850">
+    <row r="275" ht="20.0" customHeight="true">
+      <c r="A275" t="s" s="850">
         <v>817</v>
       </c>
-      <c r="B247" t="s" s="851">
+      <c r="B275" t="s" s="851">
         <v>818</v>
       </c>
-      <c r="C247" t="s" s="852">
+      <c r="C275" t="s" s="852">
         <v>819</v>
       </c>
-      <c r="D247" t="s" s="853">
+      <c r="D275" t="s" s="853">
         <v>820</v>
       </c>
     </row>
-    <row r="248" ht="24.0" customHeight="true">
-      <c r="A248" t="s" s="854">
+    <row r="276" ht="20.0" customHeight="true">
+      <c r="A276"/>
+    </row>
+    <row r="277" ht="24.0" customHeight="true">
+      <c r="A277" t="s" s="854">
         <v>821</v>
       </c>
     </row>
-    <row r="249" ht="20.0" customHeight="true">
-      <c r="A249" t="s" s="855">
+    <row r="278" ht="20.0" customHeight="true">
+      <c r="A278"/>
+    </row>
+    <row r="279" ht="20.0" customHeight="true">
+      <c r="A279" t="s" s="855">
         <v>822</v>
       </c>
-      <c r="B249" t="s" s="855">
+      <c r="B279" t="s" s="855">
         <v>823</v>
       </c>
     </row>
-    <row r="250" ht="20.0" customHeight="true">
-      <c r="A250" t="s" s="856">
+    <row r="280" ht="20.0" customHeight="true">
+      <c r="A280" t="s" s="856">
         <v>4</v>
       </c>
-      <c r="B250" t="s" s="856">
+      <c r="B280" t="s" s="856">
         <v>824</v>
       </c>
     </row>
-    <row r="251" ht="20.0" customHeight="true">
-      <c r="A251" t="s" s="857">
+    <row r="281" ht="20.0" customHeight="true">
+      <c r="A281" t="s" s="857">
         <v>6</v>
       </c>
-      <c r="B251" t="s" s="857">
+      <c r="B281" t="s" s="857">
         <v>825</v>
       </c>
     </row>
-    <row r="252" ht="20.0" customHeight="true">
-      <c r="A252" t="s" s="858">
+    <row r="282" ht="20.0" customHeight="true">
+      <c r="A282" t="s" s="858">
         <v>8</v>
       </c>
     </row>
-    <row r="253" ht="20.0" customHeight="true">
-      <c r="A253" t="s" s="859">
+    <row r="283" ht="20.0" customHeight="true">
+      <c r="A283" t="s" s="859">
         <v>826</v>
       </c>
-      <c r="B253" t="s" s="860">
+      <c r="B283" t="s" s="860">
         <v>827</v>
       </c>
-      <c r="C253" t="s" s="861">
+      <c r="C283" t="s" s="861">
         <v>828</v>
       </c>
-      <c r="D253" t="s" s="862">
+      <c r="D283" t="s" s="862">
         <v>829</v>
       </c>
-      <c r="E253" t="s" s="863">
+      <c r="E283" t="s" s="863">
         <v>830</v>
       </c>
-      <c r="F253" t="s" s="864">
+      <c r="F283" t="s" s="864">
         <v>831</v>
       </c>
-      <c r="G253" t="s" s="865">
+      <c r="G283" t="s" s="865">
         <v>832</v>
       </c>
-      <c r="H253" t="s" s="866">
+      <c r="H283" t="s" s="866">
         <v>833</v>
       </c>
-      <c r="I253" t="s" s="867">
+      <c r="I283" t="s" s="867">
         <v>834</v>
       </c>
-      <c r="J253" t="s" s="868">
+      <c r="J283" t="s" s="868">
         <v>835</v>
       </c>
     </row>
-    <row r="254" ht="20.0" customHeight="true">
-      <c r="A254" t="s" s="869">
+    <row r="284" ht="20.0" customHeight="true">
+      <c r="A284" t="s" s="869">
         <v>836</v>
       </c>
-      <c r="B254" t="s" s="870">
+      <c r="B284" t="s" s="870">
         <v>837</v>
       </c>
-      <c r="C254" t="s" s="871">
+      <c r="C284" t="s" s="871">
         <v>838</v>
       </c>
     </row>
-    <row r="255" ht="20.0" customHeight="true">
-      <c r="A255" t="s" s="872">
+    <row r="285" ht="20.0" customHeight="true">
+      <c r="A285" t="s" s="872">
         <v>21</v>
       </c>
     </row>
-    <row r="256" ht="20.0" customHeight="true">
-      <c r="A256" t="s" s="873">
+    <row r="286" ht="20.0" customHeight="true">
+      <c r="A286" t="s" s="873">
         <v>839</v>
       </c>
-      <c r="B256" t="s" s="874">
+      <c r="B286" t="s" s="874">
         <v>840</v>
       </c>
-      <c r="C256" t="s" s="875">
+      <c r="C286" t="s" s="875">
         <v>841</v>
       </c>
-      <c r="D256" t="s" s="876">
+      <c r="D286" t="s" s="876">
         <v>842</v>
       </c>
-      <c r="E256" t="s" s="877">
+      <c r="E286" t="s" s="877">
         <v>843</v>
       </c>
-      <c r="F256" t="s" s="878">
+      <c r="F286" t="s" s="878">
         <v>844</v>
       </c>
-      <c r="G256" t="s" s="879">
+      <c r="G286" t="s" s="879">
         <v>845</v>
       </c>
-      <c r="H256" t="s" s="880">
+      <c r="H286" t="s" s="880">
         <v>846</v>
       </c>
-      <c r="I256" t="s" s="881">
+      <c r="I286" t="s" s="881">
         <v>847</v>
       </c>
-      <c r="J256" t="s" s="882">
+      <c r="J286" t="s" s="882">
         <v>848</v>
       </c>
     </row>
-    <row r="257" ht="20.0" customHeight="true">
-      <c r="A257" t="s" s="883">
+    <row r="287" ht="20.0" customHeight="true">
+      <c r="A287" t="s" s="883">
         <v>849</v>
       </c>
-      <c r="B257" t="s" s="884">
+      <c r="B287" t="s" s="884">
         <v>850</v>
       </c>
-      <c r="C257" t="s" s="885">
+      <c r="C287" t="s" s="885">
         <v>851</v>
       </c>
-      <c r="D257" t="s" s="886">
+      <c r="D287" t="s" s="886">
         <v>852</v>
       </c>
     </row>
-    <row r="258" ht="20.0" customHeight="true">
-      <c r="A258" t="s" s="887">
+    <row r="288" ht="20.0" customHeight="true">
+      <c r="A288"/>
+    </row>
+    <row r="289" ht="20.0" customHeight="true">
+      <c r="A289" t="s" s="887">
         <v>853</v>
       </c>
-      <c r="B258" t="s" s="887">
+      <c r="B289" t="s" s="887">
         <v>854</v>
       </c>
     </row>
-    <row r="259" ht="20.0" customHeight="true">
-      <c r="A259" t="s" s="888">
+    <row r="290" ht="20.0" customHeight="true">
+      <c r="A290" t="s" s="888">
         <v>4</v>
       </c>
-      <c r="B259" t="s" s="888">
+      <c r="B290" t="s" s="888">
         <v>855</v>
       </c>
     </row>
-    <row r="260" ht="20.0" customHeight="true">
-      <c r="A260" t="s" s="889">
+    <row r="291" ht="20.0" customHeight="true">
+      <c r="A291" t="s" s="889">
         <v>6</v>
       </c>
-      <c r="B260" t="s" s="889">
+      <c r="B291" t="s" s="889">
         <v>856</v>
       </c>
     </row>
-    <row r="261" ht="20.0" customHeight="true">
-      <c r="A261" t="s" s="890">
+    <row r="292" ht="20.0" customHeight="true">
+      <c r="A292" t="s" s="890">
         <v>8</v>
       </c>
     </row>
-    <row r="262" ht="20.0" customHeight="true">
-      <c r="A262" t="s" s="891">
+    <row r="293" ht="20.0" customHeight="true">
+      <c r="A293" t="s" s="891">
         <v>857</v>
       </c>
-      <c r="B262" t="s" s="892">
+      <c r="B293" t="s" s="892">
         <v>858</v>
       </c>
-      <c r="C262" t="s" s="893">
+      <c r="C293" t="s" s="893">
         <v>859</v>
       </c>
-      <c r="D262" t="s" s="894">
+      <c r="D293" t="s" s="894">
         <v>860</v>
       </c>
-      <c r="E262" t="s" s="895">
+      <c r="E293" t="s" s="895">
         <v>861</v>
       </c>
-      <c r="F262" t="s" s="896">
+      <c r="F293" t="s" s="896">
         <v>862</v>
       </c>
-      <c r="G262" t="s" s="897">
+      <c r="G293" t="s" s="897">
         <v>863</v>
       </c>
-      <c r="H262" t="s" s="898">
+      <c r="H293" t="s" s="898">
         <v>864</v>
       </c>
-      <c r="I262" t="s" s="899">
+      <c r="I293" t="s" s="899">
         <v>865</v>
       </c>
-      <c r="J262" t="s" s="900">
+      <c r="J293" t="s" s="900">
         <v>866</v>
       </c>
     </row>
-    <row r="263" ht="20.0" customHeight="true">
-      <c r="A263" t="s" s="901">
+    <row r="294" ht="20.0" customHeight="true">
+      <c r="A294" t="s" s="901">
         <v>867</v>
       </c>
-      <c r="B263" t="s" s="902">
+      <c r="B294" t="s" s="902">
         <v>868</v>
       </c>
-      <c r="C263" t="s" s="903">
+      <c r="C294" t="s" s="903">
         <v>869</v>
       </c>
-      <c r="D263" t="s" s="904">
+      <c r="D294" t="s" s="904">
         <v>870</v>
       </c>
     </row>
-    <row r="264" ht="20.0" customHeight="true">
-      <c r="A264" t="s" s="905">
+    <row r="295" ht="20.0" customHeight="true">
+      <c r="A295" t="s" s="905">
         <v>21</v>
       </c>
     </row>
-    <row r="265" ht="20.0" customHeight="true">
-      <c r="A265" t="s" s="906">
+    <row r="296" ht="20.0" customHeight="true">
+      <c r="A296" t="s" s="906">
         <v>871</v>
       </c>
-      <c r="B265" t="s" s="907">
+      <c r="B296" t="s" s="907">
         <v>872</v>
       </c>
-      <c r="C265" t="s" s="908">
+      <c r="C296" t="s" s="908">
         <v>873</v>
       </c>
-      <c r="D265" t="s" s="909">
+      <c r="D296" t="s" s="909">
         <v>874</v>
       </c>
-      <c r="E265" t="s" s="910">
+      <c r="E296" t="s" s="910">
         <v>875</v>
       </c>
-      <c r="F265" t="s" s="911">
+      <c r="F296" t="s" s="911">
         <v>876</v>
       </c>
-      <c r="G265" t="s" s="912">
+      <c r="G296" t="s" s="912">
         <v>877</v>
       </c>
-      <c r="H265" t="s" s="913">
+      <c r="H296" t="s" s="913">
         <v>878</v>
       </c>
-      <c r="I265" t="s" s="914">
+      <c r="I296" t="s" s="914">
         <v>879</v>
       </c>
-      <c r="J265" t="s" s="915">
+      <c r="J296" t="s" s="915">
         <v>880</v>
       </c>
     </row>
-    <row r="266" ht="20.0" customHeight="true">
-      <c r="A266" t="s" s="916">
+    <row r="297" ht="20.0" customHeight="true">
+      <c r="A297" t="s" s="916">
         <v>881</v>
       </c>
-      <c r="B266" t="s" s="917">
+      <c r="B297" t="s" s="917">
         <v>882</v>
       </c>
-      <c r="C266" t="s" s="918">
+      <c r="C297" t="s" s="918">
         <v>429</v>
       </c>
     </row>
-    <row r="267" ht="20.0" customHeight="true">
-      <c r="A267" t="s" s="919">
+    <row r="298" ht="20.0" customHeight="true">
+      <c r="A298"/>
+    </row>
+    <row r="299" ht="20.0" customHeight="true">
+      <c r="A299" t="s" s="919">
         <v>883</v>
       </c>
-      <c r="B267" t="s" s="919">
+      <c r="B299" t="s" s="919">
         <v>884</v>
       </c>
     </row>
-    <row r="268" ht="20.0" customHeight="true">
-      <c r="A268" t="s" s="920">
+    <row r="300" ht="20.0" customHeight="true">
+      <c r="A300" t="s" s="920">
         <v>4</v>
       </c>
-      <c r="B268" t="s" s="920">
+      <c r="B300" t="s" s="920">
         <v>885</v>
       </c>
     </row>
-    <row r="269" ht="20.0" customHeight="true">
-      <c r="A269" t="s" s="921">
+    <row r="301" ht="20.0" customHeight="true">
+      <c r="A301" t="s" s="921">
         <v>6</v>
       </c>
-      <c r="B269" t="s" s="921">
+      <c r="B301" t="s" s="921">
         <v>886</v>
       </c>
     </row>
-    <row r="270" ht="20.0" customHeight="true">
-      <c r="A270" t="s" s="922">
+    <row r="302" ht="20.0" customHeight="true">
+      <c r="A302" t="s" s="922">
         <v>8</v>
       </c>
     </row>
-    <row r="271" ht="20.0" customHeight="true">
-      <c r="A271" t="s" s="923">
+    <row r="303" ht="20.0" customHeight="true">
+      <c r="A303" t="s" s="923">
         <v>887</v>
       </c>
-      <c r="B271" t="s" s="924">
+      <c r="B303" t="s" s="924">
         <v>888</v>
       </c>
-      <c r="C271" t="s" s="925">
+      <c r="C303" t="s" s="925">
         <v>889</v>
       </c>
-      <c r="D271" t="s" s="926">
+      <c r="D303" t="s" s="926">
         <v>890</v>
       </c>
-      <c r="E271" t="s" s="927">
+      <c r="E303" t="s" s="927">
         <v>891</v>
       </c>
-      <c r="F271" t="s" s="928">
+      <c r="F303" t="s" s="928">
         <v>892</v>
       </c>
-      <c r="G271" t="s" s="929">
+      <c r="G303" t="s" s="929">
         <v>893</v>
       </c>
-      <c r="H271" t="s" s="930">
+      <c r="H303" t="s" s="930">
         <v>894</v>
       </c>
-      <c r="I271" t="s" s="931">
+      <c r="I303" t="s" s="931">
         <v>895</v>
       </c>
-      <c r="J271" t="s" s="932">
+      <c r="J303" t="s" s="932">
         <v>896</v>
       </c>
     </row>
-    <row r="272" ht="20.0" customHeight="true">
-      <c r="A272" t="s" s="933">
+    <row r="304" ht="20.0" customHeight="true">
+      <c r="A304" t="s" s="933">
         <v>897</v>
       </c>
-      <c r="B272" t="s" s="934">
+      <c r="B304" t="s" s="934">
         <v>898</v>
       </c>
-      <c r="C272" t="s" s="935">
+      <c r="C304" t="s" s="935">
         <v>899</v>
       </c>
     </row>
-    <row r="273" ht="20.0" customHeight="true">
-      <c r="A273" t="s" s="936">
+    <row r="305" ht="20.0" customHeight="true">
+      <c r="A305" t="s" s="936">
         <v>21</v>
       </c>
     </row>
-    <row r="274" ht="20.0" customHeight="true">
-      <c r="A274" t="s" s="937">
+    <row r="306" ht="20.0" customHeight="true">
+      <c r="A306" t="s" s="937">
         <v>900</v>
       </c>
-      <c r="B274" t="s" s="938">
+      <c r="B306" t="s" s="938">
         <v>901</v>
       </c>
-      <c r="C274" t="s" s="939">
+      <c r="C306" t="s" s="939">
         <v>902</v>
       </c>
-      <c r="D274" t="s" s="940">
+      <c r="D306" t="s" s="940">
         <v>903</v>
       </c>
-      <c r="E274" t="s" s="941">
+      <c r="E306" t="s" s="941">
         <v>904</v>
       </c>
-      <c r="F274" t="s" s="942">
+      <c r="F306" t="s" s="942">
         <v>905</v>
       </c>
-      <c r="G274" t="s" s="943">
+      <c r="G306" t="s" s="943">
         <v>906</v>
       </c>
-      <c r="H274" t="s" s="944">
+      <c r="H306" t="s" s="944">
         <v>907</v>
       </c>
-      <c r="I274" t="s" s="945">
+      <c r="I306" t="s" s="945">
         <v>908</v>
       </c>
-      <c r="J274" t="s" s="946">
+      <c r="J306" t="s" s="946">
         <v>909</v>
       </c>
     </row>
-    <row r="275" ht="20.0" customHeight="true">
-      <c r="A275" t="s" s="947">
+    <row r="307" ht="20.0" customHeight="true">
+      <c r="A307" t="s" s="947">
         <v>910</v>
       </c>
-      <c r="B275" t="s" s="948">
+      <c r="B307" t="s" s="948">
         <v>911</v>
       </c>
     </row>
-    <row r="276" ht="20.0" customHeight="true">
-      <c r="A276" t="s" s="949">
+    <row r="308" ht="20.0" customHeight="true">
+      <c r="A308"/>
+    </row>
+    <row r="309" ht="20.0" customHeight="true">
+      <c r="A309" t="s" s="949">
         <v>912</v>
       </c>
-      <c r="B276" t="s" s="949">
+      <c r="B309" t="s" s="949">
         <v>913</v>
       </c>
     </row>
-    <row r="277" ht="20.0" customHeight="true">
-      <c r="A277" t="s" s="950">
+    <row r="310" ht="20.0" customHeight="true">
+      <c r="A310" t="s" s="950">
         <v>4</v>
       </c>
-      <c r="B277" t="s" s="950">
+      <c r="B310" t="s" s="950">
         <v>914</v>
       </c>
     </row>
-    <row r="278" ht="20.0" customHeight="true">
-      <c r="A278" t="s" s="951">
+    <row r="311" ht="20.0" customHeight="true">
+      <c r="A311" t="s" s="951">
         <v>6</v>
       </c>
-      <c r="B278" t="s" s="951">
+      <c r="B311" t="s" s="951">
         <v>915</v>
       </c>
     </row>
-    <row r="279" ht="20.0" customHeight="true">
-      <c r="A279" t="s" s="952">
+    <row r="312" ht="20.0" customHeight="true">
+      <c r="A312" t="s" s="952">
         <v>8</v>
       </c>
     </row>
-    <row r="280" ht="20.0" customHeight="true">
-      <c r="A280" t="s" s="953">
+    <row r="313" ht="20.0" customHeight="true">
+      <c r="A313" t="s" s="953">
         <v>916</v>
       </c>
-      <c r="B280" t="s" s="954">
+      <c r="B313" t="s" s="954">
         <v>917</v>
       </c>
-      <c r="C280" t="s" s="955">
+      <c r="C313" t="s" s="955">
         <v>918</v>
       </c>
-      <c r="D280" t="s" s="956">
+      <c r="D313" t="s" s="956">
         <v>919</v>
       </c>
-      <c r="E280" t="s" s="957">
+      <c r="E313" t="s" s="957">
         <v>920</v>
       </c>
-      <c r="F280" t="s" s="958">
+      <c r="F313" t="s" s="958">
         <v>921</v>
       </c>
-      <c r="G280" t="s" s="959">
+      <c r="G313" t="s" s="959">
         <v>922</v>
       </c>
-      <c r="H280" t="s" s="960">
+      <c r="H313" t="s" s="960">
         <v>923</v>
       </c>
-      <c r="I280" t="s" s="961">
+      <c r="I313" t="s" s="961">
         <v>924</v>
       </c>
-      <c r="J280" t="s" s="962">
+      <c r="J313" t="s" s="962">
         <v>925</v>
       </c>
     </row>
-    <row r="281" ht="20.0" customHeight="true">
-      <c r="A281" t="s" s="963">
+    <row r="314" ht="20.0" customHeight="true">
+      <c r="A314" t="s" s="963">
         <v>926</v>
       </c>
-      <c r="B281" t="s" s="964">
+      <c r="B314" t="s" s="964">
         <v>927</v>
       </c>
-      <c r="C281" t="s" s="965">
+      <c r="C314" t="s" s="965">
         <v>928</v>
       </c>
     </row>
-    <row r="282" ht="20.0" customHeight="true">
-      <c r="A282" t="s" s="966">
+    <row r="315" ht="20.0" customHeight="true">
+      <c r="A315" t="s" s="966">
         <v>21</v>
       </c>
     </row>
-    <row r="283" ht="20.0" customHeight="true">
-      <c r="A283" t="s" s="967">
+    <row r="316" ht="20.0" customHeight="true">
+      <c r="A316" t="s" s="967">
         <v>929</v>
       </c>
-      <c r="B283" t="s" s="968">
+      <c r="B316" t="s" s="968">
         <v>930</v>
       </c>
-      <c r="C283" t="s" s="969">
+      <c r="C316" t="s" s="969">
         <v>931</v>
       </c>
-      <c r="D283" t="s" s="970">
+      <c r="D316" t="s" s="970">
         <v>932</v>
       </c>
-      <c r="E283" t="s" s="971">
+      <c r="E316" t="s" s="971">
         <v>933</v>
       </c>
-      <c r="F283" t="s" s="972">
+      <c r="F316" t="s" s="972">
         <v>934</v>
       </c>
-      <c r="G283" t="s" s="973">
+      <c r="G316" t="s" s="973">
         <v>935</v>
       </c>
-      <c r="H283" t="s" s="974">
+      <c r="H316" t="s" s="974">
         <v>936</v>
       </c>
-      <c r="I283" t="s" s="975">
+      <c r="I316" t="s" s="975">
         <v>937</v>
       </c>
-      <c r="J283" t="s" s="976">
+      <c r="J316" t="s" s="976">
         <v>938</v>
       </c>
     </row>
-    <row r="284" ht="20.0" customHeight="true">
-      <c r="A284" t="s" s="977">
+    <row r="317" ht="20.0" customHeight="true">
+      <c r="A317" t="s" s="977">
         <v>939</v>
       </c>
-      <c r="B284" t="s" s="978">
+      <c r="B317" t="s" s="978">
         <v>940</v>
       </c>
-      <c r="C284" t="s" s="979">
+      <c r="C317" t="s" s="979">
         <v>941</v>
       </c>
-      <c r="D284" t="s" s="980">
+      <c r="D317" t="s" s="980">
         <v>942</v>
       </c>
     </row>
-    <row r="285" ht="20.0" customHeight="true">
-      <c r="A285" t="s" s="981">
+    <row r="318" ht="20.0" customHeight="true">
+      <c r="A318"/>
+    </row>
+    <row r="319" ht="20.0" customHeight="true">
+      <c r="A319" t="s" s="981">
         <v>943</v>
       </c>
-      <c r="B285" t="s" s="981">
+      <c r="B319" t="s" s="981">
         <v>944</v>
       </c>
     </row>
-    <row r="286" ht="20.0" customHeight="true">
-      <c r="A286" t="s" s="982">
+    <row r="320" ht="20.0" customHeight="true">
+      <c r="A320" t="s" s="982">
         <v>4</v>
       </c>
-      <c r="B286" t="s" s="982">
+      <c r="B320" t="s" s="982">
         <v>945</v>
       </c>
     </row>
-    <row r="287" ht="20.0" customHeight="true">
-      <c r="A287" t="s" s="983">
+    <row r="321" ht="20.0" customHeight="true">
+      <c r="A321" t="s" s="983">
         <v>6</v>
       </c>
-      <c r="B287" t="s" s="983">
+      <c r="B321" t="s" s="983">
         <v>946</v>
       </c>
     </row>
-    <row r="288" ht="20.0" customHeight="true">
-      <c r="A288" t="s" s="984">
+    <row r="322" ht="20.0" customHeight="true">
+      <c r="A322" t="s" s="984">
         <v>8</v>
       </c>
     </row>
-    <row r="289" ht="20.0" customHeight="true">
-      <c r="A289" t="s" s="985">
+    <row r="323" ht="20.0" customHeight="true">
+      <c r="A323" t="s" s="985">
         <v>947</v>
       </c>
-      <c r="B289" t="s" s="986">
+      <c r="B323" t="s" s="986">
         <v>948</v>
       </c>
-      <c r="C289" t="s" s="987">
+      <c r="C323" t="s" s="987">
         <v>949</v>
       </c>
-      <c r="D289" t="s" s="988">
+      <c r="D323" t="s" s="988">
         <v>950</v>
       </c>
-      <c r="E289" t="s" s="989">
+      <c r="E323" t="s" s="989">
         <v>951</v>
       </c>
-      <c r="F289" t="s" s="990">
+      <c r="F323" t="s" s="990">
         <v>952</v>
       </c>
-      <c r="G289" t="s" s="991">
+      <c r="G323" t="s" s="991">
         <v>953</v>
       </c>
-      <c r="H289" t="s" s="992">
+      <c r="H323" t="s" s="992">
         <v>954</v>
       </c>
-      <c r="I289" t="s" s="993">
+      <c r="I323" t="s" s="993">
         <v>955</v>
       </c>
-      <c r="J289" t="s" s="994">
+      <c r="J323" t="s" s="994">
         <v>956</v>
       </c>
     </row>
-    <row r="290" ht="20.0" customHeight="true">
-      <c r="A290" t="s" s="995">
+    <row r="324" ht="20.0" customHeight="true">
+      <c r="A324" t="s" s="995">
         <v>957</v>
       </c>
-      <c r="B290" t="s" s="996">
+      <c r="B324" t="s" s="996">
         <v>958</v>
       </c>
-      <c r="C290" t="s" s="997">
+      <c r="C324" t="s" s="997">
         <v>959</v>
       </c>
     </row>
-    <row r="291" ht="20.0" customHeight="true">
-      <c r="A291" t="s" s="998">
+    <row r="325" ht="20.0" customHeight="true">
+      <c r="A325" t="s" s="998">
         <v>21</v>
       </c>
     </row>
-    <row r="292" ht="20.0" customHeight="true">
-      <c r="A292" t="s" s="999">
+    <row r="326" ht="20.0" customHeight="true">
+      <c r="A326" t="s" s="999">
         <v>960</v>
       </c>
-      <c r="B292" t="s" s="1000">
+      <c r="B326" t="s" s="1000">
         <v>961</v>
       </c>
-      <c r="C292" t="s" s="1001">
+      <c r="C326" t="s" s="1001">
         <v>962</v>
       </c>
-      <c r="D292" t="s" s="1002">
+      <c r="D326" t="s" s="1002">
         <v>963</v>
       </c>
-      <c r="E292" t="s" s="1003">
+      <c r="E326" t="s" s="1003">
         <v>964</v>
       </c>
-      <c r="F292" t="s" s="1004">
+      <c r="F326" t="s" s="1004">
         <v>965</v>
       </c>
-      <c r="G292" t="s" s="1005">
+      <c r="G326" t="s" s="1005">
         <v>966</v>
       </c>
-      <c r="H292" t="s" s="1006">
+      <c r="H326" t="s" s="1006">
         <v>967</v>
       </c>
-      <c r="I292" t="s" s="1007">
+      <c r="I326" t="s" s="1007">
         <v>968</v>
       </c>
-      <c r="J292" t="s" s="1008">
+      <c r="J326" t="s" s="1008">
         <v>969</v>
       </c>
     </row>
-    <row r="293" ht="20.0" customHeight="true">
-      <c r="A293" t="s" s="1009">
+    <row r="327" ht="20.0" customHeight="true">
+      <c r="A327" t="s" s="1009">
         <v>970</v>
       </c>
-      <c r="B293" t="s" s="1010">
+      <c r="B327" t="s" s="1010">
         <v>971</v>
       </c>
-      <c r="C293" t="s" s="1011">
+      <c r="C327" t="s" s="1011">
         <v>972</v>
       </c>
-      <c r="D293" t="s" s="1012">
+      <c r="D327" t="s" s="1012">
         <v>973</v>
       </c>
     </row>
-    <row r="294" ht="20.0" customHeight="true">
-      <c r="A294" t="s" s="1013">
+    <row r="328" ht="20.0" customHeight="true">
+      <c r="A328"/>
+    </row>
+    <row r="329" ht="20.0" customHeight="true">
+      <c r="A329" t="s" s="1013">
         <v>974</v>
       </c>
-      <c r="B294" t="s" s="1013">
+      <c r="B329" t="s" s="1013">
         <v>975</v>
       </c>
     </row>
-    <row r="295" ht="20.0" customHeight="true">
-      <c r="A295" t="s" s="1014">
+    <row r="330" ht="20.0" customHeight="true">
+      <c r="A330" t="s" s="1014">
         <v>4</v>
       </c>
-      <c r="B295" t="s" s="1014">
+      <c r="B330" t="s" s="1014">
         <v>976</v>
       </c>
     </row>
-    <row r="296" ht="20.0" customHeight="true">
-      <c r="A296" t="s" s="1015">
+    <row r="331" ht="20.0" customHeight="true">
+      <c r="A331" t="s" s="1015">
         <v>6</v>
       </c>
-      <c r="B296" t="s" s="1015">
+      <c r="B331" t="s" s="1015">
         <v>977</v>
       </c>
     </row>
-    <row r="297" ht="20.0" customHeight="true">
-      <c r="A297" t="s" s="1016">
+    <row r="332" ht="20.0" customHeight="true">
+      <c r="A332" t="s" s="1016">
         <v>8</v>
       </c>
     </row>
-    <row r="298" ht="20.0" customHeight="true">
-      <c r="A298" t="s" s="1017">
+    <row r="333" ht="20.0" customHeight="true">
+      <c r="A333" t="s" s="1017">
         <v>978</v>
       </c>
-      <c r="B298" t="s" s="1018">
+      <c r="B333" t="s" s="1018">
         <v>979</v>
       </c>
-      <c r="C298" t="s" s="1019">
+      <c r="C333" t="s" s="1019">
         <v>980</v>
       </c>
-      <c r="D298" t="s" s="1020">
+      <c r="D333" t="s" s="1020">
         <v>981</v>
       </c>
-      <c r="E298" t="s" s="1021">
+      <c r="E333" t="s" s="1021">
         <v>982</v>
       </c>
-      <c r="F298" t="s" s="1022">
+      <c r="F333" t="s" s="1022">
         <v>983</v>
       </c>
-      <c r="G298" t="s" s="1023">
+      <c r="G333" t="s" s="1023">
         <v>984</v>
       </c>
-      <c r="H298" t="s" s="1024">
+      <c r="H333" t="s" s="1024">
         <v>985</v>
       </c>
-      <c r="I298" t="s" s="1025">
+      <c r="I333" t="s" s="1025">
         <v>986</v>
       </c>
-      <c r="J298" t="s" s="1026">
+      <c r="J333" t="s" s="1026">
         <v>987</v>
       </c>
     </row>
-    <row r="299" ht="20.0" customHeight="true">
-      <c r="A299" t="s" s="1027">
+    <row r="334" ht="20.0" customHeight="true">
+      <c r="A334" t="s" s="1027">
         <v>988</v>
       </c>
-      <c r="B299" t="s" s="1028">
+      <c r="B334" t="s" s="1028">
         <v>989</v>
       </c>
     </row>
-    <row r="300" ht="20.0" customHeight="true">
-      <c r="A300" t="s" s="1029">
+    <row r="335" ht="20.0" customHeight="true">
+      <c r="A335" t="s" s="1029">
         <v>21</v>
       </c>
     </row>
-    <row r="301" ht="20.0" customHeight="true">
-      <c r="A301" t="s" s="1030">
+    <row r="336" ht="20.0" customHeight="true">
+      <c r="A336" t="s" s="1030">
         <v>990</v>
       </c>
-      <c r="B301" t="s" s="1031">
+      <c r="B336" t="s" s="1031">
         <v>991</v>
       </c>
-      <c r="C301" t="s" s="1032">
+      <c r="C336" t="s" s="1032">
         <v>992</v>
       </c>
-      <c r="D301" t="s" s="1033">
+      <c r="D336" t="s" s="1033">
         <v>993</v>
       </c>
-      <c r="E301" t="s" s="1034">
+      <c r="E336" t="s" s="1034">
         <v>994</v>
       </c>
-      <c r="F301" t="s" s="1035">
+      <c r="F336" t="s" s="1035">
         <v>995</v>
       </c>
-      <c r="G301" t="s" s="1036">
+      <c r="G336" t="s" s="1036">
         <v>996</v>
       </c>
-      <c r="H301" t="s" s="1037">
+      <c r="H336" t="s" s="1037">
         <v>997</v>
       </c>
-      <c r="I301" t="s" s="1038">
+      <c r="I336" t="s" s="1038">
         <v>998</v>
       </c>
-      <c r="J301" t="s" s="1039">
+      <c r="J336" t="s" s="1039">
         <v>999</v>
       </c>
     </row>
-    <row r="302" ht="20.0" customHeight="true">
-      <c r="A302" t="s" s="1040">
+    <row r="337" ht="20.0" customHeight="true">
+      <c r="A337" t="s" s="1040">
         <v>1000</v>
       </c>
-      <c r="B302" t="s" s="1041">
+      <c r="B337" t="s" s="1041">
         <v>1001</v>
       </c>
-      <c r="C302" t="s" s="1042">
+      <c r="C337" t="s" s="1042">
         <v>1002</v>
       </c>
     </row>
-    <row r="303" ht="20.0" customHeight="true">
-      <c r="A303" t="s" s="1043">
+    <row r="338" ht="20.0" customHeight="true">
+      <c r="A338"/>
+    </row>
+    <row r="339" ht="20.0" customHeight="true">
+      <c r="A339" t="s" s="1043">
         <v>1003</v>
       </c>
-      <c r="B303" t="s" s="1043">
+      <c r="B339" t="s" s="1043">
         <v>1004</v>
       </c>
     </row>
-    <row r="304" ht="20.0" customHeight="true">
-      <c r="A304" t="s" s="1044">
+    <row r="340" ht="20.0" customHeight="true">
+      <c r="A340" t="s" s="1044">
         <v>4</v>
       </c>
-      <c r="B304" t="s" s="1044">
+      <c r="B340" t="s" s="1044">
         <v>1005</v>
       </c>
     </row>
-    <row r="305" ht="20.0" customHeight="true">
-      <c r="A305" t="s" s="1045">
+    <row r="341" ht="20.0" customHeight="true">
+      <c r="A341" t="s" s="1045">
         <v>6</v>
       </c>
-      <c r="B305" t="s" s="1045">
+      <c r="B341" t="s" s="1045">
         <v>1006</v>
       </c>
     </row>
-    <row r="306" ht="20.0" customHeight="true">
-      <c r="A306" t="s" s="1046">
+    <row r="342" ht="20.0" customHeight="true">
+      <c r="A342" t="s" s="1046">
         <v>8</v>
       </c>
     </row>
-    <row r="307" ht="20.0" customHeight="true">
-      <c r="A307" t="s" s="1047">
+    <row r="343" ht="20.0" customHeight="true">
+      <c r="A343" t="s" s="1047">
         <v>1007</v>
       </c>
-      <c r="B307" t="s" s="1048">
+      <c r="B343" t="s" s="1048">
         <v>1008</v>
       </c>
-      <c r="C307" t="s" s="1049">
+      <c r="C343" t="s" s="1049">
         <v>1009</v>
       </c>
-      <c r="D307" t="s" s="1050">
+      <c r="D343" t="s" s="1050">
         <v>1010</v>
       </c>
-      <c r="E307" t="s" s="1051">
+      <c r="E343" t="s" s="1051">
         <v>1011</v>
       </c>
-      <c r="F307" t="s" s="1052">
+      <c r="F343" t="s" s="1052">
         <v>1012</v>
       </c>
-      <c r="G307" t="s" s="1053">
+      <c r="G343" t="s" s="1053">
         <v>1013</v>
       </c>
-      <c r="H307" t="s" s="1054">
+      <c r="H343" t="s" s="1054">
         <v>1014</v>
       </c>
-      <c r="I307" t="s" s="1055">
+      <c r="I343" t="s" s="1055">
         <v>1015</v>
       </c>
-      <c r="J307" t="s" s="1056">
+      <c r="J343" t="s" s="1056">
         <v>1016</v>
       </c>
     </row>
-    <row r="308" ht="20.0" customHeight="true">
-      <c r="A308" t="s" s="1057">
+    <row r="344" ht="20.0" customHeight="true">
+      <c r="A344" t="s" s="1057">
         <v>1017</v>
       </c>
-      <c r="B308" t="s" s="1058">
+      <c r="B344" t="s" s="1058">
         <v>1018</v>
       </c>
     </row>
-    <row r="309" ht="20.0" customHeight="true">
-      <c r="A309" t="s" s="1059">
+    <row r="345" ht="20.0" customHeight="true">
+      <c r="A345" t="s" s="1059">
         <v>21</v>
       </c>
     </row>
-    <row r="310" ht="20.0" customHeight="true">
-      <c r="A310" t="s" s="1060">
+    <row r="346" ht="20.0" customHeight="true">
+      <c r="A346" t="s" s="1060">
         <v>1019</v>
       </c>
-      <c r="B310" t="s" s="1061">
+      <c r="B346" t="s" s="1061">
         <v>1020</v>
       </c>
-      <c r="C310" t="s" s="1062">
+      <c r="C346" t="s" s="1062">
         <v>1021</v>
       </c>
-      <c r="D310" t="s" s="1063">
+      <c r="D346" t="s" s="1063">
         <v>1022</v>
       </c>
-      <c r="E310" t="s" s="1064">
+      <c r="E346" t="s" s="1064">
         <v>1023</v>
       </c>
-      <c r="F310" t="s" s="1065">
+      <c r="F346" t="s" s="1065">
         <v>1024</v>
       </c>
-      <c r="G310" t="s" s="1066">
+      <c r="G346" t="s" s="1066">
         <v>1025</v>
       </c>
-      <c r="H310" t="s" s="1067">
+      <c r="H346" t="s" s="1067">
         <v>1026</v>
       </c>
-      <c r="I310" t="s" s="1068">
+      <c r="I346" t="s" s="1068">
         <v>1027</v>
       </c>
-      <c r="J310" t="s" s="1069">
+      <c r="J346" t="s" s="1069">
         <v>1028</v>
       </c>
     </row>
-    <row r="311" ht="20.0" customHeight="true">
-      <c r="A311" t="s" s="1070">
+    <row r="347" ht="20.0" customHeight="true">
+      <c r="A347" t="s" s="1070">
         <v>1029</v>
       </c>
-      <c r="B311" t="s" s="1071">
+      <c r="B347" t="s" s="1071">
         <v>1030</v>
       </c>
-      <c r="C311" t="s" s="1072">
+      <c r="C347" t="s" s="1072">
         <v>1031</v>
       </c>
     </row>
-    <row r="312" ht="20.0" customHeight="true">
-      <c r="A312" t="s" s="1073">
+    <row r="348" ht="20.0" customHeight="true">
+      <c r="A348"/>
+    </row>
+    <row r="349" ht="20.0" customHeight="true">
+      <c r="A349" t="s" s="1073">
         <v>1032</v>
       </c>
-      <c r="B312" t="s" s="1073">
+      <c r="B349" t="s" s="1073">
         <v>1033</v>
       </c>
     </row>
-    <row r="313" ht="20.0" customHeight="true">
-      <c r="A313" t="s" s="1074">
+    <row r="350" ht="20.0" customHeight="true">
+      <c r="A350" t="s" s="1074">
         <v>4</v>
       </c>
-      <c r="B313" t="s" s="1074">
+      <c r="B350" t="s" s="1074">
         <v>1034</v>
       </c>
     </row>
-    <row r="314" ht="20.0" customHeight="true">
-      <c r="A314" t="s" s="1075">
+    <row r="351" ht="20.0" customHeight="true">
+      <c r="A351" t="s" s="1075">
         <v>6</v>
       </c>
-      <c r="B314" t="s" s="1075">
+      <c r="B351" t="s" s="1075">
         <v>1035</v>
       </c>
     </row>
-    <row r="315" ht="20.0" customHeight="true">
-      <c r="A315" t="s" s="1076">
+    <row r="352" ht="20.0" customHeight="true">
+      <c r="A352" t="s" s="1076">
         <v>21</v>
       </c>
     </row>
-    <row r="316" ht="20.0" customHeight="true">
-      <c r="A316" t="s" s="1077">
+    <row r="353" ht="20.0" customHeight="true">
+      <c r="A353" t="s" s="1077">
         <v>1036</v>
       </c>
-      <c r="B316" t="s" s="1078">
+      <c r="B353" t="s" s="1078">
         <v>1037</v>
       </c>
-      <c r="C316" t="s" s="1079">
+      <c r="C353" t="s" s="1079">
         <v>1038</v>
       </c>
-      <c r="D316" t="s" s="1080">
+      <c r="D353" t="s" s="1080">
         <v>1039</v>
       </c>
-      <c r="E316" t="s" s="1081">
+      <c r="E353" t="s" s="1081">
         <v>1040</v>
       </c>
-      <c r="F316" t="s" s="1082">
+      <c r="F353" t="s" s="1082">
         <v>1041</v>
       </c>
-      <c r="G316" t="s" s="1083">
+      <c r="G353" t="s" s="1083">
         <v>1042</v>
       </c>
-      <c r="H316" t="s" s="1084">
+      <c r="H353" t="s" s="1084">
         <v>1043</v>
       </c>
-      <c r="I316" t="s" s="1085">
+      <c r="I353" t="s" s="1085">
         <v>1044</v>
       </c>
-      <c r="J316" t="s" s="1086">
+      <c r="J353" t="s" s="1086">
         <v>1045</v>
       </c>
     </row>
-    <row r="317" ht="20.0" customHeight="true">
-      <c r="A317" t="s" s="1087">
+    <row r="354" ht="20.0" customHeight="true">
+      <c r="A354" t="s" s="1087">
         <v>1046</v>
       </c>
-      <c r="B317" t="s" s="1088">
+      <c r="B354" t="s" s="1088">
         <v>1047</v>
       </c>
-      <c r="C317" t="s" s="1089">
+      <c r="C354" t="s" s="1089">
         <v>1048</v>
       </c>
-      <c r="D317" t="s" s="1090">
+      <c r="D354" t="s" s="1090">
         <v>1049</v>
       </c>
-      <c r="E317" t="s" s="1091">
+      <c r="E354" t="s" s="1091">
         <v>1050</v>
       </c>
-      <c r="F317" t="s" s="1092">
+      <c r="F354" t="s" s="1092">
         <v>1051</v>
       </c>
-      <c r="G317" t="s" s="1093">
+      <c r="G354" t="s" s="1093">
         <v>1052</v>
       </c>
-      <c r="H317" t="s" s="1094">
+      <c r="H354" t="s" s="1094">
         <v>1053</v>
       </c>
-      <c r="I317" t="s" s="1095">
+      <c r="I354" t="s" s="1095">
         <v>1054</v>
       </c>
-      <c r="J317" t="s" s="1096">
+      <c r="J354" t="s" s="1096">
         <v>1055</v>
       </c>
     </row>
-    <row r="318" ht="20.0" customHeight="true">
-      <c r="A318" t="s" s="1097">
+    <row r="355" ht="20.0" customHeight="true">
+      <c r="A355" t="s" s="1097">
         <v>1056</v>
       </c>
-      <c r="B318" t="s" s="1098">
+      <c r="B355" t="s" s="1098">
         <v>1057</v>
       </c>
-      <c r="C318" t="s" s="1099">
+      <c r="C355" t="s" s="1099">
         <v>1058</v>
       </c>
-      <c r="D318" t="s" s="1100">
+      <c r="D355" t="s" s="1100">
         <v>1059</v>
       </c>
-      <c r="E318" t="s" s="1101">
+      <c r="E355" t="s" s="1101">
         <v>1060</v>
       </c>
-      <c r="F318" t="s" s="1102">
+      <c r="F355" t="s" s="1102">
         <v>1061</v>
       </c>
-      <c r="G318" t="s" s="1103">
+      <c r="G355" t="s" s="1103">
         <v>1062</v>
       </c>
     </row>
-    <row r="319" ht="20.0" customHeight="true">
-      <c r="A319" t="s" s="1104">
+    <row r="356" ht="20.0" customHeight="true">
+      <c r="A356"/>
+    </row>
+    <row r="357" ht="20.0" customHeight="true">
+      <c r="A357" t="s" s="1104">
         <v>1063</v>
       </c>
-      <c r="B319" t="s" s="1104">
+      <c r="B357" t="s" s="1104">
         <v>1064</v>
       </c>
     </row>
-    <row r="320" ht="20.0" customHeight="true">
-      <c r="A320" t="s" s="1105">
+    <row r="358" ht="20.0" customHeight="true">
+      <c r="A358" t="s" s="1105">
         <v>4</v>
       </c>
-      <c r="B320" t="s" s="1105">
+      <c r="B358" t="s" s="1105">
         <v>1065</v>
       </c>
     </row>
-    <row r="321" ht="20.0" customHeight="true">
-      <c r="A321" t="s" s="1106">
+    <row r="359" ht="20.0" customHeight="true">
+      <c r="A359" t="s" s="1106">
         <v>6</v>
       </c>
-      <c r="B321" t="s" s="1106">
+      <c r="B359" t="s" s="1106">
         <v>1066</v>
       </c>
     </row>
-    <row r="322" ht="20.0" customHeight="true">
-      <c r="A322" t="s" s="1107">
+    <row r="360" ht="20.0" customHeight="true">
+      <c r="A360" t="s" s="1107">
         <v>8</v>
       </c>
     </row>
-    <row r="323" ht="20.0" customHeight="true">
-      <c r="A323" t="s" s="1108">
+    <row r="361" ht="20.0" customHeight="true">
+      <c r="A361" t="s" s="1108">
         <v>1067</v>
       </c>
-      <c r="B323" t="s" s="1109">
+      <c r="B361" t="s" s="1109">
         <v>1068</v>
       </c>
-      <c r="C323" t="s" s="1110">
+      <c r="C361" t="s" s="1110">
         <v>1069</v>
       </c>
-      <c r="D323" t="s" s="1111">
+      <c r="D361" t="s" s="1111">
         <v>1070</v>
       </c>
-      <c r="E323" t="s" s="1112">
+      <c r="E361" t="s" s="1112">
         <v>1071</v>
       </c>
-      <c r="F323" t="s" s="1113">
+      <c r="F361" t="s" s="1113">
         <v>1072</v>
       </c>
-      <c r="G323" t="s" s="1114">
+      <c r="G361" t="s" s="1114">
         <v>1073</v>
       </c>
-      <c r="H323" t="s" s="1115">
+      <c r="H361" t="s" s="1115">
         <v>1074</v>
       </c>
-      <c r="I323" t="s" s="1116">
+      <c r="I361" t="s" s="1116">
         <v>1075</v>
       </c>
-      <c r="J323" t="s" s="1117">
+      <c r="J361" t="s" s="1117">
         <v>1076</v>
       </c>
     </row>
-    <row r="324" ht="20.0" customHeight="true">
-      <c r="A324" t="s" s="1118">
+    <row r="362" ht="20.0" customHeight="true">
+      <c r="A362" t="s" s="1118">
         <v>1077</v>
       </c>
-      <c r="B324" t="s" s="1119">
+      <c r="B362" t="s" s="1119">
         <v>1078</v>
       </c>
-      <c r="C324" t="s" s="1120">
+      <c r="C362" t="s" s="1120">
         <v>1079</v>
       </c>
-      <c r="D324" t="s" s="1121">
+      <c r="D362" t="s" s="1121">
         <v>1080</v>
       </c>
     </row>
-    <row r="325" ht="20.0" customHeight="true">
-      <c r="A325" t="s" s="1122">
+    <row r="363" ht="20.0" customHeight="true">
+      <c r="A363" t="s" s="1122">
         <v>21</v>
       </c>
     </row>
-    <row r="326" ht="20.0" customHeight="true">
-      <c r="A326" t="s" s="1123">
+    <row r="364" ht="20.0" customHeight="true">
+      <c r="A364" t="s" s="1123">
         <v>1081</v>
       </c>
-      <c r="B326" t="s" s="1124">
+      <c r="B364" t="s" s="1124">
         <v>1082</v>
       </c>
-      <c r="C326" t="s" s="1125">
+      <c r="C364" t="s" s="1125">
         <v>1083</v>
       </c>
-      <c r="D326" t="s" s="1126">
+      <c r="D364" t="s" s="1126">
         <v>1084</v>
       </c>
-      <c r="E326" t="s" s="1127">
+      <c r="E364" t="s" s="1127">
         <v>1085</v>
       </c>
-      <c r="F326" t="s" s="1128">
+      <c r="F364" t="s" s="1128">
         <v>1086</v>
       </c>
-      <c r="G326" t="s" s="1129">
+      <c r="G364" t="s" s="1129">
         <v>1087</v>
       </c>
-      <c r="H326" t="s" s="1130">
+      <c r="H364" t="s" s="1130">
         <v>1088</v>
       </c>
-      <c r="I326" t="s" s="1131">
+      <c r="I364" t="s" s="1131">
         <v>1089</v>
       </c>
-      <c r="J326" t="s" s="1132">
+      <c r="J364" t="s" s="1132">
         <v>1090</v>
       </c>
     </row>
-    <row r="327" ht="20.0" customHeight="true">
-      <c r="A327" t="s" s="1133">
+    <row r="365" ht="20.0" customHeight="true">
+      <c r="A365" t="s" s="1133">
         <v>1091</v>
       </c>
-      <c r="B327" t="s" s="1134">
+      <c r="B365" t="s" s="1134">
         <v>1092</v>
       </c>
-      <c r="C327" t="s" s="1135">
+      <c r="C365" t="s" s="1135">
         <v>1093</v>
       </c>
     </row>
-    <row r="328" ht="20.0" customHeight="true">
-      <c r="A328" t="s" s="1136">
+    <row r="366" ht="20.0" customHeight="true">
+      <c r="A366"/>
+    </row>
+    <row r="367" ht="20.0" customHeight="true">
+      <c r="A367" t="s" s="1136">
         <v>1094</v>
       </c>
-      <c r="B328" t="s" s="1136">
+      <c r="B367" t="s" s="1136">
         <v>1095</v>
       </c>
     </row>
-    <row r="329" ht="20.0" customHeight="true">
-      <c r="A329" t="s" s="1137">
+    <row r="368" ht="20.0" customHeight="true">
+      <c r="A368" t="s" s="1137">
         <v>4</v>
       </c>
-      <c r="B329" t="s" s="1137">
+      <c r="B368" t="s" s="1137">
         <v>1096</v>
       </c>
     </row>
-    <row r="330" ht="20.0" customHeight="true">
-      <c r="A330" t="s" s="1138">
+    <row r="369" ht="20.0" customHeight="true">
+      <c r="A369" t="s" s="1138">
         <v>6</v>
       </c>
-      <c r="B330" t="s" s="1138">
+      <c r="B369" t="s" s="1138">
         <v>1097</v>
       </c>
     </row>
-    <row r="331" ht="20.0" customHeight="true">
-      <c r="A331" t="s" s="1139">
+    <row r="370" ht="20.0" customHeight="true">
+      <c r="A370" t="s" s="1139">
         <v>8</v>
       </c>
     </row>
-    <row r="332" ht="20.0" customHeight="true">
-      <c r="A332" t="s" s="1140">
+    <row r="371" ht="20.0" customHeight="true">
+      <c r="A371" t="s" s="1140">
         <v>1098</v>
       </c>
-      <c r="B332" t="s" s="1141">
+      <c r="B371" t="s" s="1141">
         <v>1099</v>
       </c>
-      <c r="C332" t="s" s="1142">
+      <c r="C371" t="s" s="1142">
         <v>1100</v>
       </c>
-      <c r="D332" t="s" s="1143">
+      <c r="D371" t="s" s="1143">
         <v>1101</v>
       </c>
-      <c r="E332" t="s" s="1144">
+      <c r="E371" t="s" s="1144">
         <v>1102</v>
       </c>
-      <c r="F332" t="s" s="1145">
+      <c r="F371" t="s" s="1145">
         <v>1103</v>
       </c>
-      <c r="G332" t="s" s="1146">
+      <c r="G371" t="s" s="1146">
         <v>1104</v>
       </c>
-      <c r="H332" t="s" s="1147">
+      <c r="H371" t="s" s="1147">
         <v>1105</v>
       </c>
-      <c r="I332" t="s" s="1148">
+      <c r="I371" t="s" s="1148">
         <v>1106</v>
       </c>
-      <c r="J332" t="s" s="1149">
+      <c r="J371" t="s" s="1149">
         <v>1107</v>
       </c>
     </row>
-    <row r="333" ht="20.0" customHeight="true">
-      <c r="A333" t="s" s="1150">
+    <row r="372" ht="20.0" customHeight="true">
+      <c r="A372" t="s" s="1150">
         <v>1108</v>
       </c>
-      <c r="B333" t="s" s="1151">
+      <c r="B372" t="s" s="1151">
         <v>1109</v>
       </c>
-      <c r="C333" t="s" s="1152">
+      <c r="C372" t="s" s="1152">
         <v>1110</v>
       </c>
     </row>
-    <row r="334" ht="20.0" customHeight="true">
-      <c r="A334" t="s" s="1153">
+    <row r="373" ht="20.0" customHeight="true">
+      <c r="A373" t="s" s="1153">
         <v>21</v>
       </c>
     </row>
-    <row r="335" ht="20.0" customHeight="true">
-      <c r="A335" t="s" s="1154">
+    <row r="374" ht="20.0" customHeight="true">
+      <c r="A374" t="s" s="1154">
         <v>1111</v>
       </c>
-      <c r="B335" t="s" s="1155">
+      <c r="B374" t="s" s="1155">
         <v>1112</v>
       </c>
-      <c r="C335" t="s" s="1156">
+      <c r="C374" t="s" s="1156">
         <v>1113</v>
       </c>
-      <c r="D335" t="s" s="1157">
+      <c r="D374" t="s" s="1157">
         <v>1114</v>
       </c>
-      <c r="E335" t="s" s="1158">
+      <c r="E374" t="s" s="1158">
         <v>1115</v>
       </c>
-      <c r="F335" t="s" s="1159">
+      <c r="F374" t="s" s="1159">
         <v>1116</v>
       </c>
-      <c r="G335" t="s" s="1160">
+      <c r="G374" t="s" s="1160">
         <v>1117</v>
       </c>
-      <c r="H335" t="s" s="1161">
+      <c r="H374" t="s" s="1161">
         <v>1118</v>
       </c>
-      <c r="I335" t="s" s="1162">
+      <c r="I374" t="s" s="1162">
         <v>1119</v>
       </c>
-      <c r="J335" t="s" s="1163">
+      <c r="J374" t="s" s="1163">
         <v>1120</v>
       </c>
     </row>
-    <row r="336" ht="20.0" customHeight="true">
-      <c r="A336" t="s" s="1164">
+    <row r="375" ht="20.0" customHeight="true">
+      <c r="A375" t="s" s="1164">
         <v>1121</v>
       </c>
-      <c r="B336" t="s" s="1165">
+      <c r="B375" t="s" s="1165">
         <v>1122</v>
       </c>
-      <c r="C336" t="s" s="1166">
+      <c r="C375" t="s" s="1166">
         <v>1123</v>
       </c>
-      <c r="D336" t="s" s="1167">
+      <c r="D375" t="s" s="1167">
         <v>1124</v>
       </c>
     </row>
-    <row r="337" ht="20.0" customHeight="true">
-      <c r="A337" t="s" s="1168">
+    <row r="376" ht="20.0" customHeight="true">
+      <c r="A376"/>
+    </row>
+    <row r="377" ht="20.0" customHeight="true">
+      <c r="A377" t="s" s="1168">
         <v>1125</v>
       </c>
-      <c r="B337" t="s" s="1168">
+      <c r="B377" t="s" s="1168">
         <v>128</v>
       </c>
     </row>
-    <row r="338" ht="20.0" customHeight="true">
-      <c r="A338" t="s" s="1169">
+    <row r="378" ht="20.0" customHeight="true">
+      <c r="A378" t="s" s="1169">
         <v>4</v>
       </c>
-      <c r="B338" t="s" s="1169">
+      <c r="B378" t="s" s="1169">
         <v>129</v>
       </c>
     </row>
-    <row r="339" ht="20.0" customHeight="true">
-      <c r="A339" t="s" s="1170">
+    <row r="379" ht="20.0" customHeight="true">
+      <c r="A379" t="s" s="1170">
         <v>6</v>
       </c>
-      <c r="B339" t="s" s="1170">
+      <c r="B379" t="s" s="1170">
         <v>1126</v>
       </c>
     </row>
-    <row r="340" ht="20.0" customHeight="true">
-      <c r="A340" t="s" s="1171">
+    <row r="380" ht="20.0" customHeight="true">
+      <c r="A380" t="s" s="1171">
         <v>8</v>
       </c>
     </row>
-    <row r="341" ht="20.0" customHeight="true">
-      <c r="A341" t="s" s="1172">
+    <row r="381" ht="20.0" customHeight="true">
+      <c r="A381" t="s" s="1172">
         <v>1127</v>
       </c>
-      <c r="B341" t="s" s="1173">
+      <c r="B381" t="s" s="1173">
         <v>1128</v>
       </c>
-      <c r="C341" t="s" s="1174">
+      <c r="C381" t="s" s="1174">
         <v>1129</v>
       </c>
-      <c r="D341" t="s" s="1175">
+      <c r="D381" t="s" s="1175">
         <v>1130</v>
       </c>
-      <c r="E341" t="s" s="1176">
+      <c r="E381" t="s" s="1176">
         <v>1131</v>
       </c>
-      <c r="F341" t="s" s="1177">
+      <c r="F381" t="s" s="1177">
         <v>1132</v>
       </c>
-      <c r="G341" t="s" s="1178">
+      <c r="G381" t="s" s="1178">
         <v>1133</v>
       </c>
-      <c r="H341" t="s" s="1179">
+      <c r="H381" t="s" s="1179">
         <v>1134</v>
       </c>
-      <c r="I341" t="s" s="1180">
+      <c r="I381" t="s" s="1180">
         <v>1135</v>
       </c>
-      <c r="J341" t="s" s="1181">
+      <c r="J381" t="s" s="1181">
         <v>1136</v>
       </c>
     </row>
-    <row r="342" ht="20.0" customHeight="true">
-      <c r="A342" t="s" s="1182">
+    <row r="382" ht="20.0" customHeight="true">
+      <c r="A382" t="s" s="1182">
         <v>1137</v>
       </c>
-      <c r="B342" t="s" s="1183">
+      <c r="B382" t="s" s="1183">
         <v>1138</v>
       </c>
     </row>
-    <row r="343" ht="20.0" customHeight="true">
-      <c r="A343" t="s" s="1184">
+    <row r="383" ht="20.0" customHeight="true">
+      <c r="A383" t="s" s="1184">
         <v>21</v>
       </c>
     </row>
-    <row r="344" ht="20.0" customHeight="true">
-      <c r="A344" t="s" s="1185">
+    <row r="384" ht="20.0" customHeight="true">
+      <c r="A384" t="s" s="1185">
         <v>1139</v>
       </c>
-      <c r="B344" t="s" s="1186">
+      <c r="B384" t="s" s="1186">
         <v>1140</v>
       </c>
-      <c r="C344" t="s" s="1187">
+      <c r="C384" t="s" s="1187">
         <v>1141</v>
       </c>
-      <c r="D344" t="s" s="1188">
+      <c r="D384" t="s" s="1188">
         <v>1142</v>
       </c>
-      <c r="E344" t="s" s="1189">
+      <c r="E384" t="s" s="1189">
         <v>1143</v>
       </c>
-      <c r="F344" t="s" s="1190">
+      <c r="F384" t="s" s="1190">
         <v>1144</v>
       </c>
-      <c r="G344" t="s" s="1191">
+      <c r="G384" t="s" s="1191">
         <v>1145</v>
       </c>
-      <c r="H344" t="s" s="1192">
+      <c r="H384" t="s" s="1192">
         <v>1146</v>
       </c>
-      <c r="I344" t="s" s="1193">
+      <c r="I384" t="s" s="1193">
         <v>1147</v>
       </c>
-      <c r="J344" t="s" s="1194">
+      <c r="J384" t="s" s="1194">
         <v>1148</v>
       </c>
     </row>
-    <row r="345" ht="20.0" customHeight="true">
-      <c r="A345" t="s" s="1195">
+    <row r="385" ht="20.0" customHeight="true">
+      <c r="A385" t="s" s="1195">
         <v>1149</v>
       </c>
-      <c r="B345" t="s" s="1196">
+      <c r="B385" t="s" s="1196">
         <v>1150</v>
       </c>
-      <c r="C345" t="s" s="1197">
+      <c r="C385" t="s" s="1197">
         <v>1151</v>
       </c>
-      <c r="D345" t="s" s="1198">
+      <c r="D385" t="s" s="1198">
         <v>1152</v>
       </c>
-      <c r="E345" t="s" s="1199">
+      <c r="E385" t="s" s="1199">
         <v>1153</v>
       </c>
     </row>
-    <row r="346" ht="20.0" customHeight="true">
-      <c r="A346" t="s" s="1200">
+    <row r="386" ht="20.0" customHeight="true">
+      <c r="A386"/>
+    </row>
+    <row r="387" ht="20.0" customHeight="true">
+      <c r="A387" t="s" s="1200">
         <v>1154</v>
       </c>
-      <c r="B346" t="s" s="1200">
+      <c r="B387" t="s" s="1200">
         <v>1155</v>
       </c>
     </row>
-    <row r="347" ht="20.0" customHeight="true">
-      <c r="A347" t="s" s="1201">
+    <row r="388" ht="20.0" customHeight="true">
+      <c r="A388" t="s" s="1201">
         <v>4</v>
       </c>
-      <c r="B347" t="s" s="1201">
+      <c r="B388" t="s" s="1201">
         <v>1156</v>
       </c>
     </row>
-    <row r="348" ht="20.0" customHeight="true">
-      <c r="A348" t="s" s="1202">
+    <row r="389" ht="20.0" customHeight="true">
+      <c r="A389" t="s" s="1202">
         <v>6</v>
       </c>
-      <c r="B348" t="s" s="1202">
+      <c r="B389" t="s" s="1202">
         <v>1157</v>
       </c>
     </row>
-    <row r="349" ht="20.0" customHeight="true">
-      <c r="A349" t="s" s="1203">
+    <row r="390" ht="20.0" customHeight="true">
+      <c r="A390" t="s" s="1203">
         <v>8</v>
       </c>
     </row>
-    <row r="350" ht="20.0" customHeight="true">
-      <c r="A350" t="s" s="1204">
+    <row r="391" ht="20.0" customHeight="true">
+      <c r="A391" t="s" s="1204">
         <v>1158</v>
       </c>
-      <c r="B350" t="s" s="1205">
+      <c r="B391" t="s" s="1205">
         <v>1159</v>
       </c>
-      <c r="C350" t="s" s="1206">
+      <c r="C391" t="s" s="1206">
         <v>1160</v>
       </c>
-      <c r="D350" t="s" s="1207">
+      <c r="D391" t="s" s="1207">
         <v>1161</v>
       </c>
-      <c r="E350" t="s" s="1208">
+      <c r="E391" t="s" s="1208">
         <v>1162</v>
       </c>
-      <c r="F350" t="s" s="1209">
+      <c r="F391" t="s" s="1209">
         <v>1163</v>
       </c>
-      <c r="G350" t="s" s="1210">
+      <c r="G391" t="s" s="1210">
         <v>1164</v>
       </c>
-      <c r="H350" t="s" s="1211">
+      <c r="H391" t="s" s="1211">
         <v>1165</v>
       </c>
-      <c r="I350" t="s" s="1212">
+      <c r="I391" t="s" s="1212">
         <v>1166</v>
       </c>
-      <c r="J350" t="s" s="1213">
+      <c r="J391" t="s" s="1213">
         <v>1167</v>
       </c>
     </row>
-    <row r="351" ht="20.0" customHeight="true">
-      <c r="A351" t="s" s="1214">
+    <row r="392" ht="20.0" customHeight="true">
+      <c r="A392" t="s" s="1214">
         <v>1168</v>
       </c>
-      <c r="B351" t="s" s="1215">
+      <c r="B392" t="s" s="1215">
         <v>1169</v>
       </c>
-      <c r="C351" t="s" s="1216">
+      <c r="C392" t="s" s="1216">
         <v>1170</v>
       </c>
     </row>
-    <row r="352" ht="20.0" customHeight="true">
-      <c r="A352" t="s" s="1217">
+    <row r="393" ht="20.0" customHeight="true">
+      <c r="A393" t="s" s="1217">
         <v>21</v>
       </c>
     </row>
-    <row r="353" ht="20.0" customHeight="true">
-      <c r="A353" t="s" s="1218">
+    <row r="394" ht="20.0" customHeight="true">
+      <c r="A394" t="s" s="1218">
         <v>1171</v>
       </c>
-      <c r="B353" t="s" s="1219">
+      <c r="B394" t="s" s="1219">
         <v>1172</v>
       </c>
-      <c r="C353" t="s" s="1220">
+      <c r="C394" t="s" s="1220">
         <v>1173</v>
       </c>
-      <c r="D353" t="s" s="1221">
+      <c r="D394" t="s" s="1221">
         <v>1174</v>
       </c>
-      <c r="E353" t="s" s="1222">
+      <c r="E394" t="s" s="1222">
         <v>1175</v>
       </c>
-      <c r="F353" t="s" s="1223">
+      <c r="F394" t="s" s="1223">
         <v>1176</v>
       </c>
-      <c r="G353" t="s" s="1224">
+      <c r="G394" t="s" s="1224">
         <v>1177</v>
       </c>
-      <c r="H353" t="s" s="1225">
+      <c r="H394" t="s" s="1225">
         <v>1178</v>
       </c>
-      <c r="I353" t="s" s="1226">
+      <c r="I394" t="s" s="1226">
         <v>1179</v>
       </c>
-      <c r="J353" t="s" s="1227">
+      <c r="J394" t="s" s="1227">
         <v>1180</v>
       </c>
     </row>
-    <row r="354" ht="20.0" customHeight="true">
-      <c r="A354" t="s" s="1228">
+    <row r="395" ht="20.0" customHeight="true">
+      <c r="A395" t="s" s="1228">
         <v>1181</v>
       </c>
-      <c r="B354" t="s" s="1229">
+      <c r="B395" t="s" s="1229">
         <v>1182</v>
       </c>
-      <c r="C354" t="s" s="1230">
+      <c r="C395" t="s" s="1230">
         <v>1183</v>
       </c>
-      <c r="D354" t="s" s="1231">
+      <c r="D395" t="s" s="1231">
         <v>1184</v>
       </c>
     </row>
-    <row r="355" ht="24.0" customHeight="true">
-      <c r="A355" t="s" s="1232">
+    <row r="396" ht="20.0" customHeight="true">
+      <c r="A396"/>
+    </row>
+    <row r="397" ht="24.0" customHeight="true">
+      <c r="A397" t="s" s="1232">
         <v>1185</v>
       </c>
     </row>
-    <row r="356" ht="20.0" customHeight="true">
-      <c r="A356" t="s" s="1233">
+    <row r="398" ht="20.0" customHeight="true">
+      <c r="A398"/>
+    </row>
+    <row r="399" ht="20.0" customHeight="true">
+      <c r="A399" t="s" s="1233">
         <v>1186</v>
       </c>
-      <c r="B356" t="s" s="1233">
+      <c r="B399" t="s" s="1233">
         <v>1187</v>
       </c>
     </row>
-    <row r="357" ht="20.0" customHeight="true">
-      <c r="A357" t="s" s="1234">
+    <row r="400" ht="20.0" customHeight="true">
+      <c r="A400" t="s" s="1234">
         <v>4</v>
       </c>
-      <c r="B357" t="s" s="1234">
+      <c r="B400" t="s" s="1234">
         <v>1188</v>
       </c>
     </row>
-    <row r="358" ht="20.0" customHeight="true">
-      <c r="A358" t="s" s="1235">
+    <row r="401" ht="20.0" customHeight="true">
+      <c r="A401" t="s" s="1235">
         <v>6</v>
       </c>
-      <c r="B358" t="s" s="1235">
+      <c r="B401" t="s" s="1235">
         <v>1189</v>
       </c>
     </row>
-    <row r="359" ht="20.0" customHeight="true">
-      <c r="A359" t="s" s="1236">
+    <row r="402" ht="20.0" customHeight="true">
+      <c r="A402" t="s" s="1236">
         <v>8</v>
       </c>
     </row>
-    <row r="360" ht="20.0" customHeight="true">
-      <c r="A360" t="s" s="1237">
+    <row r="403" ht="20.0" customHeight="true">
+      <c r="A403" t="s" s="1237">
         <v>1190</v>
       </c>
-      <c r="B360" t="s" s="1238">
+      <c r="B403" t="s" s="1238">
         <v>1191</v>
       </c>
-      <c r="C360" t="s" s="1239">
+      <c r="C403" t="s" s="1239">
         <v>1192</v>
       </c>
-      <c r="D360" t="s" s="1240">
+      <c r="D403" t="s" s="1240">
         <v>1193</v>
       </c>
-      <c r="E360" t="s" s="1241">
+      <c r="E403" t="s" s="1241">
         <v>1194</v>
       </c>
-      <c r="F360" t="s" s="1242">
+      <c r="F403" t="s" s="1242">
         <v>1195</v>
       </c>
-      <c r="G360" t="s" s="1243">
+      <c r="G403" t="s" s="1243">
         <v>1196</v>
       </c>
-      <c r="H360" t="s" s="1244">
+      <c r="H403" t="s" s="1244">
         <v>1197</v>
       </c>
-      <c r="I360" t="s" s="1245">
+      <c r="I403" t="s" s="1245">
         <v>1198</v>
       </c>
-      <c r="J360" t="s" s="1246">
+      <c r="J403" t="s" s="1246">
         <v>1199</v>
       </c>
     </row>
-    <row r="361" ht="20.0" customHeight="true">
-      <c r="A361" t="s" s="1247">
+    <row r="404" ht="20.0" customHeight="true">
+      <c r="A404" t="s" s="1247">
         <v>1200</v>
       </c>
-      <c r="B361" t="s" s="1248">
+      <c r="B404" t="s" s="1248">
         <v>1201</v>
       </c>
-      <c r="C361" t="s" s="1249">
+      <c r="C404" t="s" s="1249">
         <v>1202</v>
       </c>
     </row>
-    <row r="362" ht="20.0" customHeight="true">
-      <c r="A362" t="s" s="1250">
+    <row r="405" ht="20.0" customHeight="true">
+      <c r="A405" t="s" s="1250">
         <v>21</v>
       </c>
     </row>
-    <row r="363" ht="20.0" customHeight="true">
-      <c r="A363" t="s" s="1251">
+    <row r="406" ht="20.0" customHeight="true">
+      <c r="A406" t="s" s="1251">
         <v>1203</v>
       </c>
-      <c r="B363" t="s" s="1252">
+      <c r="B406" t="s" s="1252">
         <v>1204</v>
       </c>
-      <c r="C363" t="s" s="1253">
+      <c r="C406" t="s" s="1253">
         <v>1205</v>
       </c>
-      <c r="D363" t="s" s="1254">
+      <c r="D406" t="s" s="1254">
         <v>1206</v>
       </c>
-      <c r="E363" t="s" s="1255">
+      <c r="E406" t="s" s="1255">
         <v>1207</v>
       </c>
-      <c r="F363" t="s" s="1256">
+      <c r="F406" t="s" s="1256">
         <v>1208</v>
       </c>
-      <c r="G363" t="s" s="1257">
+      <c r="G406" t="s" s="1257">
         <v>1209</v>
       </c>
-      <c r="H363" t="s" s="1258">
+      <c r="H406" t="s" s="1258">
         <v>1210</v>
       </c>
-      <c r="I363" t="s" s="1259">
+      <c r="I406" t="s" s="1259">
         <v>1211</v>
       </c>
-      <c r="J363" t="s" s="1260">
+      <c r="J406" t="s" s="1260">
         <v>1212</v>
       </c>
     </row>
-    <row r="364" ht="20.0" customHeight="true">
-      <c r="A364" t="s" s="1261">
+    <row r="407" ht="20.0" customHeight="true">
+      <c r="A407" t="s" s="1261">
         <v>1213</v>
       </c>
-      <c r="B364" t="s" s="1262">
+      <c r="B407" t="s" s="1262">
         <v>1214</v>
       </c>
-      <c r="C364" t="s" s="1263">
+      <c r="C407" t="s" s="1263">
         <v>1215</v>
       </c>
-      <c r="D364" t="s" s="1264">
+      <c r="D407" t="s" s="1264">
         <v>1216</v>
       </c>
     </row>
-    <row r="365" ht="20.0" customHeight="true">
-      <c r="A365" t="s" s="1265">
+    <row r="408" ht="20.0" customHeight="true">
+      <c r="A408"/>
+    </row>
+    <row r="409" ht="20.0" customHeight="true">
+      <c r="A409" t="s" s="1265">
         <v>1217</v>
       </c>
-      <c r="B365" t="s" s="1265">
+      <c r="B409" t="s" s="1265">
         <v>1218</v>
       </c>
     </row>
-    <row r="366" ht="20.0" customHeight="true">
-      <c r="A366" t="s" s="1266">
+    <row r="410" ht="20.0" customHeight="true">
+      <c r="A410" t="s" s="1266">
         <v>4</v>
       </c>
-      <c r="B366" t="s" s="1266">
+      <c r="B410" t="s" s="1266">
         <v>1219</v>
       </c>
     </row>
-    <row r="367" ht="20.0" customHeight="true">
-      <c r="A367" t="s" s="1267">
+    <row r="411" ht="20.0" customHeight="true">
+      <c r="A411" t="s" s="1267">
         <v>6</v>
       </c>
-      <c r="B367" t="s" s="1267">
+      <c r="B411" t="s" s="1267">
         <v>1220</v>
       </c>
     </row>
-    <row r="368" ht="20.0" customHeight="true">
-      <c r="A368" t="s" s="1268">
+    <row r="412" ht="20.0" customHeight="true">
+      <c r="A412" t="s" s="1268">
         <v>8</v>
       </c>
     </row>
-    <row r="369" ht="20.0" customHeight="true">
-      <c r="A369" t="s" s="1269">
+    <row r="413" ht="20.0" customHeight="true">
+      <c r="A413" t="s" s="1269">
         <v>1221</v>
       </c>
-      <c r="B369" t="s" s="1270">
+      <c r="B413" t="s" s="1270">
         <v>1222</v>
       </c>
-      <c r="C369" t="s" s="1271">
+      <c r="C413" t="s" s="1271">
         <v>1223</v>
       </c>
-      <c r="D369" t="s" s="1272">
+      <c r="D413" t="s" s="1272">
         <v>1224</v>
       </c>
-      <c r="E369" t="s" s="1273">
+      <c r="E413" t="s" s="1273">
         <v>1225</v>
       </c>
-      <c r="F369" t="s" s="1274">
+      <c r="F413" t="s" s="1274">
         <v>476</v>
       </c>
-      <c r="G369" t="s" s="1275">
+      <c r="G413" t="s" s="1275">
         <v>1226</v>
       </c>
-      <c r="H369" t="s" s="1276">
+      <c r="H413" t="s" s="1276">
         <v>1227</v>
       </c>
-      <c r="I369" t="s" s="1277">
+      <c r="I413" t="s" s="1277">
         <v>1228</v>
       </c>
-      <c r="J369" t="s" s="1278">
+      <c r="J413" t="s" s="1278">
         <v>1229</v>
       </c>
     </row>
-    <row r="370" ht="20.0" customHeight="true">
-      <c r="A370" t="s" s="1279">
+    <row r="414" ht="20.0" customHeight="true">
+      <c r="A414" t="s" s="1279">
         <v>1230</v>
       </c>
-      <c r="B370" t="s" s="1280">
+      <c r="B414" t="s" s="1280">
         <v>1231</v>
       </c>
-      <c r="C370" t="s" s="1281">
+      <c r="C414" t="s" s="1281">
         <v>1232</v>
       </c>
     </row>
-    <row r="371" ht="20.0" customHeight="true">
-      <c r="A371" t="s" s="1282">
+    <row r="415" ht="20.0" customHeight="true">
+      <c r="A415" t="s" s="1282">
         <v>21</v>
       </c>
     </row>
-    <row r="372" ht="20.0" customHeight="true">
-      <c r="A372" t="s" s="1283">
+    <row r="416" ht="20.0" customHeight="true">
+      <c r="A416" t="s" s="1283">
         <v>1233</v>
       </c>
-      <c r="B372" t="s" s="1284">
+      <c r="B416" t="s" s="1284">
         <v>1234</v>
       </c>
-      <c r="C372" t="s" s="1285">
+      <c r="C416" t="s" s="1285">
         <v>1235</v>
       </c>
-      <c r="D372" t="s" s="1286">
+      <c r="D416" t="s" s="1286">
         <v>1236</v>
       </c>
-      <c r="E372" t="s" s="1287">
+      <c r="E416" t="s" s="1287">
         <v>1237</v>
       </c>
-      <c r="F372" t="s" s="1288">
+      <c r="F416" t="s" s="1288">
         <v>1238</v>
       </c>
-      <c r="G372" t="s" s="1289">
+      <c r="G416" t="s" s="1289">
         <v>1239</v>
       </c>
-      <c r="H372" t="s" s="1290">
+      <c r="H416" t="s" s="1290">
         <v>1240</v>
       </c>
-      <c r="I372" t="s" s="1291">
+      <c r="I416" t="s" s="1291">
         <v>1241</v>
       </c>
-      <c r="J372" t="s" s="1292">
+      <c r="J416" t="s" s="1292">
         <v>1242</v>
       </c>
     </row>
-    <row r="373" ht="20.0" customHeight="true">
-      <c r="A373" t="s" s="1293">
+    <row r="417" ht="20.0" customHeight="true">
+      <c r="A417" t="s" s="1293">
         <v>1243</v>
       </c>
-      <c r="B373" t="s" s="1294">
+      <c r="B417" t="s" s="1294">
         <v>1244</v>
       </c>
-      <c r="C373" t="s" s="1295">
+      <c r="C417" t="s" s="1295">
         <v>1245</v>
       </c>
-      <c r="D373" t="s" s="1296">
+      <c r="D417" t="s" s="1296">
         <v>1246</v>
       </c>
     </row>
-    <row r="374" ht="20.0" customHeight="true">
-      <c r="A374" t="s" s="1297">
+    <row r="418" ht="20.0" customHeight="true">
+      <c r="A418"/>
+    </row>
+    <row r="419" ht="20.0" customHeight="true">
+      <c r="A419" t="s" s="1297">
         <v>1247</v>
       </c>
-      <c r="B374" t="s" s="1297">
+      <c r="B419" t="s" s="1297">
         <v>3</v>
       </c>
     </row>
-    <row r="375" ht="20.0" customHeight="true">
-      <c r="A375" t="s" s="1298">
+    <row r="420" ht="20.0" customHeight="true">
+      <c r="A420" t="s" s="1298">
         <v>4</v>
       </c>
-      <c r="B375" t="s" s="1298">
+      <c r="B420" t="s" s="1298">
         <v>1248</v>
       </c>
     </row>
-    <row r="376" ht="20.0" customHeight="true">
-      <c r="A376" t="s" s="1299">
+    <row r="421" ht="20.0" customHeight="true">
+      <c r="A421" t="s" s="1299">
         <v>6</v>
       </c>
-      <c r="B376" t="s" s="1299">
+      <c r="B421" t="s" s="1299">
         <v>1249</v>
       </c>
     </row>
-    <row r="377" ht="20.0" customHeight="true">
-      <c r="A377" t="s" s="1300">
+    <row r="422" ht="20.0" customHeight="true">
+      <c r="A422" t="s" s="1300">
         <v>8</v>
       </c>
     </row>
-    <row r="378" ht="20.0" customHeight="true">
-      <c r="A378" t="s" s="1301">
+    <row r="423" ht="20.0" customHeight="true">
+      <c r="A423" t="s" s="1301">
         <v>1250</v>
       </c>
-      <c r="B378" t="s" s="1302">
+      <c r="B423" t="s" s="1302">
         <v>1251</v>
       </c>
-      <c r="C378" t="s" s="1303">
+      <c r="C423" t="s" s="1303">
         <v>1252</v>
       </c>
-      <c r="D378" t="s" s="1304">
+      <c r="D423" t="s" s="1304">
         <v>1253</v>
       </c>
-      <c r="E378" t="s" s="1305">
+      <c r="E423" t="s" s="1305">
         <v>1254</v>
       </c>
-      <c r="F378" t="s" s="1306">
+      <c r="F423" t="s" s="1306">
         <v>1255</v>
       </c>
-      <c r="G378" t="s" s="1307">
+      <c r="G423" t="s" s="1307">
         <v>1256</v>
       </c>
-      <c r="H378" t="s" s="1308">
+      <c r="H423" t="s" s="1308">
         <v>1257</v>
       </c>
-      <c r="I378" t="s" s="1309">
+      <c r="I423" t="s" s="1309">
         <v>1258</v>
       </c>
-      <c r="J378" t="s" s="1310">
+      <c r="J423" t="s" s="1310">
         <v>1259</v>
       </c>
     </row>
-    <row r="379" ht="20.0" customHeight="true">
-      <c r="A379" t="s" s="1311">
+    <row r="424" ht="20.0" customHeight="true">
+      <c r="A424" t="s" s="1311">
         <v>1260</v>
       </c>
-      <c r="B379" t="s" s="1312">
+      <c r="B424" t="s" s="1312">
         <v>1261</v>
       </c>
-      <c r="C379" t="s" s="1313">
+      <c r="C424" t="s" s="1313">
         <v>1262</v>
       </c>
     </row>
-    <row r="380" ht="20.0" customHeight="true">
-      <c r="A380" t="s" s="1314">
+    <row r="425" ht="20.0" customHeight="true">
+      <c r="A425" t="s" s="1314">
         <v>21</v>
       </c>
     </row>
-    <row r="381" ht="20.0" customHeight="true">
-      <c r="A381" t="s" s="1315">
+    <row r="426" ht="20.0" customHeight="true">
+      <c r="A426" t="s" s="1315">
         <v>1263</v>
       </c>
-      <c r="B381" t="s" s="1316">
+      <c r="B426" t="s" s="1316">
         <v>1264</v>
       </c>
-      <c r="C381" t="s" s="1317">
+      <c r="C426" t="s" s="1317">
         <v>1265</v>
       </c>
-      <c r="D381" t="s" s="1318">
+      <c r="D426" t="s" s="1318">
         <v>1266</v>
       </c>
-      <c r="E381" t="s" s="1319">
+      <c r="E426" t="s" s="1319">
         <v>1267</v>
       </c>
-      <c r="F381" t="s" s="1320">
+      <c r="F426" t="s" s="1320">
         <v>1268</v>
       </c>
-      <c r="G381" t="s" s="1321">
+      <c r="G426" t="s" s="1321">
         <v>1269</v>
       </c>
-      <c r="H381" t="s" s="1322">
+      <c r="H426" t="s" s="1322">
         <v>1270</v>
       </c>
-      <c r="I381" t="s" s="1323">
+      <c r="I426" t="s" s="1323">
         <v>1271</v>
       </c>
-      <c r="J381" t="s" s="1324">
+      <c r="J426" t="s" s="1324">
         <v>1272</v>
       </c>
     </row>
-    <row r="382" ht="20.0" customHeight="true">
-      <c r="A382" t="s" s="1325">
+    <row r="427" ht="20.0" customHeight="true">
+      <c r="A427" t="s" s="1325">
         <v>1273</v>
       </c>
-      <c r="B382" t="s" s="1326">
+      <c r="B427" t="s" s="1326">
         <v>1274</v>
       </c>
-      <c r="C382" t="s" s="1327">
+      <c r="C427" t="s" s="1327">
         <v>1275</v>
       </c>
-      <c r="D382" t="s" s="1328">
+      <c r="D427" t="s" s="1328">
         <v>1276</v>
       </c>
     </row>
-    <row r="383" ht="20.0" customHeight="true">
-      <c r="A383" t="s" s="1329">
+    <row r="428" ht="20.0" customHeight="true">
+      <c r="A428"/>
+    </row>
+    <row r="429" ht="20.0" customHeight="true">
+      <c r="A429" t="s" s="1329">
         <v>1277</v>
       </c>
-      <c r="B383" t="s" s="1329">
+      <c r="B429" t="s" s="1329">
         <v>1278</v>
       </c>
     </row>
-    <row r="384" ht="20.0" customHeight="true">
-      <c r="A384" t="s" s="1330">
+    <row r="430" ht="20.0" customHeight="true">
+      <c r="A430" t="s" s="1330">
         <v>4</v>
       </c>
-      <c r="B384" t="s" s="1330">
+      <c r="B430" t="s" s="1330">
         <v>1279</v>
       </c>
     </row>
-    <row r="385" ht="20.0" customHeight="true">
-      <c r="A385" t="s" s="1331">
+    <row r="431" ht="20.0" customHeight="true">
+      <c r="A431" t="s" s="1331">
         <v>6</v>
       </c>
-      <c r="B385" t="s" s="1331">
+      <c r="B431" t="s" s="1331">
         <v>1280</v>
       </c>
     </row>
-    <row r="386" ht="20.0" customHeight="true">
-      <c r="A386" t="s" s="1332">
+    <row r="432" ht="20.0" customHeight="true">
+      <c r="A432" t="s" s="1332">
         <v>21</v>
       </c>
     </row>
-    <row r="387" ht="20.0" customHeight="true">
-      <c r="A387" t="s" s="1333">
+    <row r="433" ht="20.0" customHeight="true">
+      <c r="A433" t="s" s="1333">
         <v>1281</v>
       </c>
-      <c r="B387" t="s" s="1334">
+      <c r="B433" t="s" s="1334">
         <v>1282</v>
       </c>
-      <c r="C387" t="s" s="1335">
+      <c r="C433" t="s" s="1335">
         <v>1283</v>
       </c>
-      <c r="D387" t="s" s="1336">
+      <c r="D433" t="s" s="1336">
         <v>1284</v>
       </c>
-      <c r="E387" t="s" s="1337">
+      <c r="E433" t="s" s="1337">
         <v>1285</v>
       </c>
-      <c r="F387" t="s" s="1338">
+      <c r="F433" t="s" s="1338">
         <v>1286</v>
       </c>
-      <c r="G387" t="s" s="1339">
+      <c r="G433" t="s" s="1339">
         <v>1287</v>
       </c>
-      <c r="H387" t="s" s="1340">
+      <c r="H433" t="s" s="1340">
         <v>1288</v>
       </c>
-      <c r="I387" t="s" s="1341">
+      <c r="I433" t="s" s="1341">
         <v>1289</v>
       </c>
-      <c r="J387" t="s" s="1342">
+      <c r="J433" t="s" s="1342">
         <v>1290</v>
       </c>
     </row>
-    <row r="388" ht="20.0" customHeight="true">
-      <c r="A388" t="s" s="1343">
+    <row r="434" ht="20.0" customHeight="true">
+      <c r="A434" t="s" s="1343">
         <v>1291</v>
       </c>
-      <c r="B388" t="s" s="1344">
+      <c r="B434" t="s" s="1344">
         <v>1292</v>
       </c>
-      <c r="C388" t="s" s="1345">
+      <c r="C434" t="s" s="1345">
         <v>1293</v>
       </c>
-      <c r="D388" t="s" s="1346">
+      <c r="D434" t="s" s="1346">
         <v>1294</v>
       </c>
-      <c r="E388" t="s" s="1347">
+      <c r="E434" t="s" s="1347">
         <v>1295</v>
       </c>
-      <c r="F388" t="s" s="1348">
+      <c r="F434" t="s" s="1348">
         <v>1296</v>
       </c>
-      <c r="G388" t="s" s="1349">
+      <c r="G434" t="s" s="1349">
         <v>1297</v>
       </c>
-      <c r="H388" t="s" s="1350">
+      <c r="H434" t="s" s="1350">
         <v>1298</v>
       </c>
-      <c r="I388" t="s" s="1351">
+      <c r="I434" t="s" s="1351">
         <v>1299</v>
       </c>
-      <c r="J388" t="s" s="1352">
+      <c r="J434" t="s" s="1352">
         <v>1300</v>
       </c>
     </row>
-    <row r="389" ht="20.0" customHeight="true">
-      <c r="A389" t="s" s="1353">
+    <row r="435" ht="20.0" customHeight="true">
+      <c r="A435" t="s" s="1353">
         <v>1301</v>
       </c>
-      <c r="B389" t="s" s="1354">
+      <c r="B435" t="s" s="1354">
         <v>1302</v>
       </c>
-      <c r="C389" t="s" s="1355">
+      <c r="C435" t="s" s="1355">
         <v>1303</v>
       </c>
-      <c r="D389" t="s" s="1356">
+      <c r="D435" t="s" s="1356">
         <v>1304</v>
       </c>
-      <c r="E389" t="s" s="1357">
+      <c r="E435" t="s" s="1357">
         <v>1305</v>
       </c>
-      <c r="F389" t="s" s="1358">
+      <c r="F435" t="s" s="1358">
         <v>1306</v>
       </c>
-      <c r="G389" t="s" s="1359">
+      <c r="G435" t="s" s="1359">
         <v>1307</v>
       </c>
     </row>
-    <row r="390" ht="20.0" customHeight="true">
-      <c r="A390" t="s" s="1360">
+    <row r="436" ht="20.0" customHeight="true">
+      <c r="A436"/>
+    </row>
+    <row r="437" ht="20.0" customHeight="true">
+      <c r="A437" t="s" s="1360">
         <v>1308</v>
       </c>
-      <c r="B390" t="s" s="1360">
+      <c r="B437" t="s" s="1360">
         <v>1309</v>
       </c>
     </row>
-    <row r="391" ht="20.0" customHeight="true">
-      <c r="A391" t="s" s="1361">
+    <row r="438" ht="20.0" customHeight="true">
+      <c r="A438" t="s" s="1361">
         <v>4</v>
       </c>
-      <c r="B391" t="s" s="1361">
+      <c r="B438" t="s" s="1361">
         <v>1310</v>
       </c>
     </row>
-    <row r="392" ht="20.0" customHeight="true">
-      <c r="A392" t="s" s="1362">
+    <row r="439" ht="20.0" customHeight="true">
+      <c r="A439" t="s" s="1362">
         <v>6</v>
       </c>
-      <c r="B392" t="s" s="1362">
+      <c r="B439" t="s" s="1362">
         <v>1311</v>
       </c>
     </row>
-    <row r="393" ht="20.0" customHeight="true">
-      <c r="A393" t="s" s="1363">
+    <row r="440" ht="20.0" customHeight="true">
+      <c r="A440" t="s" s="1363">
         <v>8</v>
       </c>
     </row>
-    <row r="394" ht="20.0" customHeight="true">
-      <c r="A394" t="s" s="1364">
+    <row r="441" ht="20.0" customHeight="true">
+      <c r="A441" t="s" s="1364">
         <v>1312</v>
       </c>
-      <c r="B394" t="s" s="1365">
+      <c r="B441" t="s" s="1365">
         <v>1313</v>
       </c>
-      <c r="C394" t="s" s="1366">
+      <c r="C441" t="s" s="1366">
         <v>1314</v>
       </c>
-      <c r="D394" t="s" s="1367">
+      <c r="D441" t="s" s="1367">
         <v>1315</v>
       </c>
-      <c r="E394" t="s" s="1368">
+      <c r="E441" t="s" s="1368">
         <v>1316</v>
       </c>
-      <c r="F394" t="s" s="1369">
+      <c r="F441" t="s" s="1369">
         <v>1317</v>
       </c>
-      <c r="G394" t="s" s="1370">
+      <c r="G441" t="s" s="1370">
         <v>1318</v>
       </c>
-      <c r="H394" t="s" s="1371">
+      <c r="H441" t="s" s="1371">
         <v>1319</v>
       </c>
-      <c r="I394" t="s" s="1372">
+      <c r="I441" t="s" s="1372">
         <v>1320</v>
       </c>
-      <c r="J394" t="s" s="1373">
+      <c r="J441" t="s" s="1373">
         <v>1321</v>
       </c>
     </row>
-    <row r="395" ht="20.0" customHeight="true">
-      <c r="A395" t="s" s="1374">
+    <row r="442" ht="20.0" customHeight="true">
+      <c r="A442" t="s" s="1374">
         <v>1322</v>
       </c>
     </row>
-    <row r="396" ht="20.0" customHeight="true">
-      <c r="A396" t="s" s="1375">
+    <row r="443" ht="20.0" customHeight="true">
+      <c r="A443" t="s" s="1375">
         <v>21</v>
       </c>
     </row>
-    <row r="397" ht="20.0" customHeight="true">
-      <c r="A397" t="s" s="1376">
+    <row r="444" ht="20.0" customHeight="true">
+      <c r="A444" t="s" s="1376">
         <v>1323</v>
       </c>
-      <c r="B397" t="s" s="1377">
+      <c r="B444" t="s" s="1377">
         <v>1324</v>
       </c>
-      <c r="C397" t="s" s="1378">
+      <c r="C444" t="s" s="1378">
         <v>1325</v>
       </c>
-      <c r="D397" t="s" s="1379">
+      <c r="D444" t="s" s="1379">
         <v>1326</v>
       </c>
-      <c r="E397" t="s" s="1380">
+      <c r="E444" t="s" s="1380">
         <v>1327</v>
       </c>
-      <c r="F397" t="s" s="1381">
+      <c r="F444" t="s" s="1381">
         <v>1328</v>
       </c>
-      <c r="G397" t="s" s="1382">
+      <c r="G444" t="s" s="1382">
         <v>1329</v>
       </c>
-      <c r="H397" t="s" s="1383">
+      <c r="H444" t="s" s="1383">
         <v>1330</v>
       </c>
-      <c r="I397" t="s" s="1384">
+      <c r="I444" t="s" s="1384">
         <v>1331</v>
       </c>
-      <c r="J397" t="s" s="1385">
+      <c r="J444" t="s" s="1385">
         <v>1332</v>
       </c>
     </row>
-    <row r="398" ht="20.0" customHeight="true">
-      <c r="A398" t="s" s="1386">
+    <row r="445" ht="20.0" customHeight="true">
+      <c r="A445" t="s" s="1386">
         <v>1333</v>
       </c>
-      <c r="B398" t="s" s="1387">
+      <c r="B445" t="s" s="1387">
         <v>1334</v>
       </c>
-      <c r="C398" t="s" s="1388">
+      <c r="C445" t="s" s="1388">
         <v>1335</v>
       </c>
-      <c r="D398" t="s" s="1389">
+      <c r="D445" t="s" s="1389">
         <v>1336</v>
       </c>
-      <c r="E398" t="s" s="1390">
+      <c r="E445" t="s" s="1390">
         <v>1337</v>
       </c>
-      <c r="F398" t="s" s="1391">
+      <c r="F445" t="s" s="1391">
         <v>1338</v>
       </c>
     </row>
-    <row r="399" ht="24.0" customHeight="true">
-      <c r="A399" t="s" s="1392">
+    <row r="446" ht="20.0" customHeight="true">
+      <c r="A446"/>
+    </row>
+    <row r="447" ht="24.0" customHeight="true">
+      <c r="A447" t="s" s="1392">
         <v>1339</v>
       </c>
     </row>
-    <row r="400" ht="20.0" customHeight="true">
-      <c r="A400" t="s" s="1393">
+    <row r="448" ht="20.0" customHeight="true">
+      <c r="A448"/>
+    </row>
+    <row r="449" ht="20.0" customHeight="true">
+      <c r="A449" t="s" s="1393">
         <v>1340</v>
       </c>
-      <c r="B400" t="s" s="1393">
+      <c r="B449" t="s" s="1393">
         <v>1341</v>
       </c>
     </row>
-    <row r="401" ht="20.0" customHeight="true">
-      <c r="A401" t="s" s="1394">
+    <row r="450" ht="20.0" customHeight="true">
+      <c r="A450" t="s" s="1394">
         <v>4</v>
       </c>
-      <c r="B401" t="s" s="1394">
+      <c r="B450" t="s" s="1394">
         <v>1342</v>
       </c>
     </row>
-    <row r="402" ht="20.0" customHeight="true">
-      <c r="A402" t="s" s="1395">
+    <row r="451" ht="20.0" customHeight="true">
+      <c r="A451" t="s" s="1395">
         <v>6</v>
       </c>
-      <c r="B402" t="s" s="1395">
+      <c r="B451" t="s" s="1395">
         <v>1343</v>
       </c>
     </row>
-    <row r="403" ht="20.0" customHeight="true">
-      <c r="A403" t="s" s="1396">
+    <row r="452" ht="20.0" customHeight="true">
+      <c r="A452" t="s" s="1396">
         <v>8</v>
       </c>
     </row>
-    <row r="404" ht="20.0" customHeight="true">
-      <c r="A404" t="s" s="1397">
+    <row r="453" ht="20.0" customHeight="true">
+      <c r="A453" t="s" s="1397">
         <v>1344</v>
       </c>
-      <c r="B404" t="s" s="1398">
+      <c r="B453" t="s" s="1398">
         <v>1345</v>
       </c>
-      <c r="C404" t="s" s="1399">
+      <c r="C453" t="s" s="1399">
         <v>1346</v>
       </c>
-      <c r="D404" t="s" s="1400">
+      <c r="D453" t="s" s="1400">
         <v>1347</v>
       </c>
-      <c r="E404" t="s" s="1401">
+      <c r="E453" t="s" s="1401">
         <v>1348</v>
       </c>
-      <c r="F404" t="s" s="1402">
+      <c r="F453" t="s" s="1402">
         <v>1349</v>
       </c>
-      <c r="G404" t="s" s="1403">
+      <c r="G453" t="s" s="1403">
         <v>1350</v>
       </c>
-      <c r="H404" t="s" s="1404">
+      <c r="H453" t="s" s="1404">
         <v>1351</v>
       </c>
-      <c r="I404" t="s" s="1405">
+      <c r="I453" t="s" s="1405">
         <v>1352</v>
       </c>
-      <c r="J404" t="s" s="1406">
+      <c r="J453" t="s" s="1406">
         <v>1353</v>
       </c>
     </row>
-    <row r="405" ht="20.0" customHeight="true">
-      <c r="A405" t="s" s="1407">
+    <row r="454" ht="20.0" customHeight="true">
+      <c r="A454" t="s" s="1407">
         <v>1354</v>
       </c>
-      <c r="B405" t="s" s="1408">
+      <c r="B454" t="s" s="1408">
         <v>1355</v>
       </c>
-      <c r="C405" t="s" s="1409">
+      <c r="C454" t="s" s="1409">
         <v>1356</v>
       </c>
-      <c r="D405" t="s" s="1410">
+      <c r="D454" t="s" s="1410">
         <v>1357</v>
       </c>
     </row>
-    <row r="406" ht="20.0" customHeight="true">
-      <c r="A406" t="s" s="1411">
+    <row r="455" ht="20.0" customHeight="true">
+      <c r="A455" t="s" s="1411">
         <v>21</v>
       </c>
     </row>
-    <row r="407" ht="20.0" customHeight="true">
-      <c r="A407" t="s" s="1412">
+    <row r="456" ht="20.0" customHeight="true">
+      <c r="A456" t="s" s="1412">
         <v>1358</v>
       </c>
-      <c r="B407" t="s" s="1413">
+      <c r="B456" t="s" s="1413">
         <v>1359</v>
       </c>
-      <c r="C407" t="s" s="1414">
+      <c r="C456" t="s" s="1414">
         <v>1360</v>
       </c>
-      <c r="D407" t="s" s="1415">
+      <c r="D456" t="s" s="1415">
         <v>1361</v>
       </c>
-      <c r="E407" t="s" s="1416">
+      <c r="E456" t="s" s="1416">
         <v>1362</v>
       </c>
-      <c r="F407" t="s" s="1417">
+      <c r="F456" t="s" s="1417">
         <v>1363</v>
       </c>
-      <c r="G407" t="s" s="1418">
+      <c r="G456" t="s" s="1418">
         <v>1364</v>
       </c>
-      <c r="H407" t="s" s="1419">
+      <c r="H456" t="s" s="1419">
         <v>1365</v>
       </c>
-      <c r="I407" t="s" s="1420">
+      <c r="I456" t="s" s="1420">
         <v>1366</v>
       </c>
-      <c r="J407" t="s" s="1421">
+      <c r="J456" t="s" s="1421">
         <v>1367</v>
       </c>
     </row>
-    <row r="408" ht="20.0" customHeight="true">
-      <c r="A408" t="s" s="1422">
+    <row r="457" ht="20.0" customHeight="true">
+      <c r="A457" t="s" s="1422">
         <v>1368</v>
       </c>
-      <c r="B408" t="s" s="1423">
+      <c r="B457" t="s" s="1423">
         <v>1369</v>
       </c>
-      <c r="C408" t="s" s="1424">
+      <c r="C457" t="s" s="1424">
         <v>1370</v>
       </c>
     </row>
-    <row r="409" ht="20.0" customHeight="true">
-      <c r="A409" t="s" s="1425">
+    <row r="458" ht="20.0" customHeight="true">
+      <c r="A458"/>
+    </row>
+    <row r="459" ht="20.0" customHeight="true">
+      <c r="A459" t="s" s="1425">
         <v>1371</v>
       </c>
-      <c r="B409" t="s" s="1425">
+      <c r="B459" t="s" s="1425">
         <v>1372</v>
       </c>
     </row>
-    <row r="410" ht="20.0" customHeight="true">
-      <c r="A410" t="s" s="1426">
+    <row r="460" ht="20.0" customHeight="true">
+      <c r="A460" t="s" s="1426">
         <v>4</v>
       </c>
-      <c r="B410" t="s" s="1426">
+      <c r="B460" t="s" s="1426">
         <v>1373</v>
       </c>
     </row>
-    <row r="411" ht="20.0" customHeight="true">
-      <c r="A411" t="s" s="1427">
+    <row r="461" ht="20.0" customHeight="true">
+      <c r="A461" t="s" s="1427">
         <v>6</v>
       </c>
-      <c r="B411" t="s" s="1427">
+      <c r="B461" t="s" s="1427">
         <v>1373</v>
       </c>
     </row>
-    <row r="412" ht="20.0" customHeight="true">
-      <c r="A412" t="s" s="1428">
+    <row r="462" ht="20.0" customHeight="true">
+      <c r="A462" t="s" s="1428">
         <v>8</v>
       </c>
     </row>
-    <row r="413" ht="20.0" customHeight="true">
-      <c r="A413" t="s" s="1429">
+    <row r="463" ht="20.0" customHeight="true">
+      <c r="A463" t="s" s="1429">
         <v>1374</v>
       </c>
-      <c r="B413" t="s" s="1430">
+      <c r="B463" t="s" s="1430">
         <v>1375</v>
       </c>
-      <c r="C413" t="s" s="1431">
+      <c r="C463" t="s" s="1431">
         <v>1376</v>
       </c>
-      <c r="D413" t="s" s="1432">
+      <c r="D463" t="s" s="1432">
         <v>1377</v>
       </c>
-      <c r="E413" t="s" s="1433">
+      <c r="E463" t="s" s="1433">
         <v>1378</v>
       </c>
-      <c r="F413" t="s" s="1434">
+      <c r="F463" t="s" s="1434">
         <v>1379</v>
       </c>
-      <c r="G413" t="s" s="1435">
+      <c r="G463" t="s" s="1435">
         <v>1380</v>
       </c>
-      <c r="H413" t="s" s="1436">
+      <c r="H463" t="s" s="1436">
         <v>1381</v>
       </c>
-      <c r="I413" t="s" s="1437">
+      <c r="I463" t="s" s="1437">
         <v>1382</v>
       </c>
-      <c r="J413" t="s" s="1438">
+      <c r="J463" t="s" s="1438">
         <v>1383</v>
       </c>
     </row>
-    <row r="414" ht="20.0" customHeight="true">
-      <c r="A414" t="s" s="1439">
+    <row r="464" ht="20.0" customHeight="true">
+      <c r="A464" t="s" s="1439">
         <v>1384</v>
       </c>
-      <c r="B414" t="s" s="1440">
+      <c r="B464" t="s" s="1440">
         <v>1385</v>
       </c>
-      <c r="C414" t="s" s="1441">
+      <c r="C464" t="s" s="1441">
         <v>1386</v>
       </c>
-      <c r="D414" t="s" s="1442">
+      <c r="D464" t="s" s="1442">
         <v>1387</v>
       </c>
     </row>
-    <row r="415" ht="20.0" customHeight="true">
-      <c r="A415" t="s" s="1443">
+    <row r="465" ht="20.0" customHeight="true">
+      <c r="A465" t="s" s="1443">
         <v>21</v>
       </c>
     </row>
-    <row r="416" ht="20.0" customHeight="true">
-      <c r="A416" t="s" s="1444">
+    <row r="466" ht="20.0" customHeight="true">
+      <c r="A466" t="s" s="1444">
         <v>1388</v>
       </c>
-      <c r="B416" t="s" s="1445">
+      <c r="B466" t="s" s="1445">
         <v>1389</v>
       </c>
-      <c r="C416" t="s" s="1446">
+      <c r="C466" t="s" s="1446">
         <v>1390</v>
       </c>
-      <c r="D416" t="s" s="1447">
+      <c r="D466" t="s" s="1447">
         <v>1391</v>
       </c>
-      <c r="E416" t="s" s="1448">
+      <c r="E466" t="s" s="1448">
         <v>1392</v>
       </c>
-      <c r="F416" t="s" s="1449">
+      <c r="F466" t="s" s="1449">
         <v>1393</v>
       </c>
-      <c r="G416" t="s" s="1450">
+      <c r="G466" t="s" s="1450">
         <v>1394</v>
       </c>
-      <c r="H416" t="s" s="1451">
+      <c r="H466" t="s" s="1451">
         <v>1395</v>
       </c>
-      <c r="I416" t="s" s="1452">
+      <c r="I466" t="s" s="1452">
         <v>1396</v>
       </c>
-      <c r="J416" t="s" s="1453">
+      <c r="J466" t="s" s="1453">
         <v>1397</v>
       </c>
     </row>
-    <row r="417" ht="20.0" customHeight="true">
-      <c r="A417" t="s" s="1454">
+    <row r="467" ht="20.0" customHeight="true">
+      <c r="A467" t="s" s="1454">
         <v>1398</v>
       </c>
-      <c r="B417" t="s" s="1455">
+      <c r="B467" t="s" s="1455">
         <v>1399</v>
       </c>
-      <c r="C417" t="s" s="1456">
+      <c r="C467" t="s" s="1456">
         <v>1400</v>
       </c>
     </row>
-    <row r="418" ht="20.0" customHeight="true">
-      <c r="A418" t="s" s="1457">
+    <row r="468" ht="20.0" customHeight="true">
+      <c r="A468"/>
+    </row>
+    <row r="469" ht="20.0" customHeight="true">
+      <c r="A469" t="s" s="1457">
         <v>1401</v>
       </c>
-      <c r="B418" t="s" s="1457">
+      <c r="B469" t="s" s="1457">
         <v>3</v>
       </c>
     </row>
-    <row r="419" ht="20.0" customHeight="true">
-      <c r="A419" t="s" s="1458">
+    <row r="470" ht="20.0" customHeight="true">
+      <c r="A470" t="s" s="1458">
         <v>4</v>
       </c>
-      <c r="B419" t="s" s="1458">
+      <c r="B470" t="s" s="1458">
         <v>1402</v>
       </c>
     </row>
-    <row r="420" ht="20.0" customHeight="true">
-      <c r="A420" t="s" s="1459">
+    <row r="471" ht="20.0" customHeight="true">
+      <c r="A471" t="s" s="1459">
         <v>6</v>
       </c>
-      <c r="B420" t="s" s="1459">
+      <c r="B471" t="s" s="1459">
         <v>1403</v>
       </c>
     </row>
-    <row r="421" ht="20.0" customHeight="true">
-      <c r="A421" t="s" s="1460">
+    <row r="472" ht="20.0" customHeight="true">
+      <c r="A472" t="s" s="1460">
         <v>8</v>
       </c>
     </row>
-    <row r="422" ht="20.0" customHeight="true">
-      <c r="A422" t="s" s="1461">
+    <row r="473" ht="20.0" customHeight="true">
+      <c r="A473" t="s" s="1461">
         <v>1404</v>
       </c>
-      <c r="B422" t="s" s="1462">
+      <c r="B473" t="s" s="1462">
         <v>1405</v>
       </c>
-      <c r="C422" t="s" s="1463">
+      <c r="C473" t="s" s="1463">
         <v>1406</v>
       </c>
-      <c r="D422" t="s" s="1464">
+      <c r="D473" t="s" s="1464">
         <v>1407</v>
       </c>
-      <c r="E422" t="s" s="1465">
+      <c r="E473" t="s" s="1465">
         <v>1408</v>
       </c>
-      <c r="F422" t="s" s="1466">
+      <c r="F473" t="s" s="1466">
         <v>1409</v>
       </c>
-      <c r="G422" t="s" s="1467">
+      <c r="G473" t="s" s="1467">
         <v>1410</v>
       </c>
-      <c r="H422" t="s" s="1468">
+      <c r="H473" t="s" s="1468">
         <v>1411</v>
       </c>
-      <c r="I422" t="s" s="1469">
+      <c r="I473" t="s" s="1469">
         <v>1412</v>
       </c>
-      <c r="J422" t="s" s="1470">
+      <c r="J473" t="s" s="1470">
         <v>1413</v>
       </c>
     </row>
-    <row r="423" ht="20.0" customHeight="true">
-      <c r="A423" t="s" s="1471">
+    <row r="474" ht="20.0" customHeight="true">
+      <c r="A474" t="s" s="1471">
         <v>1414</v>
       </c>
-      <c r="B423" t="s" s="1472">
+      <c r="B474" t="s" s="1472">
         <v>1415</v>
       </c>
-      <c r="C423" t="s" s="1473">
+      <c r="C474" t="s" s="1473">
         <v>1416</v>
       </c>
     </row>
-    <row r="424" ht="20.0" customHeight="true">
-      <c r="A424" t="s" s="1474">
+    <row r="475" ht="20.0" customHeight="true">
+      <c r="A475" t="s" s="1474">
         <v>21</v>
       </c>
     </row>
-    <row r="425" ht="20.0" customHeight="true">
-      <c r="A425" t="s" s="1475">
+    <row r="476" ht="20.0" customHeight="true">
+      <c r="A476" t="s" s="1475">
         <v>1417</v>
       </c>
-      <c r="B425" t="s" s="1476">
+      <c r="B476" t="s" s="1476">
         <v>1418</v>
       </c>
-      <c r="C425" t="s" s="1477">
+      <c r="C476" t="s" s="1477">
         <v>1419</v>
       </c>
-      <c r="D425" t="s" s="1478">
+      <c r="D476" t="s" s="1478">
         <v>1420</v>
       </c>
-      <c r="E425" t="s" s="1479">
+      <c r="E476" t="s" s="1479">
         <v>1421</v>
       </c>
-      <c r="F425" t="s" s="1480">
+      <c r="F476" t="s" s="1480">
         <v>1422</v>
       </c>
-      <c r="G425" t="s" s="1481">
+      <c r="G476" t="s" s="1481">
         <v>1423</v>
       </c>
-      <c r="H425" t="s" s="1482">
+      <c r="H476" t="s" s="1482">
         <v>1424</v>
       </c>
-      <c r="I425" t="s" s="1483">
+      <c r="I476" t="s" s="1483">
         <v>1425</v>
       </c>
-      <c r="J425" t="s" s="1484">
+      <c r="J476" t="s" s="1484">
         <v>1426</v>
       </c>
     </row>
-    <row r="426" ht="20.0" customHeight="true">
-      <c r="A426" t="s" s="1485">
+    <row r="477" ht="20.0" customHeight="true">
+      <c r="A477" t="s" s="1485">
         <v>1427</v>
       </c>
-      <c r="B426" t="s" s="1486">
+      <c r="B477" t="s" s="1486">
         <v>1428</v>
       </c>
-      <c r="C426" t="s" s="1487">
+      <c r="C477" t="s" s="1487">
         <v>1429</v>
       </c>
-      <c r="D426" t="s" s="1488">
+      <c r="D477" t="s" s="1488">
         <v>1430</v>
       </c>
     </row>
-    <row r="427" ht="20.0" customHeight="true">
-      <c r="A427" t="s" s="1489">
+    <row r="478" ht="20.0" customHeight="true">
+      <c r="A478"/>
+    </row>
+    <row r="479" ht="20.0" customHeight="true">
+      <c r="A479" t="s" s="1489">
         <v>1431</v>
       </c>
-      <c r="B427" t="s" s="1489">
+      <c r="B479" t="s" s="1489">
         <v>1432</v>
       </c>
     </row>
-    <row r="428" ht="20.0" customHeight="true">
-      <c r="A428" t="s" s="1490">
+    <row r="480" ht="20.0" customHeight="true">
+      <c r="A480" t="s" s="1490">
         <v>4</v>
       </c>
-      <c r="B428" t="s" s="1490">
+      <c r="B480" t="s" s="1490">
         <v>1433</v>
       </c>
     </row>
-    <row r="429" ht="20.0" customHeight="true">
-      <c r="A429" t="s" s="1491">
+    <row r="481" ht="20.0" customHeight="true">
+      <c r="A481" t="s" s="1491">
         <v>6</v>
       </c>
-      <c r="B429" t="s" s="1491">
+      <c r="B481" t="s" s="1491">
         <v>1434</v>
       </c>
     </row>
-    <row r="430" ht="20.0" customHeight="true">
-      <c r="A430" t="s" s="1492">
+    <row r="482" ht="20.0" customHeight="true">
+      <c r="A482" t="s" s="1492">
         <v>8</v>
       </c>
     </row>
-    <row r="431" ht="20.0" customHeight="true">
-      <c r="A431" t="s" s="1493">
+    <row r="483" ht="20.0" customHeight="true">
+      <c r="A483" t="s" s="1493">
         <v>1435</v>
       </c>
-      <c r="B431" t="s" s="1494">
+      <c r="B483" t="s" s="1494">
         <v>1436</v>
       </c>
-      <c r="C431" t="s" s="1495">
+      <c r="C483" t="s" s="1495">
         <v>1437</v>
       </c>
-      <c r="D431" t="s" s="1496">
+      <c r="D483" t="s" s="1496">
         <v>1438</v>
       </c>
-      <c r="E431" t="s" s="1497">
+      <c r="E483" t="s" s="1497">
         <v>1439</v>
       </c>
-      <c r="F431" t="s" s="1498">
+      <c r="F483" t="s" s="1498">
         <v>1440</v>
       </c>
-      <c r="G431" t="s" s="1499">
+      <c r="G483" t="s" s="1499">
         <v>1441</v>
       </c>
-      <c r="H431" t="s" s="1500">
+      <c r="H483" t="s" s="1500">
         <v>1442</v>
       </c>
-      <c r="I431" t="s" s="1501">
+      <c r="I483" t="s" s="1501">
         <v>1443</v>
       </c>
-      <c r="J431" t="s" s="1502">
+      <c r="J483" t="s" s="1502">
         <v>1444</v>
       </c>
     </row>
-    <row r="432" ht="20.0" customHeight="true">
-      <c r="A432" t="s" s="1503">
+    <row r="484" ht="20.0" customHeight="true">
+      <c r="A484" t="s" s="1503">
         <v>1445</v>
       </c>
-      <c r="B432" t="s" s="1504">
+      <c r="B484" t="s" s="1504">
         <v>1446</v>
       </c>
-      <c r="C432" t="s" s="1505">
+      <c r="C484" t="s" s="1505">
         <v>1447</v>
       </c>
-      <c r="D432" t="s" s="1506">
+      <c r="D484" t="s" s="1506">
         <v>1448</v>
       </c>
     </row>
-    <row r="433" ht="20.0" customHeight="true">
-      <c r="A433" t="s" s="1507">
+    <row r="485" ht="20.0" customHeight="true">
+      <c r="A485" t="s" s="1507">
         <v>21</v>
       </c>
     </row>
-    <row r="434" ht="20.0" customHeight="true">
-      <c r="A434" t="s" s="1508">
+    <row r="486" ht="20.0" customHeight="true">
+      <c r="A486" t="s" s="1508">
         <v>1449</v>
       </c>
-      <c r="B434" t="s" s="1509">
+      <c r="B486" t="s" s="1509">
         <v>1450</v>
       </c>
-      <c r="C434" t="s" s="1510">
+      <c r="C486" t="s" s="1510">
         <v>1451</v>
       </c>
-      <c r="D434" t="s" s="1511">
+      <c r="D486" t="s" s="1511">
         <v>1452</v>
       </c>
-      <c r="E434" t="s" s="1512">
+      <c r="E486" t="s" s="1512">
         <v>1453</v>
       </c>
-      <c r="F434" t="s" s="1513">
+      <c r="F486" t="s" s="1513">
         <v>1454</v>
       </c>
-      <c r="G434" t="s" s="1514">
+      <c r="G486" t="s" s="1514">
         <v>1455</v>
       </c>
-      <c r="H434" t="s" s="1515">
+      <c r="H486" t="s" s="1515">
         <v>1456</v>
       </c>
-      <c r="I434" t="s" s="1516">
+      <c r="I486" t="s" s="1516">
         <v>1457</v>
       </c>
-      <c r="J434" t="s" s="1517">
+      <c r="J486" t="s" s="1517">
         <v>1458</v>
       </c>
     </row>
-    <row r="435" ht="20.0" customHeight="true">
-      <c r="A435" t="s" s="1518">
+    <row r="487" ht="20.0" customHeight="true">
+      <c r="A487" t="s" s="1518">
         <v>1459</v>
       </c>
-      <c r="B435" t="s" s="1519">
+      <c r="B487" t="s" s="1519">
         <v>1460</v>
       </c>
-      <c r="C435" t="s" s="1520">
+      <c r="C487" t="s" s="1520">
         <v>1461</v>
       </c>
     </row>
-    <row r="436" ht="20.0" customHeight="true">
-      <c r="A436" t="s" s="1521">
+    <row r="488" ht="20.0" customHeight="true">
+      <c r="A488"/>
+    </row>
+    <row r="489" ht="20.0" customHeight="true">
+      <c r="A489" t="s" s="1521">
         <v>1462</v>
       </c>
-      <c r="B436" t="s" s="1521">
+      <c r="B489" t="s" s="1521">
         <v>128</v>
       </c>
     </row>
-    <row r="437" ht="20.0" customHeight="true">
-      <c r="A437" t="s" s="1522">
+    <row r="490" ht="20.0" customHeight="true">
+      <c r="A490" t="s" s="1522">
         <v>4</v>
       </c>
-      <c r="B437" t="s" s="1522">
+      <c r="B490" t="s" s="1522">
         <v>129</v>
       </c>
     </row>
-    <row r="438" ht="20.0" customHeight="true">
-      <c r="A438" t="s" s="1523">
+    <row r="491" ht="20.0" customHeight="true">
+      <c r="A491" t="s" s="1523">
         <v>6</v>
       </c>
-      <c r="B438" t="s" s="1523">
+      <c r="B491" t="s" s="1523">
         <v>1463</v>
       </c>
     </row>
-    <row r="439" ht="20.0" customHeight="true">
-      <c r="A439" t="s" s="1524">
+    <row r="492" ht="20.0" customHeight="true">
+      <c r="A492" t="s" s="1524">
         <v>8</v>
       </c>
     </row>
-    <row r="440" ht="20.0" customHeight="true">
-      <c r="A440" t="s" s="1525">
+    <row r="493" ht="20.0" customHeight="true">
+      <c r="A493" t="s" s="1525">
         <v>1464</v>
       </c>
-      <c r="B440" t="s" s="1526">
+      <c r="B493" t="s" s="1526">
         <v>1465</v>
       </c>
-      <c r="C440" t="s" s="1527">
+      <c r="C493" t="s" s="1527">
         <v>1466</v>
       </c>
-      <c r="D440" t="s" s="1528">
+      <c r="D493" t="s" s="1528">
         <v>1467</v>
       </c>
-      <c r="E440" t="s" s="1529">
+      <c r="E493" t="s" s="1529">
         <v>1468</v>
       </c>
-      <c r="F440" t="s" s="1530">
+      <c r="F493" t="s" s="1530">
         <v>1469</v>
       </c>
-      <c r="G440" t="s" s="1531">
+      <c r="G493" t="s" s="1531">
         <v>1470</v>
       </c>
-      <c r="H440" t="s" s="1532">
+      <c r="H493" t="s" s="1532">
         <v>1471</v>
       </c>
-      <c r="I440" t="s" s="1533">
+      <c r="I493" t="s" s="1533">
         <v>1472</v>
       </c>
-      <c r="J440" t="s" s="1534">
+      <c r="J493" t="s" s="1534">
         <v>1473</v>
       </c>
     </row>
-    <row r="441" ht="20.0" customHeight="true">
-      <c r="A441" t="s" s="1535">
+    <row r="494" ht="20.0" customHeight="true">
+      <c r="A494" t="s" s="1535">
         <v>1474</v>
       </c>
-      <c r="B441" t="s" s="1536">
+      <c r="B494" t="s" s="1536">
         <v>1475</v>
       </c>
     </row>
-    <row r="442" ht="20.0" customHeight="true">
-      <c r="A442" t="s" s="1537">
+    <row r="495" ht="20.0" customHeight="true">
+      <c r="A495" t="s" s="1537">
         <v>21</v>
       </c>
     </row>
-    <row r="443" ht="20.0" customHeight="true">
-      <c r="A443" t="s" s="1538">
+    <row r="496" ht="20.0" customHeight="true">
+      <c r="A496" t="s" s="1538">
         <v>1476</v>
       </c>
-      <c r="B443" t="s" s="1539">
+      <c r="B496" t="s" s="1539">
         <v>1477</v>
       </c>
-      <c r="C443" t="s" s="1540">
+      <c r="C496" t="s" s="1540">
         <v>1478</v>
       </c>
-      <c r="D443" t="s" s="1541">
+      <c r="D496" t="s" s="1541">
         <v>1479</v>
       </c>
-      <c r="E443" t="s" s="1542">
+      <c r="E496" t="s" s="1542">
         <v>1480</v>
       </c>
-      <c r="F443" t="s" s="1543">
+      <c r="F496" t="s" s="1543">
         <v>1481</v>
       </c>
-      <c r="G443" t="s" s="1544">
+      <c r="G496" t="s" s="1544">
         <v>1482</v>
       </c>
-      <c r="H443" t="s" s="1545">
+      <c r="H496" t="s" s="1545">
         <v>1483</v>
       </c>
-      <c r="I443" t="s" s="1546">
+      <c r="I496" t="s" s="1546">
         <v>1484</v>
       </c>
-      <c r="J443" t="s" s="1547">
+      <c r="J496" t="s" s="1547">
         <v>1485</v>
       </c>
     </row>
-    <row r="444" ht="20.0" customHeight="true">
-      <c r="A444" t="s" s="1548">
+    <row r="497" ht="20.0" customHeight="true">
+      <c r="A497" t="s" s="1548">
         <v>1486</v>
       </c>
-      <c r="B444" t="s" s="1549">
+      <c r="B497" t="s" s="1549">
         <v>1487</v>
       </c>
-      <c r="C444" t="s" s="1550">
+      <c r="C497" t="s" s="1550">
         <v>1488</v>
       </c>
-      <c r="D444" t="s" s="1551">
+      <c r="D497" t="s" s="1551">
         <v>1489</v>
       </c>
-      <c r="E444" t="s" s="1552">
+      <c r="E497" t="s" s="1552">
         <v>1490</v>
       </c>
     </row>
+    <row r="498" ht="20.0" customHeight="true">
+      <c r="A498"/>
+    </row>
   </sheetData>
-  <mergeCells count="250">
+  <mergeCells count="304">
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
     <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="A64:J64"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B76:J76"/>
     <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A84:J84"/>
     <mergeCell ref="B85:I85"/>
     <mergeCell ref="B86:J86"/>
     <mergeCell ref="B87:J87"/>
     <mergeCell ref="A88:J88"/>
     <mergeCell ref="A91:J91"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B95:J95"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="B95:I95"/>
     <mergeCell ref="B96:J96"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="B104:J104"/>
-    <mergeCell ref="B105:J105"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B112:I112"/>
-    <mergeCell ref="B113:J113"/>
-    <mergeCell ref="B114:J114"/>
-    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B97:J97"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="B106:J106"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="A108:J108"/>
+    <mergeCell ref="A111:J111"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="B116:J116"/>
+    <mergeCell ref="B117:J117"/>
     <mergeCell ref="A118:J118"/>
-    <mergeCell ref="B121:I121"/>
-    <mergeCell ref="B122:J122"/>
-    <mergeCell ref="B123:J123"/>
+    <mergeCell ref="A121:J121"/>
     <mergeCell ref="A124:J124"/>
-    <mergeCell ref="A127:J127"/>
-    <mergeCell ref="B130:I130"/>
-    <mergeCell ref="B131:J131"/>
-    <mergeCell ref="B132:J132"/>
-    <mergeCell ref="A133:J133"/>
-    <mergeCell ref="A136:J136"/>
-    <mergeCell ref="B139:I139"/>
-    <mergeCell ref="B140:J140"/>
-    <mergeCell ref="B141:J141"/>
-    <mergeCell ref="A142:J142"/>
-    <mergeCell ref="A145:J145"/>
-    <mergeCell ref="B148:I148"/>
-    <mergeCell ref="B149:J149"/>
-    <mergeCell ref="B150:J150"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="B126:J126"/>
+    <mergeCell ref="B127:J127"/>
+    <mergeCell ref="A128:J128"/>
+    <mergeCell ref="A131:J131"/>
+    <mergeCell ref="A134:J134"/>
+    <mergeCell ref="B135:I135"/>
+    <mergeCell ref="B136:J136"/>
+    <mergeCell ref="B137:J137"/>
+    <mergeCell ref="A138:J138"/>
+    <mergeCell ref="A141:J141"/>
+    <mergeCell ref="A144:J144"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="B146:J146"/>
+    <mergeCell ref="B147:J147"/>
+    <mergeCell ref="A148:J148"/>
     <mergeCell ref="A151:J151"/>
     <mergeCell ref="A154:J154"/>
-    <mergeCell ref="B157:I157"/>
-    <mergeCell ref="B158:J158"/>
-    <mergeCell ref="B159:J159"/>
-    <mergeCell ref="A160:J160"/>
-    <mergeCell ref="A163:J163"/>
-    <mergeCell ref="B166:I166"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:J156"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A158:J158"/>
+    <mergeCell ref="A161:J161"/>
+    <mergeCell ref="A164:J164"/>
+    <mergeCell ref="B165:I165"/>
+    <mergeCell ref="B166:J166"/>
     <mergeCell ref="B167:J167"/>
-    <mergeCell ref="B168:J168"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="A172:J172"/>
+    <mergeCell ref="A168:J168"/>
+    <mergeCell ref="A171:J171"/>
+    <mergeCell ref="A174:J174"/>
     <mergeCell ref="B175:I175"/>
     <mergeCell ref="B176:J176"/>
     <mergeCell ref="B177:J177"/>
     <mergeCell ref="A178:J178"/>
     <mergeCell ref="A181:J181"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B185:J185"/>
+    <mergeCell ref="A184:J184"/>
+    <mergeCell ref="B185:I185"/>
     <mergeCell ref="B186:J186"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A190:J190"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:J194"/>
-    <mergeCell ref="B195:J195"/>
-    <mergeCell ref="A196:J196"/>
-    <mergeCell ref="A199:J199"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:J203"/>
-    <mergeCell ref="B204:J204"/>
-    <mergeCell ref="A205:J205"/>
+    <mergeCell ref="B187:J187"/>
+    <mergeCell ref="A188:J188"/>
+    <mergeCell ref="A191:J191"/>
+    <mergeCell ref="A194:J194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:J196"/>
+    <mergeCell ref="B197:J197"/>
+    <mergeCell ref="A198:J198"/>
+    <mergeCell ref="A201:J201"/>
+    <mergeCell ref="A204:J204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:J206"/>
+    <mergeCell ref="B207:J207"/>
     <mergeCell ref="A208:J208"/>
     <mergeCell ref="A211:J211"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B213:J213"/>
-    <mergeCell ref="B214:J214"/>
-    <mergeCell ref="A215:J215"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="B215:I215"/>
+    <mergeCell ref="B216:J216"/>
+    <mergeCell ref="B217:J217"/>
     <mergeCell ref="A218:J218"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="B222:J222"/>
-    <mergeCell ref="B223:J223"/>
+    <mergeCell ref="A221:J221"/>
     <mergeCell ref="A224:J224"/>
-    <mergeCell ref="A227:J227"/>
-    <mergeCell ref="B230:I230"/>
-    <mergeCell ref="B231:J231"/>
-    <mergeCell ref="B232:J232"/>
-    <mergeCell ref="A233:J233"/>
+    <mergeCell ref="B225:I225"/>
+    <mergeCell ref="B226:J226"/>
+    <mergeCell ref="B227:J227"/>
+    <mergeCell ref="A228:J228"/>
+    <mergeCell ref="A231:J231"/>
+    <mergeCell ref="A234:J234"/>
+    <mergeCell ref="A235:J235"/>
     <mergeCell ref="A236:J236"/>
-    <mergeCell ref="B239:I239"/>
-    <mergeCell ref="B240:J240"/>
-    <mergeCell ref="B241:J241"/>
-    <mergeCell ref="A242:J242"/>
-    <mergeCell ref="A245:J245"/>
-    <mergeCell ref="A248:J248"/>
-    <mergeCell ref="B249:I249"/>
-    <mergeCell ref="B250:J250"/>
-    <mergeCell ref="B251:J251"/>
-    <mergeCell ref="A252:J252"/>
-    <mergeCell ref="A255:J255"/>
-    <mergeCell ref="B258:I258"/>
+    <mergeCell ref="B237:I237"/>
+    <mergeCell ref="B238:J238"/>
+    <mergeCell ref="B239:J239"/>
+    <mergeCell ref="A240:J240"/>
+    <mergeCell ref="A243:J243"/>
+    <mergeCell ref="A246:J246"/>
+    <mergeCell ref="B247:I247"/>
+    <mergeCell ref="B248:J248"/>
+    <mergeCell ref="B249:J249"/>
+    <mergeCell ref="A250:J250"/>
+    <mergeCell ref="A253:J253"/>
+    <mergeCell ref="A256:J256"/>
+    <mergeCell ref="B257:I257"/>
+    <mergeCell ref="B258:J258"/>
     <mergeCell ref="B259:J259"/>
-    <mergeCell ref="B260:J260"/>
-    <mergeCell ref="A261:J261"/>
-    <mergeCell ref="A264:J264"/>
+    <mergeCell ref="A260:J260"/>
+    <mergeCell ref="A263:J263"/>
+    <mergeCell ref="A266:J266"/>
     <mergeCell ref="B267:I267"/>
     <mergeCell ref="B268:J268"/>
     <mergeCell ref="B269:J269"/>
     <mergeCell ref="A270:J270"/>
     <mergeCell ref="A273:J273"/>
-    <mergeCell ref="B276:I276"/>
-    <mergeCell ref="B277:J277"/>
-    <mergeCell ref="B278:J278"/>
-    <mergeCell ref="A279:J279"/>
+    <mergeCell ref="A276:J276"/>
+    <mergeCell ref="A277:J277"/>
+    <mergeCell ref="A278:J278"/>
+    <mergeCell ref="B279:I279"/>
+    <mergeCell ref="B280:J280"/>
+    <mergeCell ref="B281:J281"/>
     <mergeCell ref="A282:J282"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B286:J286"/>
-    <mergeCell ref="B287:J287"/>
+    <mergeCell ref="A285:J285"/>
     <mergeCell ref="A288:J288"/>
-    <mergeCell ref="A291:J291"/>
-    <mergeCell ref="B294:I294"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="B296:J296"/>
-    <mergeCell ref="A297:J297"/>
-    <mergeCell ref="A300:J300"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B304:J304"/>
-    <mergeCell ref="B305:J305"/>
-    <mergeCell ref="A306:J306"/>
-    <mergeCell ref="A309:J309"/>
-    <mergeCell ref="B312:I312"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B314:J314"/>
+    <mergeCell ref="B289:I289"/>
+    <mergeCell ref="B290:J290"/>
+    <mergeCell ref="B291:J291"/>
+    <mergeCell ref="A292:J292"/>
+    <mergeCell ref="A295:J295"/>
+    <mergeCell ref="A298:J298"/>
+    <mergeCell ref="B299:I299"/>
+    <mergeCell ref="B300:J300"/>
+    <mergeCell ref="B301:J301"/>
+    <mergeCell ref="A302:J302"/>
+    <mergeCell ref="A305:J305"/>
+    <mergeCell ref="A308:J308"/>
+    <mergeCell ref="B309:I309"/>
+    <mergeCell ref="B310:J310"/>
+    <mergeCell ref="B311:J311"/>
+    <mergeCell ref="A312:J312"/>
     <mergeCell ref="A315:J315"/>
+    <mergeCell ref="A318:J318"/>
     <mergeCell ref="B319:I319"/>
     <mergeCell ref="B320:J320"/>
     <mergeCell ref="B321:J321"/>
     <mergeCell ref="A322:J322"/>
     <mergeCell ref="A325:J325"/>
-    <mergeCell ref="B328:I328"/>
-    <mergeCell ref="B329:J329"/>
+    <mergeCell ref="A328:J328"/>
+    <mergeCell ref="B329:I329"/>
     <mergeCell ref="B330:J330"/>
-    <mergeCell ref="A331:J331"/>
-    <mergeCell ref="A334:J334"/>
-    <mergeCell ref="B337:I337"/>
-    <mergeCell ref="B338:J338"/>
-    <mergeCell ref="B339:J339"/>
-    <mergeCell ref="A340:J340"/>
-    <mergeCell ref="A343:J343"/>
-    <mergeCell ref="B346:I346"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B348:J348"/>
-    <mergeCell ref="A349:J349"/>
+    <mergeCell ref="B331:J331"/>
+    <mergeCell ref="A332:J332"/>
+    <mergeCell ref="A335:J335"/>
+    <mergeCell ref="A338:J338"/>
+    <mergeCell ref="B339:I339"/>
+    <mergeCell ref="B340:J340"/>
+    <mergeCell ref="B341:J341"/>
+    <mergeCell ref="A342:J342"/>
+    <mergeCell ref="A345:J345"/>
+    <mergeCell ref="A348:J348"/>
+    <mergeCell ref="B349:I349"/>
+    <mergeCell ref="B350:J350"/>
+    <mergeCell ref="B351:J351"/>
     <mergeCell ref="A352:J352"/>
-    <mergeCell ref="A355:J355"/>
-    <mergeCell ref="B356:I356"/>
-    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="A356:J356"/>
+    <mergeCell ref="B357:I357"/>
     <mergeCell ref="B358:J358"/>
-    <mergeCell ref="A359:J359"/>
-    <mergeCell ref="A362:J362"/>
-    <mergeCell ref="B365:I365"/>
-    <mergeCell ref="B366:J366"/>
-    <mergeCell ref="B367:J367"/>
-    <mergeCell ref="A368:J368"/>
-    <mergeCell ref="A371:J371"/>
-    <mergeCell ref="B374:I374"/>
-    <mergeCell ref="B375:J375"/>
-    <mergeCell ref="B376:J376"/>
-    <mergeCell ref="A377:J377"/>
+    <mergeCell ref="B359:J359"/>
+    <mergeCell ref="A360:J360"/>
+    <mergeCell ref="A363:J363"/>
+    <mergeCell ref="A366:J366"/>
+    <mergeCell ref="B367:I367"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B369:J369"/>
+    <mergeCell ref="A370:J370"/>
+    <mergeCell ref="A373:J373"/>
+    <mergeCell ref="A376:J376"/>
+    <mergeCell ref="B377:I377"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B379:J379"/>
     <mergeCell ref="A380:J380"/>
-    <mergeCell ref="B383:I383"/>
-    <mergeCell ref="B384:J384"/>
-    <mergeCell ref="B385:J385"/>
+    <mergeCell ref="A383:J383"/>
     <mergeCell ref="A386:J386"/>
-    <mergeCell ref="B390:I390"/>
-    <mergeCell ref="B391:J391"/>
-    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B387:I387"/>
+    <mergeCell ref="B388:J388"/>
+    <mergeCell ref="B389:J389"/>
+    <mergeCell ref="A390:J390"/>
     <mergeCell ref="A393:J393"/>
     <mergeCell ref="A396:J396"/>
-    <mergeCell ref="A399:J399"/>
-    <mergeCell ref="B400:I400"/>
+    <mergeCell ref="A397:J397"/>
+    <mergeCell ref="A398:J398"/>
+    <mergeCell ref="B399:I399"/>
+    <mergeCell ref="B400:J400"/>
     <mergeCell ref="B401:J401"/>
-    <mergeCell ref="B402:J402"/>
-    <mergeCell ref="A403:J403"/>
-    <mergeCell ref="A406:J406"/>
+    <mergeCell ref="A402:J402"/>
+    <mergeCell ref="A405:J405"/>
+    <mergeCell ref="A408:J408"/>
     <mergeCell ref="B409:I409"/>
     <mergeCell ref="B410:J410"/>
     <mergeCell ref="B411:J411"/>
     <mergeCell ref="A412:J412"/>
     <mergeCell ref="A415:J415"/>
-    <mergeCell ref="B418:I418"/>
-    <mergeCell ref="B419:J419"/>
+    <mergeCell ref="A418:J418"/>
+    <mergeCell ref="B419:I419"/>
     <mergeCell ref="B420:J420"/>
-    <mergeCell ref="A421:J421"/>
-    <mergeCell ref="A424:J424"/>
-    <mergeCell ref="B427:I427"/>
-    <mergeCell ref="B428:J428"/>
-    <mergeCell ref="B429:J429"/>
-    <mergeCell ref="A430:J430"/>
-    <mergeCell ref="A433:J433"/>
-    <mergeCell ref="B436:I436"/>
-    <mergeCell ref="B437:J437"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A422:J422"/>
+    <mergeCell ref="A425:J425"/>
+    <mergeCell ref="A428:J428"/>
+    <mergeCell ref="B429:I429"/>
+    <mergeCell ref="B430:J430"/>
+    <mergeCell ref="B431:J431"/>
+    <mergeCell ref="A432:J432"/>
+    <mergeCell ref="A436:J436"/>
+    <mergeCell ref="B437:I437"/>
     <mergeCell ref="B438:J438"/>
-    <mergeCell ref="A439:J439"/>
-    <mergeCell ref="A442:J442"/>
+    <mergeCell ref="B439:J439"/>
+    <mergeCell ref="A440:J440"/>
+    <mergeCell ref="A443:J443"/>
+    <mergeCell ref="A446:J446"/>
+    <mergeCell ref="A447:J447"/>
+    <mergeCell ref="A448:J448"/>
+    <mergeCell ref="B449:I449"/>
+    <mergeCell ref="B450:J450"/>
+    <mergeCell ref="B451:J451"/>
+    <mergeCell ref="A452:J452"/>
+    <mergeCell ref="A455:J455"/>
+    <mergeCell ref="A458:J458"/>
+    <mergeCell ref="B459:I459"/>
+    <mergeCell ref="B460:J460"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="A462:J462"/>
+    <mergeCell ref="A465:J465"/>
+    <mergeCell ref="A468:J468"/>
+    <mergeCell ref="B469:I469"/>
+    <mergeCell ref="B470:J470"/>
+    <mergeCell ref="B471:J471"/>
+    <mergeCell ref="A472:J472"/>
+    <mergeCell ref="A475:J475"/>
+    <mergeCell ref="A478:J478"/>
+    <mergeCell ref="B479:I479"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B481:J481"/>
+    <mergeCell ref="A482:J482"/>
+    <mergeCell ref="A485:J485"/>
+    <mergeCell ref="A488:J488"/>
+    <mergeCell ref="B489:I489"/>
+    <mergeCell ref="B490:J490"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="A492:J492"/>
+    <mergeCell ref="A495:J495"/>
+    <mergeCell ref="A498:J498"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToWidth="1"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1491">
   <si>
-    <t>秩序册-组别</t>
-  </si>
-  <si>
-    <t>小学甲组</t>
+    <t>秩序册-项目</t>
+  </si>
+  <si>
+    <t>小学甲组 - 希望风帆</t>
   </si>
   <si>
     <t>001</t>
@@ -2117,7 +2117,7 @@
     <t>黄乐欣</t>
   </si>
   <si>
-    <t>小学乙组</t>
+    <t>小学乙组 - 希望风帆</t>
   </si>
   <si>
     <t>024</t>
@@ -2477,7 +2477,7 @@
     <t>唐璟媛</t>
   </si>
   <si>
-    <t>初中乙组</t>
+    <t>初中乙组 - 舞动青春</t>
   </si>
   <si>
     <t>028</t>
@@ -3569,7 +3569,7 @@
     <t>吴佳茵</t>
   </si>
   <si>
-    <t>高中组</t>
+    <t>高中组 - 舞动青春</t>
   </si>
   <si>
     <t>040</t>
@@ -4031,7 +4031,7 @@
     <t>夏一晴</t>
   </si>
   <si>
-    <t>初中甲组</t>
+    <t>初中甲组 - 舞动青春</t>
   </si>
   <si>
     <t>045</t>

--- a/file.xlsx
+++ b/file.xlsx
@@ -2108,7 +2108,7 @@
     <t>上海市西郊学校</t>
   </si>
   <si>
-    <t>陈加峰,陈加峰,陈加峰</t>
+    <t>陈加峰</t>
   </si>
   <si>
     <t>刘莎,支晓敏,鲁冬明</t>
@@ -10564,4570 +10564,4570 @@
   <cellXfs count="1523">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="705" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="750" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="785" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="830" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="854" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="865" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="866" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="870" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="875" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="881" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="884" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="886" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="887" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="890" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="893" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="896" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="897" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="902" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="908" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="909" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="911" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="913" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="914" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="926" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="929" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="930" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="939" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="941" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="943" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="945" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="946" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="951" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="955" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="957" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="958" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="959" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="961" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="962" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="963" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="965" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="967" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="969" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="971" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="972" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="973" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="974" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="975" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="977" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="978" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="979" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="981" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="983" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="985" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="986" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="987" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="988" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="989" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="990" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="991" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="992" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="993" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="994" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="995" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="998" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="999" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1000" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1001" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1003" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1004" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1005" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1006" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1009" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1010" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1011" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1013" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1015" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1017" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1021" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1022" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1023" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1025" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1026" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1033" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1035" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1036" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1038" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1039" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1041" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1042" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1046" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1047" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1048" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1049" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1050" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1051" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1052" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1053" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1054" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1055" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1056" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1057" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1058" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1062" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1063" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1064" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1065" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1066" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1068" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1069" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1070" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1071" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1073" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1074" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1075" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1077" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1078" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1079" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1080" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1081" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1083" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1084" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1085" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1086" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1087" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1088" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1089" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1090" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1091" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1093" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1095" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1097" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1098" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1099" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1100" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1101" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1102" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1103" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1105" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1106" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1107" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1109" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1110" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1111" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1113" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1114" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1116" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1117" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1118" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1119" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1120" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1121" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1122" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1123" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1124" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1125" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1126" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1127" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1128" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1129" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1130" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1131" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1132" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1133" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1134" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1135" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1136" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1137" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1138" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1139" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1140" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1141" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1142" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1143" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1144" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1146" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1147" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1148" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1149" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1150" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1151" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1152" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1153" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1154" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1155" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1156" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1157" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1158" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1159" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1160" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1161" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1162" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1163" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1164" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1165" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1166" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1167" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1168" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1169" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1170" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1171" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1172" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1173" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1174" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1175" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1176" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1177" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1178" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1179" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1180" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1181" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1182" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1183" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1184" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1185" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1186" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1187" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1188" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1189" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1190" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1191" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1192" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1193" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1194" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1195" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1196" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1197" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1198" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1199" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1200" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1201" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1202" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1203" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1204" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1205" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1206" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1207" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1208" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1209" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1210" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1211" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1212" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1213" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1214" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1215" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1216" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1217" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1218" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1219" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1220" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1221" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1222" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1223" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1224" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1225" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1226" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1227" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1228" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1229" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1230" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1231" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1232" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1233" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1234" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1235" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1236" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1237" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1238" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1239" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1240" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1242" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1243" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1244" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1245" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1246" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1247" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1248" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1249" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1250" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1251" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1252" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1253" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1254" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1255" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1256" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1257" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1258" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1259" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1260" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1261" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1262" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1263" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1264" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1265" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1266" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1267" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1268" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1269" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1270" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1271" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1272" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1273" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1274" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1275" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1276" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1277" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1278" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1279" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1280" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1281" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1282" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1283" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1284" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1285" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1286" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1287" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1288" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1289" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1290" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1291" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1292" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1293" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1294" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1295" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1296" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1297" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1298" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1299" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1300" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1301" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1302" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1303" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1304" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1306" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1307" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1308" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1309" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1310" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1311" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1312" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1313" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1314" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1315" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1316" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1317" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1318" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1319" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1320" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1321" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1322" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1323" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1324" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1325" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1326" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1327" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1328" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1329" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1330" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1331" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1332" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1333" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1334" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1335" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1336" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1337" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1338" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1339" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1340" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1341" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1342" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1343" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1344" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1345" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1346" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1347" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1348" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1349" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1350" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1351" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1352" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1353" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1354" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1355" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1356" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1357" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1358" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1359" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1360" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1361" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1362" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1363" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1364" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1365" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1366" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1367" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1368" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1369" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1370" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1371" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1372" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1373" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1374" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1375" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1376" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1377" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1378" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1379" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1380" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1381" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1382" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1383" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1384" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1385" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1386" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1387" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1388" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1389" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1390" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1391" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1392" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1393" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1394" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1395" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1396" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1397" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1398" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1399" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1400" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1401" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1402" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1403" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1404" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1405" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1406" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1407" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1408" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1409" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1410" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1411" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1412" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1413" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1414" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1415" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1416" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1417" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1418" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1419" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1420" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1421" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1422" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1423" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1424" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1425" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1426" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1427" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1428" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1429" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1430" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1431" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1432" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1433" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1434" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1435" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1436" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1437" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1438" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1439" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1440" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1441" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1442" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1443" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1444" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1445" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1446" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1447" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1448" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1449" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1450" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1451" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1452" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1453" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1454" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1455" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1456" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1457" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1458" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1459" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1460" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1461" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1462" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1463" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1464" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1465" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1466" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1467" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1468" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1469" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1470" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1471" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1472" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1473" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1474" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1475" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1476" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1477" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1478" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1479" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1480" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1481" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1482" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1483" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1484" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1485" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1486" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1487" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1488" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1489" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1490" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1491" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1492" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1493" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1494" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1495" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1496" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1497" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1498" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1499" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1500" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1501" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1502" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1503" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1504" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1505" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1506" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1507" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1508" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1509" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1510" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1511" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1512" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1513" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1514" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1515" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1516" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1517" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1518" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1519" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1520" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1521" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1522" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -15140,11 +15140,11 @@
   </sheetPr>
   <dimension ref="A1:J450"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.0" customWidth="true"/>
+    <col min="1" max="1" width="11.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="37.0" customHeight="true">
@@ -21321,7 +21321,7 @@
     <mergeCell ref="A448:J448"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToWidth="1"/>
+  <pageMargins bottom="0.75" footer="0.7" header="0.7" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToWidth="1" paperSize="9" fitToHeight="0" scale="100"/>
 </worksheet>
 </file>